--- a/Review_sheet.xlsx
+++ b/Review_sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rish\Documents\GitHub_Repositories\Review_Scraper_Streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9778665D-4DAD-40C0-8C90-4BD1B51CBC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A280B6-2C0F-444F-9145-D0DF49F88327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17126" uniqueCount="4722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16600" uniqueCount="4541">
   <si>
     <t>Enter review link here</t>
   </si>
@@ -13662,549 +13662,6 @@
   </si>
   <si>
     <t>https://www.flipkart.com/reviews/SMWGVCMGEXFVDZ2P:10?reviewId=207dd198-ec7a-4e94-a3fc-5efb71866291</t>
-  </si>
-  <si>
-    <t>review/B0CN2JC9HC/R3RB8ZXF73QQGR</t>
-  </si>
-  <si>
-    <t>Mohd Areeb</t>
-  </si>
-  <si>
-    <t>Verified Purchase</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 22 January 2024</t>
-  </si>
-  <si>
-    <t>boAt Engima X700 Smart Watch with 1.52” AMOLED Display,Premium Metal Body Design &amp; Functional Crown,Advanced BT Calling,200+ Cloud Watch Faces,World Clock, HR &amp; SpO2,IP67(Copper Blue)</t>
-  </si>
-  <si>
-    <t>worth in this price</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>review/B0CN2SYX6Q/R1E925UDIIOA9H</t>
-  </si>
-  <si>
-    <t>Mbappe</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 26 January 2024</t>
-  </si>
-  <si>
-    <t>boAt Engima X700 Smart Watch with 1.52” AMOLED Display,Premium Metal Body Design &amp; Functional Crown,Advanced BT Calling,200+ Cloud Watch Faces,World Clock, HR &amp; SpO2,IP67(Silver Chrome)</t>
-  </si>
-  <si>
-    <t>review/B0CN2JC9HC/R5L3CQLR2A1DB</t>
-  </si>
-  <si>
-    <t>mcstan</t>
-  </si>
-  <si>
-    <t>value of money 🤑</t>
-  </si>
-  <si>
-    <t>R1Q7ISLIJIY1D</t>
-  </si>
-  <si>
-    <t>Naveen kumar</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 20 January 2024</t>
-  </si>
-  <si>
-    <t>boAt Engima X700 Smart Watch with 1.52” AMOLED Display,Premium Metal Body Design &amp; Functional Crown,Advanced BT Calling, 200+ Cloud Watch Faces,World Clock, HR &amp; SpO2,IP67(Copper Black)</t>
-  </si>
-  <si>
-    <t>Perfect blend of class and comfort.</t>
-  </si>
-  <si>
-    <t>review/B0CN2N8H94/R3JFF3DNUAMKO5</t>
-  </si>
-  <si>
-    <t>Rahim</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 19 January 2024</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>R33VB6RNOFCEWT</t>
-  </si>
-  <si>
-    <t>Bhavay johar</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 23 January 2024</t>
-  </si>
-  <si>
-    <t>Best watch under best budget</t>
-  </si>
-  <si>
-    <t>review/B0CN2N8H94/R34IXO76ESG7IB</t>
-  </si>
-  <si>
-    <t>Rutik</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 25 January 2024</t>
-  </si>
-  <si>
-    <t>Good one!</t>
-  </si>
-  <si>
-    <t>1US2XEMAL3EB</t>
-  </si>
-  <si>
-    <t>Pradeep</t>
-  </si>
-  <si>
-    <t>Premium Quality Watch</t>
-  </si>
-  <si>
-    <t>R2OXCVVITRGETY</t>
-  </si>
-  <si>
-    <t>Sumant kumar</t>
-  </si>
-  <si>
-    <t>Value for Money</t>
-  </si>
-  <si>
-    <t>tps://www.amazon.in/gp/f.html?C=ETSVHW0T0C3M&amp;K=2RALHA32FWMPU&amp;M=urn:rtn:msg:20240124195822c72d6d052acb4ccd9814462258b0p0eu&amp;R=1EAU6PM73H558&amp;T=C&amp;U=https%3A%2F%2Fwww.amazon.in%2Freview%2FRLI7VVGSYFLM8%2Fref%3Dpe_1640331_66412301_cm_rv_eml_rv0_rv&amp;H=6C7HRHKFVSMQ2WIL7GAPOS2WJLCA&amp;ref_=pe_1640331_66412301_cm_rv_eml_rv0_rv</t>
-  </si>
-  <si>
-    <t>Ravi Koshti</t>
-  </si>
-  <si>
-    <t>Quality Product By Indian Brand</t>
-  </si>
-  <si>
-    <t>review/B0CN2N8H94/RYCZ8FM5RR98M</t>
-  </si>
-  <si>
-    <t>Ashraf Khan</t>
-  </si>
-  <si>
-    <t>A Premium Smartwatch</t>
-  </si>
-  <si>
-    <t>R2OPUHV924HLK4</t>
-  </si>
-  <si>
-    <t>Shashank Singhal</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 2 February 2024</t>
-  </si>
-  <si>
-    <t>Party wear smart watch</t>
-  </si>
-  <si>
-    <t>review/B0CN2N8H94/R3V4EQH0TYU37M</t>
-  </si>
-  <si>
-    <t>Ayush gupta</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 30 January 2024</t>
-  </si>
-  <si>
-    <t>Dashing looks</t>
-  </si>
-  <si>
-    <t>FLIPKART</t>
-  </si>
-  <si>
-    <t>Sumit Yadav</t>
-  </si>
-  <si>
-    <t>Certified Buyer</t>
-  </si>
-  <si>
-    <t>20 Jan, 2024</t>
-  </si>
-  <si>
-    <t>boAt Enigma X700 with 1.52� AMOLED Display, BT Calling,Functional...</t>
-  </si>
-  <si>
-    <t>Shivendra Singh</t>
-  </si>
-  <si>
-    <t>UNKNOWN ERROR/INVALID LINK</t>
-  </si>
-  <si>
-    <t>Mustan Bharmal</t>
-  </si>
-  <si>
-    <t>Amit Maurya</t>
-  </si>
-  <si>
-    <t>19 Jan, 2024</t>
-  </si>
-  <si>
-    <t>Aaryan Singh</t>
-  </si>
-  <si>
-    <t>22 Jan, 2024</t>
-  </si>
-  <si>
-    <t>Rishabh Rai</t>
-  </si>
-  <si>
-    <t>21 Jan, 2024</t>
-  </si>
-  <si>
-    <t>P.g. Jain</t>
-  </si>
-  <si>
-    <t>25 Jan, 2024</t>
-  </si>
-  <si>
-    <t>Kartik Mehta</t>
-  </si>
-  <si>
-    <t>31 Jan, 2024</t>
-  </si>
-  <si>
-    <t>27 Jan, 2024</t>
-  </si>
-  <si>
-    <t>SOURAV Goyal</t>
-  </si>
-  <si>
-    <t>24 Jan, 2024</t>
-  </si>
-  <si>
-    <t>Varsha Goyal</t>
-  </si>
-  <si>
-    <t>04 Feb, 2024</t>
-  </si>
-  <si>
-    <t>Rehmat</t>
-  </si>
-  <si>
-    <t>05 Mar, 2024</t>
-  </si>
-  <si>
-    <t>review/B0CN2C26R9/R3KU02Q8XVIZAA</t>
-  </si>
-  <si>
-    <t>Deepak</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 17 March 2024</t>
-  </si>
-  <si>
-    <t>boAt Enigma Z20 Smart Watch with 1.51” HD Display, Luxurious Metal Body Design,Save Upto 250 Contacts,SOS, Password,Built-in Games,Voice Assistant,HR&amp;Sp02 Monitoring,IP68(Metal Black)</t>
-  </si>
-  <si>
-    <t>Superb watch!!</t>
-  </si>
-  <si>
-    <t>Raja Mondal</t>
-  </si>
-  <si>
-    <t>09 Mar, 2024</t>
-  </si>
-  <si>
-    <t>boAt Enigma Switch w/ Switchable Case, 1.39" HD Display, BT Calli...</t>
-  </si>
-  <si>
-    <t>14 Mar, 2024</t>
-  </si>
-  <si>
-    <t>Dhruv Choudhary</t>
-  </si>
-  <si>
-    <t>20 Mar, 2024</t>
-  </si>
-  <si>
-    <t>review/B0CN2RZR8M/R2PSY80EQL5HAR</t>
-  </si>
-  <si>
-    <t>Gulam Husen Sumra</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 4 March 2024</t>
-  </si>
-  <si>
-    <t>boAt Enigma Z20 Smart Watch with 1.51” HD Display, Luxurious Metal Body Design,Save Upto 250 Contacts,SOS, Password,Built-in Games,Voice Assistant,HR&amp;Sp02 Monitoring,IP68(Brown Leather)</t>
-  </si>
-  <si>
-    <t>Good product</t>
-  </si>
-  <si>
-    <t>2KU6V9G8KTQCO</t>
-  </si>
-  <si>
-    <t>Ratnaraj Creation</t>
-  </si>
-  <si>
-    <t>Awesome watch</t>
-  </si>
-  <si>
-    <t>review/B0CN2RZR8M/R70DTOGEKA1MP</t>
-  </si>
-  <si>
-    <t>Radha</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 14 March 2024</t>
-  </si>
-  <si>
-    <t>Best round dial watch</t>
-  </si>
-  <si>
-    <t>review/B0CN2C26R9/RBDNH8OE0RH51</t>
-  </si>
-  <si>
-    <t>Jagan Mohan Rao</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 29 February 2024</t>
-  </si>
-  <si>
-    <t>Worthy</t>
-  </si>
-  <si>
-    <t>R203OZTDNLTP0L</t>
-  </si>
-  <si>
-    <t>Sanjay saini</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 2 March 2024</t>
-  </si>
-  <si>
-    <t>Calling watch</t>
-  </si>
-  <si>
-    <t>2PWU2Q5W2BOUT</t>
-  </si>
-  <si>
-    <t>aditya sahu</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 12 March 2024</t>
-  </si>
-  <si>
-    <t>Best smart watch</t>
-  </si>
-  <si>
-    <t>R2VQ10C5PCGTRQ</t>
-  </si>
-  <si>
-    <t>Rishabh Kalia</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 26 March 2024</t>
-  </si>
-  <si>
-    <t>Achi watch h</t>
-  </si>
-  <si>
-    <t>Benoy Naskar</t>
-  </si>
-  <si>
-    <t>boAt Enigma Z20, 1.51 inch HD Display,BT Calling,Sturdy &amp; Luxurio...</t>
-  </si>
-  <si>
-    <t>Sakthi Kani</t>
-  </si>
-  <si>
-    <t>10 Mar, 2024</t>
-  </si>
-  <si>
-    <t>Shubham Gupta</t>
-  </si>
-  <si>
-    <t>neelesh dange</t>
-  </si>
-  <si>
-    <t>16 Mar, 2024</t>
-  </si>
-  <si>
-    <t>Neelay Rajani</t>
-  </si>
-  <si>
-    <t>11 Feb, 2024</t>
-  </si>
-  <si>
-    <t>R2I8V1XRULNGD4</t>
-  </si>
-  <si>
-    <t>Anuragkumar</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 8 February 2024</t>
-  </si>
-  <si>
-    <t>Lovely Birthday Gift!!</t>
-  </si>
-  <si>
-    <t>review/B0CN2JC9HC/R2MO1VSBLMTRIY</t>
-  </si>
-  <si>
-    <t>Shubham Kumar</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 12 February 2024</t>
-  </si>
-  <si>
-    <t>Perfect look</t>
-  </si>
-  <si>
-    <t>R13A0O5DR3K69</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 4 February 2024</t>
-  </si>
-  <si>
-    <t>Pure class and style!</t>
-  </si>
-  <si>
-    <t>Sangeeta Agarwal</t>
-  </si>
-  <si>
-    <t>08 Feb, 2024</t>
-  </si>
-  <si>
-    <t>review/B0CN2JC9HC/R2UR03QMLYCCNZ</t>
-  </si>
-  <si>
-    <t>Devendra</t>
-  </si>
-  <si>
-    <t>Blue color looks decent</t>
-  </si>
-  <si>
-    <t>review/B0CN2SYX6Q/R3BO2V4DXT7Z04</t>
-  </si>
-  <si>
-    <t>Ramesh Sharma</t>
-  </si>
-  <si>
-    <t>Quality is very very good Luxury Look smart watch..</t>
-  </si>
-  <si>
-    <t>review/B0CN2SYX6Q/R3HW83QANHQ6YR</t>
-  </si>
-  <si>
-    <t>Rinkesh Tunwal</t>
-  </si>
-  <si>
-    <t>Amazing Product</t>
-  </si>
-  <si>
-    <t>Puja Gupta</t>
-  </si>
-  <si>
-    <t>26 Jan, 2024</t>
-  </si>
-  <si>
-    <t>Sushmita Gupta</t>
-  </si>
-  <si>
-    <t>03 Feb, 2024</t>
-  </si>
-  <si>
-    <t>Ashok Rajani</t>
-  </si>
-  <si>
-    <t>Rut M.</t>
-  </si>
-  <si>
-    <t>24 Feb, 2024</t>
-  </si>
-  <si>
-    <t>review/B0CN2JC9HC/R18TFUZKE607WI</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 27 February 2024</t>
-  </si>
-  <si>
-    <t>Best purchase</t>
-  </si>
-  <si>
-    <t>review/B0CN2N8H94/R2JMJBLOZZ545Y</t>
-  </si>
-  <si>
-    <t>Looks stylish</t>
-  </si>
-  <si>
-    <t>review/B0CN2SYX6Q/R56K1MP42H412</t>
-  </si>
-  <si>
-    <t>pravesh mishra</t>
-  </si>
-  <si>
-    <t>Very stylish</t>
-  </si>
-  <si>
-    <t>review/B0CN2N8H94/R3R0ZY4TCHUHII</t>
-  </si>
-  <si>
-    <t>review/B0CN2SYX6Q/RX5O7XE2HTHX4</t>
-  </si>
-  <si>
-    <t>SHUBHAM SINGH</t>
-  </si>
-  <si>
-    <t>Wonderful gadget</t>
-  </si>
-  <si>
-    <t>Utkarsh Anand</t>
-  </si>
-  <si>
-    <t>27 Feb, 2024</t>
-  </si>
-  <si>
-    <t>Praveshmishra</t>
-  </si>
-  <si>
-    <t>Pratham Mishra</t>
-  </si>
-  <si>
-    <t>01 Mar, 2024</t>
-  </si>
-  <si>
-    <t>R2R9CNEIPPL4E3</t>
-  </si>
-  <si>
-    <t>Ranjeet Kumar</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 28 September 2023</t>
-  </si>
-  <si>
-    <t>boAt Enigma X500 Smart Watch w/ 1.43" AMOLED Display, Bluetooth Calling, Premium &amp; Luxurious Design, Functional Crown, 100+ Sports Modes, HR &amp; SpO2, IP68(Classic Silver)</t>
-  </si>
-  <si>
-    <t>Smooth Touch &amp; Luxurious Design</t>
-  </si>
-  <si>
-    <t>review/B0CN2N8H94/REZ2G9D1161CN</t>
-  </si>
-  <si>
-    <t>chirag</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 9 February 2024</t>
-  </si>
-  <si>
-    <t>Truly the best</t>
-  </si>
-  <si>
-    <t>Priyanshu GUPTA</t>
-  </si>
-  <si>
-    <t>11 Mar, 2024</t>
   </si>
 </sst>
 </file>
@@ -14758,7 +14215,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14813,2323 +14272,361 @@
       <c r="A2" s="1" t="s">
         <v>4470</v>
       </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4541</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4542</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4544</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4545</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4546</v>
-      </c>
-      <c r="J2">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>4547</v>
-      </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4471</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4548</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4549</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4550</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4551</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>4547</v>
-      </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4472</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4552</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4553</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4550</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4545</v>
-      </c>
-      <c r="I4" t="s">
-        <v>4554</v>
-      </c>
-      <c r="J4">
-        <v>31</v>
-      </c>
-      <c r="K4" t="s">
-        <v>4547</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4473</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4555</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4556</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4557</v>
-      </c>
-      <c r="H5" t="s">
-        <v>4558</v>
-      </c>
-      <c r="I5" t="s">
-        <v>4559</v>
-      </c>
-      <c r="J5">
-        <v>115</v>
-      </c>
-      <c r="K5" t="s">
-        <v>4547</v>
-      </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4474</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4560</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4561</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4562</v>
-      </c>
-      <c r="H6" t="s">
-        <v>4558</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>4563</v>
-      </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4475</v>
       </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4564</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4565</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4566</v>
-      </c>
-      <c r="H7" t="s">
-        <v>4558</v>
-      </c>
-      <c r="I7" t="s">
-        <v>4567</v>
-      </c>
-      <c r="J7">
-        <v>33</v>
-      </c>
-      <c r="K7" t="s">
-        <v>4547</v>
-      </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4476</v>
       </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4568</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4569</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>4570</v>
-      </c>
-      <c r="H8" t="s">
-        <v>4558</v>
-      </c>
-      <c r="I8" t="s">
-        <v>4571</v>
-      </c>
-      <c r="J8">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>4547</v>
-      </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4477</v>
       </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4572</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4573</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>4562</v>
-      </c>
-      <c r="H9" t="s">
-        <v>4558</v>
-      </c>
-      <c r="I9" t="s">
-        <v>4574</v>
-      </c>
-      <c r="J9">
-        <v>47</v>
-      </c>
-      <c r="K9" t="s">
-        <v>4547</v>
-      </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4478</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4575</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4576</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>4550</v>
-      </c>
-      <c r="H10" t="s">
-        <v>4551</v>
-      </c>
-      <c r="I10" t="s">
-        <v>4577</v>
-      </c>
-      <c r="J10">
-        <v>67</v>
-      </c>
-      <c r="K10" t="s">
-        <v>4547</v>
-      </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4479</v>
       </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4578</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4579</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>4566</v>
-      </c>
-      <c r="H11" t="s">
-        <v>4551</v>
-      </c>
-      <c r="I11" t="s">
-        <v>4580</v>
-      </c>
-      <c r="J11">
-        <v>72</v>
-      </c>
-      <c r="K11" t="s">
-        <v>4547</v>
-      </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4480</v>
       </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4581</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4582</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>4550</v>
-      </c>
-      <c r="H12" t="s">
-        <v>4558</v>
-      </c>
-      <c r="I12" t="s">
-        <v>4583</v>
-      </c>
-      <c r="J12">
-        <v>32</v>
-      </c>
-      <c r="K12" t="s">
-        <v>4547</v>
-      </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4481</v>
       </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4584</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4585</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13" t="s">
-        <v>4586</v>
-      </c>
-      <c r="H13" t="s">
-        <v>4558</v>
-      </c>
-      <c r="I13" t="s">
-        <v>4587</v>
-      </c>
-      <c r="J13">
-        <v>42</v>
-      </c>
-      <c r="K13" t="s">
-        <v>4547</v>
-      </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4482</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4588</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4589</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14" t="s">
-        <v>4590</v>
-      </c>
-      <c r="H14" t="s">
-        <v>4558</v>
-      </c>
-      <c r="I14" t="s">
-        <v>4591</v>
-      </c>
-      <c r="J14">
-        <v>42</v>
-      </c>
-      <c r="K14" t="s">
-        <v>4563</v>
-      </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4483</v>
       </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4593</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15" t="s">
-        <v>4595</v>
-      </c>
-      <c r="H15" t="s">
-        <v>4596</v>
-      </c>
-      <c r="I15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15">
-        <v>61</v>
-      </c>
-      <c r="K15" t="s">
-        <v>4563</v>
-      </c>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4484</v>
       </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4597</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s">
-        <v>4595</v>
-      </c>
-      <c r="H16" t="s">
-        <v>4596</v>
-      </c>
-      <c r="I16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16">
-        <v>53</v>
-      </c>
-      <c r="K16" t="s">
-        <v>4563</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>4521</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>4598</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>4522</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>4523</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>4524</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>4525</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4485</v>
       </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4599</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-      <c r="G22" t="s">
-        <v>4595</v>
-      </c>
-      <c r="H22" t="s">
-        <v>4596</v>
-      </c>
-      <c r="I22" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22">
-        <v>23</v>
-      </c>
-      <c r="K22" t="s">
-        <v>4563</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>4486</v>
       </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4600</v>
-      </c>
-      <c r="E23" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F23">
-        <v>5</v>
-      </c>
-      <c r="G23" t="s">
-        <v>4601</v>
-      </c>
-      <c r="H23" t="s">
-        <v>4596</v>
-      </c>
-      <c r="I23" t="s">
-        <v>42</v>
-      </c>
-      <c r="J23">
-        <v>48</v>
-      </c>
-      <c r="K23" t="s">
-        <v>4563</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4487</v>
       </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4602</v>
-      </c>
-      <c r="E24" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F24">
-        <v>5</v>
-      </c>
-      <c r="G24" t="s">
-        <v>4603</v>
-      </c>
-      <c r="H24" t="s">
-        <v>4596</v>
-      </c>
-      <c r="I24" t="s">
-        <v>91</v>
-      </c>
-      <c r="J24">
-        <v>57</v>
-      </c>
-      <c r="K24" t="s">
-        <v>4563</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>4488</v>
       </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1865</v>
-      </c>
-      <c r="E25" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F25">
-        <v>5</v>
-      </c>
-      <c r="G25" t="s">
-        <v>4603</v>
-      </c>
-      <c r="H25" t="s">
-        <v>4596</v>
-      </c>
-      <c r="I25" t="s">
-        <v>42</v>
-      </c>
-      <c r="J25">
-        <v>61</v>
-      </c>
-      <c r="K25" t="s">
-        <v>4563</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>4489</v>
       </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4604</v>
-      </c>
-      <c r="E26" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F26">
-        <v>5</v>
-      </c>
-      <c r="G26" t="s">
-        <v>4605</v>
-      </c>
-      <c r="H26" t="s">
-        <v>4596</v>
-      </c>
-      <c r="I26" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26">
-        <v>128</v>
-      </c>
-      <c r="K26" t="s">
-        <v>4563</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4490</v>
       </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4606</v>
-      </c>
-      <c r="E27" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-      <c r="G27" t="s">
-        <v>4607</v>
-      </c>
-      <c r="H27" t="s">
-        <v>4596</v>
-      </c>
-      <c r="I27" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27">
-        <v>72</v>
-      </c>
-      <c r="K27" t="s">
-        <v>4563</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>4491</v>
       </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4608</v>
-      </c>
-      <c r="E28" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F28">
-        <v>5</v>
-      </c>
-      <c r="G28" t="s">
-        <v>4609</v>
-      </c>
-      <c r="H28" t="s">
-        <v>4596</v>
-      </c>
-      <c r="I28" t="s">
-        <v>41</v>
-      </c>
-      <c r="J28">
-        <v>22</v>
-      </c>
-      <c r="K28" t="s">
-        <v>4563</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>4492</v>
       </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E29" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F29">
-        <v>5</v>
-      </c>
-      <c r="G29" t="s">
-        <v>4610</v>
-      </c>
-      <c r="H29" t="s">
-        <v>4596</v>
-      </c>
-      <c r="I29" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29">
-        <v>15</v>
-      </c>
-      <c r="K29" t="s">
-        <v>4563</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>4493</v>
       </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D30" t="s">
-        <v>4611</v>
-      </c>
-      <c r="E30" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F30">
-        <v>5</v>
-      </c>
-      <c r="G30" t="s">
-        <v>4612</v>
-      </c>
-      <c r="H30" t="s">
-        <v>4596</v>
-      </c>
-      <c r="I30" t="s">
-        <v>91</v>
-      </c>
-      <c r="J30">
-        <v>40</v>
-      </c>
-      <c r="K30" t="s">
-        <v>4563</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>4494</v>
       </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D31" t="s">
-        <v>4613</v>
-      </c>
-      <c r="E31" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F31">
-        <v>5</v>
-      </c>
-      <c r="G31" t="s">
-        <v>4614</v>
-      </c>
-      <c r="H31" t="s">
-        <v>4596</v>
-      </c>
-      <c r="I31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31">
-        <v>58</v>
-      </c>
-      <c r="K31" t="s">
-        <v>4563</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>4495</v>
       </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4615</v>
-      </c>
-      <c r="E32" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F32">
-        <v>5</v>
-      </c>
-      <c r="G32" t="s">
-        <v>4616</v>
-      </c>
-      <c r="H32" t="s">
-        <v>4596</v>
-      </c>
-      <c r="I32" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32">
-        <v>22</v>
-      </c>
-      <c r="K32" t="s">
-        <v>4563</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>4526</v>
       </c>
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4617</v>
-      </c>
-      <c r="D33" t="s">
-        <v>4618</v>
-      </c>
-      <c r="E33" t="s">
-        <v>4563</v>
-      </c>
-      <c r="F33">
-        <v>5</v>
-      </c>
-      <c r="G33" t="s">
-        <v>4619</v>
-      </c>
-      <c r="H33" t="s">
-        <v>4620</v>
-      </c>
-      <c r="I33" t="s">
-        <v>4621</v>
-      </c>
-      <c r="J33">
-        <v>33</v>
-      </c>
-      <c r="K33" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>4527</v>
       </c>
-      <c r="B34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D34" t="s">
-        <v>4622</v>
-      </c>
-      <c r="E34" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F34">
-        <v>5</v>
-      </c>
-      <c r="G34" t="s">
-        <v>4623</v>
-      </c>
-      <c r="H34" t="s">
-        <v>4624</v>
-      </c>
-      <c r="I34" t="s">
-        <v>55</v>
-      </c>
-      <c r="J34">
-        <v>45</v>
-      </c>
-      <c r="K34" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>4528</v>
       </c>
-      <c r="B35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D35" t="s">
-        <v>4600</v>
-      </c>
-      <c r="E35" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F35">
-        <v>5</v>
-      </c>
-      <c r="G35" t="s">
-        <v>4625</v>
-      </c>
-      <c r="H35" t="s">
-        <v>4624</v>
-      </c>
-      <c r="I35" t="s">
-        <v>60</v>
-      </c>
-      <c r="J35">
-        <v>80</v>
-      </c>
-      <c r="K35" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>4529</v>
       </c>
-      <c r="B36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D36" t="s">
-        <v>4626</v>
-      </c>
-      <c r="E36" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F36">
-        <v>5</v>
-      </c>
-      <c r="G36" t="s">
-        <v>4627</v>
-      </c>
-      <c r="H36" t="s">
-        <v>4624</v>
-      </c>
-      <c r="I36" t="s">
-        <v>252</v>
-      </c>
-      <c r="J36">
-        <v>44</v>
-      </c>
-      <c r="K36" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>4530</v>
       </c>
-      <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4628</v>
-      </c>
-      <c r="D37" t="s">
-        <v>4629</v>
-      </c>
-      <c r="E37" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F37">
-        <v>5</v>
-      </c>
-      <c r="G37" t="s">
-        <v>4630</v>
-      </c>
-      <c r="H37" t="s">
-        <v>4631</v>
-      </c>
-      <c r="I37" t="s">
-        <v>4632</v>
-      </c>
-      <c r="J37">
-        <v>18</v>
-      </c>
-      <c r="K37" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>4531</v>
       </c>
-      <c r="B38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4633</v>
-      </c>
-      <c r="D38" t="s">
-        <v>4634</v>
-      </c>
-      <c r="E38" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F38">
-        <v>5</v>
-      </c>
-      <c r="G38" t="s">
-        <v>4630</v>
-      </c>
-      <c r="H38" t="s">
-        <v>4631</v>
-      </c>
-      <c r="I38" t="s">
-        <v>4635</v>
-      </c>
-      <c r="J38">
-        <v>66</v>
-      </c>
-      <c r="K38" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>4532</v>
       </c>
-      <c r="B39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4636</v>
-      </c>
-      <c r="D39" t="s">
-        <v>4637</v>
-      </c>
-      <c r="E39" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F39">
-        <v>5</v>
-      </c>
-      <c r="G39" t="s">
-        <v>4638</v>
-      </c>
-      <c r="H39" t="s">
-        <v>4631</v>
-      </c>
-      <c r="I39" t="s">
-        <v>4639</v>
-      </c>
-      <c r="J39">
-        <v>59</v>
-      </c>
-      <c r="K39" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>4533</v>
       </c>
-      <c r="B40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" t="s">
-        <v>4640</v>
-      </c>
-      <c r="D40" t="s">
-        <v>4641</v>
-      </c>
-      <c r="E40" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F40">
-        <v>5</v>
-      </c>
-      <c r="G40" t="s">
-        <v>4642</v>
-      </c>
-      <c r="H40" t="s">
-        <v>4620</v>
-      </c>
-      <c r="I40" t="s">
-        <v>4643</v>
-      </c>
-      <c r="J40">
-        <v>22</v>
-      </c>
-      <c r="K40" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>4534</v>
       </c>
-      <c r="B41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4644</v>
-      </c>
-      <c r="D41" t="s">
-        <v>4645</v>
-      </c>
-      <c r="E41" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F41">
-        <v>5</v>
-      </c>
-      <c r="G41" t="s">
-        <v>4646</v>
-      </c>
-      <c r="H41" t="s">
-        <v>4620</v>
-      </c>
-      <c r="I41" t="s">
-        <v>4647</v>
-      </c>
-      <c r="J41">
-        <v>27</v>
-      </c>
-      <c r="K41" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>4535</v>
       </c>
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" t="s">
-        <v>4648</v>
-      </c>
-      <c r="D42" t="s">
-        <v>4649</v>
-      </c>
-      <c r="E42" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F42">
-        <v>5</v>
-      </c>
-      <c r="G42" t="s">
-        <v>4650</v>
-      </c>
-      <c r="H42" t="s">
-        <v>4620</v>
-      </c>
-      <c r="I42" t="s">
-        <v>4651</v>
-      </c>
-      <c r="J42">
-        <v>78</v>
-      </c>
-      <c r="K42" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>4536</v>
       </c>
-      <c r="B43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" t="s">
-        <v>4652</v>
-      </c>
-      <c r="D43" t="s">
-        <v>4653</v>
-      </c>
-      <c r="E43" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F43">
-        <v>5</v>
-      </c>
-      <c r="G43" t="s">
-        <v>4654</v>
-      </c>
-      <c r="H43" t="s">
-        <v>4620</v>
-      </c>
-      <c r="I43" t="s">
-        <v>4655</v>
-      </c>
-      <c r="J43">
-        <v>34</v>
-      </c>
-      <c r="K43" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>4537</v>
       </c>
-      <c r="B44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D44" t="s">
-        <v>4656</v>
-      </c>
-      <c r="E44" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F44">
-        <v>5</v>
-      </c>
-      <c r="G44" t="s">
-        <v>4616</v>
-      </c>
-      <c r="H44" t="s">
-        <v>4657</v>
-      </c>
-      <c r="I44" t="s">
-        <v>67</v>
-      </c>
-      <c r="J44">
-        <v>65</v>
-      </c>
-      <c r="K44" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>4538</v>
       </c>
-      <c r="B45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D45" t="s">
-        <v>4658</v>
-      </c>
-      <c r="E45" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F45">
-        <v>5</v>
-      </c>
-      <c r="G45" t="s">
-        <v>4659</v>
-      </c>
-      <c r="H45" t="s">
-        <v>4657</v>
-      </c>
-      <c r="I45" t="s">
-        <v>67</v>
-      </c>
-      <c r="J45">
-        <v>39</v>
-      </c>
-      <c r="K45" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>4539</v>
       </c>
-      <c r="B46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D46" t="s">
-        <v>4660</v>
-      </c>
-      <c r="E46" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F46">
-        <v>5</v>
-      </c>
-      <c r="G46" t="s">
-        <v>4659</v>
-      </c>
-      <c r="H46" t="s">
-        <v>4657</v>
-      </c>
-      <c r="I46" t="s">
-        <v>54</v>
-      </c>
-      <c r="J46">
-        <v>53</v>
-      </c>
-      <c r="K46" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>4540</v>
       </c>
-      <c r="B47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D47" t="s">
-        <v>4661</v>
-      </c>
-      <c r="E47" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F47">
-        <v>5</v>
-      </c>
-      <c r="G47" t="s">
-        <v>4662</v>
-      </c>
-      <c r="H47" t="s">
-        <v>4657</v>
-      </c>
-      <c r="I47" t="s">
-        <v>60</v>
-      </c>
-      <c r="J47">
-        <v>41</v>
-      </c>
-      <c r="K47" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>4496</v>
       </c>
-      <c r="B48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D48" t="s">
-        <v>4663</v>
-      </c>
-      <c r="E48" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F48">
-        <v>5</v>
-      </c>
-      <c r="G48" t="s">
-        <v>4664</v>
-      </c>
-      <c r="H48" t="s">
-        <v>4596</v>
-      </c>
-      <c r="I48" t="s">
-        <v>252</v>
-      </c>
-      <c r="J48">
-        <v>39</v>
-      </c>
-      <c r="K48" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>4497</v>
       </c>
-      <c r="B49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" t="s">
-        <v>4665</v>
-      </c>
-      <c r="D49" t="s">
-        <v>4666</v>
-      </c>
-      <c r="E49" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F49">
-        <v>5</v>
-      </c>
-      <c r="G49" t="s">
-        <v>4667</v>
-      </c>
-      <c r="H49" t="s">
-        <v>4558</v>
-      </c>
-      <c r="I49" t="s">
-        <v>4668</v>
-      </c>
-      <c r="J49">
-        <v>121</v>
-      </c>
-      <c r="K49" t="s">
-        <v>4563</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>4498</v>
       </c>
-      <c r="B50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" t="s">
-        <v>4669</v>
-      </c>
-      <c r="D50" t="s">
-        <v>4670</v>
-      </c>
-      <c r="E50" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F50">
-        <v>5</v>
-      </c>
-      <c r="G50" t="s">
-        <v>4671</v>
-      </c>
-      <c r="H50" t="s">
-        <v>4545</v>
-      </c>
-      <c r="I50" t="s">
-        <v>4672</v>
-      </c>
-      <c r="J50">
-        <v>45</v>
-      </c>
-      <c r="K50" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>4499</v>
       </c>
-      <c r="B51" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" t="s">
-        <v>4673</v>
-      </c>
-      <c r="D51" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F51">
-        <v>5</v>
-      </c>
-      <c r="G51" t="s">
-        <v>4674</v>
-      </c>
-      <c r="H51" t="s">
-        <v>4558</v>
-      </c>
-      <c r="I51" t="s">
-        <v>4675</v>
-      </c>
-      <c r="J51">
-        <v>93</v>
-      </c>
-      <c r="K51" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>4500</v>
       </c>
-      <c r="B52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D52" t="s">
-        <v>4676</v>
-      </c>
-      <c r="E52" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F52">
-        <v>5</v>
-      </c>
-      <c r="G52" t="s">
-        <v>4677</v>
-      </c>
-      <c r="H52" t="s">
-        <v>4596</v>
-      </c>
-      <c r="I52" t="s">
-        <v>67</v>
-      </c>
-      <c r="J52">
-        <v>53</v>
-      </c>
-      <c r="K52" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>4501</v>
       </c>
-      <c r="B53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" t="s">
-        <v>4678</v>
-      </c>
-      <c r="D53" t="s">
-        <v>4679</v>
-      </c>
-      <c r="E53" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F53">
-        <v>5</v>
-      </c>
-      <c r="G53" t="s">
-        <v>4550</v>
-      </c>
-      <c r="H53" t="s">
-        <v>4545</v>
-      </c>
-      <c r="I53" t="s">
-        <v>4680</v>
-      </c>
-      <c r="J53">
-        <v>21</v>
-      </c>
-      <c r="K53" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>4502</v>
       </c>
-      <c r="B54" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" t="s">
-        <v>4681</v>
-      </c>
-      <c r="D54" t="s">
-        <v>4682</v>
-      </c>
-      <c r="E54" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F54">
-        <v>5</v>
-      </c>
-      <c r="G54" t="s">
-        <v>4550</v>
-      </c>
-      <c r="H54" t="s">
-        <v>4551</v>
-      </c>
-      <c r="I54" t="s">
-        <v>4683</v>
-      </c>
-      <c r="J54">
-        <v>45</v>
-      </c>
-      <c r="K54" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>4503</v>
       </c>
-      <c r="B55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" t="s">
-        <v>4684</v>
-      </c>
-      <c r="D55" t="s">
-        <v>4685</v>
-      </c>
-      <c r="E55" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F55">
-        <v>5</v>
-      </c>
-      <c r="G55" t="s">
-        <v>4590</v>
-      </c>
-      <c r="H55" t="s">
-        <v>4551</v>
-      </c>
-      <c r="I55" t="s">
-        <v>4686</v>
-      </c>
-      <c r="J55">
-        <v>43</v>
-      </c>
-      <c r="K55" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>4504</v>
       </c>
-      <c r="B56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D56" t="s">
-        <v>4687</v>
-      </c>
-      <c r="E56" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F56">
-        <v>5</v>
-      </c>
-      <c r="G56" t="s">
-        <v>4688</v>
-      </c>
-      <c r="H56" t="s">
-        <v>4596</v>
-      </c>
-      <c r="I56" t="s">
-        <v>39</v>
-      </c>
-      <c r="J56">
-        <v>73</v>
-      </c>
-      <c r="K56" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>4505</v>
       </c>
-      <c r="B57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D57" t="s">
-        <v>4689</v>
-      </c>
-      <c r="E57" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F57">
-        <v>5</v>
-      </c>
-      <c r="G57" t="s">
-        <v>4690</v>
-      </c>
-      <c r="H57" t="s">
-        <v>4596</v>
-      </c>
-      <c r="I57" t="s">
-        <v>67</v>
-      </c>
-      <c r="J57">
-        <v>67</v>
-      </c>
-      <c r="K57" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>4506</v>
       </c>
-      <c r="B58" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D58" t="s">
-        <v>4691</v>
-      </c>
-      <c r="E58" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F58">
-        <v>5</v>
-      </c>
-      <c r="G58" t="s">
-        <v>4609</v>
-      </c>
-      <c r="H58" t="s">
-        <v>4596</v>
-      </c>
-      <c r="I58" t="s">
-        <v>55</v>
-      </c>
-      <c r="J58">
-        <v>33</v>
-      </c>
-      <c r="K58" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>4507</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>4508</v>
       </c>
-      <c r="B60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D60" t="s">
-        <v>4692</v>
-      </c>
-      <c r="E60" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F60">
-        <v>5</v>
-      </c>
-      <c r="G60" t="s">
-        <v>4693</v>
-      </c>
-      <c r="H60" t="s">
-        <v>4596</v>
-      </c>
-      <c r="I60" t="s">
-        <v>41</v>
-      </c>
-      <c r="J60">
-        <v>11</v>
-      </c>
-      <c r="K60" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>4509</v>
       </c>
-      <c r="B61" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" t="s">
-        <v>4694</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E61" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F61">
-        <v>5</v>
-      </c>
-      <c r="G61" t="s">
-        <v>4695</v>
-      </c>
-      <c r="H61" t="s">
-        <v>4545</v>
-      </c>
-      <c r="I61" t="s">
-        <v>4696</v>
-      </c>
-      <c r="J61">
-        <v>41</v>
-      </c>
-      <c r="K61" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>4510</v>
       </c>
-      <c r="B62" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" t="s">
-        <v>4697</v>
-      </c>
-      <c r="D62" t="s">
-        <v>34</v>
-      </c>
-      <c r="E62" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F62">
-        <v>5</v>
-      </c>
-      <c r="G62" t="s">
-        <v>4695</v>
-      </c>
-      <c r="H62" t="s">
-        <v>4558</v>
-      </c>
-      <c r="I62" t="s">
-        <v>4698</v>
-      </c>
-      <c r="J62">
-        <v>44</v>
-      </c>
-      <c r="K62" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>4511</v>
       </c>
-      <c r="B63" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" t="s">
-        <v>4699</v>
-      </c>
-      <c r="D63" t="s">
-        <v>4700</v>
-      </c>
-      <c r="E63" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F63">
-        <v>5</v>
-      </c>
-      <c r="G63" t="s">
-        <v>4695</v>
-      </c>
-      <c r="H63" t="s">
-        <v>4551</v>
-      </c>
-      <c r="I63" t="s">
-        <v>4701</v>
-      </c>
-      <c r="J63">
-        <v>51</v>
-      </c>
-      <c r="K63" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>4512</v>
       </c>
-      <c r="B64" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" t="s">
-        <v>4702</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E64" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F64">
-        <v>5</v>
-      </c>
-      <c r="G64" t="s">
-        <v>4695</v>
-      </c>
-      <c r="H64" t="s">
-        <v>4558</v>
-      </c>
-      <c r="I64" t="s">
-        <v>4698</v>
-      </c>
-      <c r="J64">
-        <v>44</v>
-      </c>
-      <c r="K64" t="s">
-        <v>4563</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>4513</v>
       </c>
-      <c r="B65" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" t="s">
-        <v>4703</v>
-      </c>
-      <c r="D65" t="s">
-        <v>4704</v>
-      </c>
-      <c r="E65" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F65">
-        <v>5</v>
-      </c>
-      <c r="G65" t="s">
-        <v>4695</v>
-      </c>
-      <c r="H65" t="s">
-        <v>4551</v>
-      </c>
-      <c r="I65" t="s">
-        <v>4705</v>
-      </c>
-      <c r="J65">
-        <v>50</v>
-      </c>
-      <c r="K65" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>4514</v>
       </c>
-      <c r="B66" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D66" t="s">
-        <v>4706</v>
-      </c>
-      <c r="E66" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F66">
-        <v>5</v>
-      </c>
-      <c r="G66" t="s">
-        <v>4707</v>
-      </c>
-      <c r="H66" t="s">
-        <v>4596</v>
-      </c>
-      <c r="I66" t="s">
-        <v>49</v>
-      </c>
-      <c r="J66">
-        <v>42</v>
-      </c>
-      <c r="K66" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>4515</v>
       </c>
-      <c r="B67" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D67" t="s">
-        <v>4708</v>
-      </c>
-      <c r="E67" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F67">
-        <v>5</v>
-      </c>
-      <c r="G67" t="s">
-        <v>4707</v>
-      </c>
-      <c r="H67" t="s">
-        <v>4596</v>
-      </c>
-      <c r="I67" t="s">
-        <v>60</v>
-      </c>
-      <c r="J67">
-        <v>54</v>
-      </c>
-      <c r="K67" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>4516</v>
       </c>
-      <c r="B68" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D68" t="s">
-        <v>34</v>
-      </c>
-      <c r="E68" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F68">
-        <v>5</v>
-      </c>
-      <c r="G68" t="s">
-        <v>4707</v>
-      </c>
-      <c r="H68" t="s">
-        <v>4596</v>
-      </c>
-      <c r="I68" t="s">
-        <v>32</v>
-      </c>
-      <c r="J68">
-        <v>40</v>
-      </c>
-      <c r="K68" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>4517</v>
       </c>
-      <c r="B69" t="s">
-        <v>29</v>
-      </c>
-      <c r="C69" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D69" t="s">
-        <v>4709</v>
-      </c>
-      <c r="E69" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F69">
-        <v>5</v>
-      </c>
-      <c r="G69" t="s">
-        <v>4710</v>
-      </c>
-      <c r="H69" t="s">
-        <v>4596</v>
-      </c>
-      <c r="I69" t="s">
-        <v>139</v>
-      </c>
-      <c r="J69">
-        <v>11</v>
-      </c>
-      <c r="K69" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>4518</v>
       </c>
-      <c r="B70" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" t="s">
-        <v>4711</v>
-      </c>
-      <c r="D70" t="s">
-        <v>4712</v>
-      </c>
-      <c r="E70" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F70">
-        <v>5</v>
-      </c>
-      <c r="G70" t="s">
-        <v>4713</v>
-      </c>
-      <c r="H70" t="s">
-        <v>4714</v>
-      </c>
-      <c r="I70" t="s">
-        <v>4715</v>
-      </c>
-      <c r="J70">
-        <v>44</v>
-      </c>
-      <c r="K70" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>4519</v>
       </c>
-      <c r="B71" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" t="s">
-        <v>4716</v>
-      </c>
-      <c r="D71" t="s">
-        <v>4717</v>
-      </c>
-      <c r="E71" t="s">
-        <v>4543</v>
-      </c>
-      <c r="F71">
-        <v>4</v>
-      </c>
-      <c r="G71" t="s">
-        <v>4718</v>
-      </c>
-      <c r="H71" t="s">
-        <v>4558</v>
-      </c>
-      <c r="I71" t="s">
-        <v>4719</v>
-      </c>
-      <c r="J71">
-        <v>46</v>
-      </c>
-      <c r="K71" t="s">
-        <v>4563</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>4520</v>
-      </c>
-      <c r="B72" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D72" t="s">
-        <v>4720</v>
-      </c>
-      <c r="E72" t="s">
-        <v>4594</v>
-      </c>
-      <c r="F72">
-        <v>5</v>
-      </c>
-      <c r="G72" t="s">
-        <v>4721</v>
-      </c>
-      <c r="H72" t="s">
-        <v>4596</v>
-      </c>
-      <c r="I72" t="s">
-        <v>54</v>
-      </c>
-      <c r="J72">
-        <v>51</v>
-      </c>
-      <c r="K72" t="s">
-        <v>4563</v>
       </c>
     </row>
   </sheetData>

--- a/Review_sheet.xlsx
+++ b/Review_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rish\Documents\GitHub_Repositories\Review_Scraper_Streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A280B6-2C0F-444F-9145-D0DF49F88327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D3ADF0-953C-45AC-8F1D-6E665575675C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ui" sheetId="1" r:id="rId1"/>
@@ -14216,7 +14216,7 @@
   <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14343,87 +14343,82 @@
         <v>4484</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>4521</v>
       </c>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>4522</v>
       </c>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>4523</v>
       </c>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>4524</v>
       </c>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>4525</v>
       </c>
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4485</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>4486</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4487</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>4488</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>4489</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4490</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>4491</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>4492</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>4493</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>4494</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>4495</v>
       </c>
@@ -14508,83 +14503,82 @@
         <v>4496</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>4497</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>4498</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>4499</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>4500</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>4501</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>4502</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>4503</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>4504</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>4505</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>4506</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>4507</v>
       </c>
-      <c r="B59" s="5"/>
-    </row>
-    <row r="60" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>4508</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>4509</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>4510</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>4511</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>4512</v>
       </c>

--- a/Review_sheet.xlsx
+++ b/Review_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rish\Documents\GitHub_Repositories\Review_Scraper_Streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D3ADF0-953C-45AC-8F1D-6E665575675C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975EAF62-437F-47D5-936A-E0FA1DBCBF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ui" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16600" uniqueCount="4541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16600" uniqueCount="4540">
   <si>
     <t>Enter review link here</t>
   </si>
@@ -13454,15 +13454,6 @@
     <t>https://www.amazon.in/gp/aw/review/B0CN2JC9HC/R3RB8ZXF73QQGR?ref_=cm_sw_r_mwn_dprv_1BWGMPH8K16BTMXFN2WJ&amp;language=en-IN</t>
   </si>
   <si>
-    <t>https://www.amazon.in/gp/aw/review/B0CN2SYX6Q/R1E925UDIIOA9H?ref=pf_vv_at_pdctrvw_srp</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/gp/aw/review/B0CN2JC9HC/R5L3CQLR2A1DB?ref=pf_vv_at_pdctrvw_srp</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/review/R1Q7ISLIJIY1D/ref=cm_cr_srp_d_rdp_perm</t>
-  </si>
-  <si>
     <t>https://www.amazon.in/gp/aw/review/B0CN2N8H94/R3JFF3DNUAMKO5?ref=pf_vv_at_pdctrvw_srp</t>
   </si>
   <si>
@@ -13662,6 +13653,12 @@
   </si>
   <si>
     <t>https://www.flipkart.com/reviews/SMWGVCMGEXFVDZ2P:10?reviewId=207dd198-ec7a-4e94-a3fc-5efb71866291</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/boat-airdopes-161-pro-50-hrs-playback-asap-charge-multi-point-connectivity-bluetooth-headset/product-reviews/itm0ee04480957e4?pid=ACCGQR43WKKHF5PD&amp;lid=LSTACCGQR43WKKHF5PD3FU7K2&amp;aid=4b1283bc-3a6a-4202-b448-7f0aa2f72656&amp;certifiedBuyer=false&amp;sortOrder=MOST_RECENT&amp;pageUID=1693886890297</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/eefc9afd-395e-479e-b83f-3d56d8c1c302</t>
   </si>
 </sst>
 </file>
@@ -14216,7 +14213,7 @@
   <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14268,359 +14265,359 @@
         <v>4468</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4470</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4471</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4472</v>
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>4521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>4538</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4473</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4474</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4475</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>4476</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>4477</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>4478</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>4479</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>4480</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>4481</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>4482</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>4483</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>4484</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>4521</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>4522</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>4523</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>4524</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>4525</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>4485</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>4486</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>4487</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>4488</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>4489</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>4490</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>4491</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>4492</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>4493</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>4494</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>4495</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>4526</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>4527</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>4528</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>4529</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>4530</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>4531</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>4532</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>4533</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>4534</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>4535</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>4536</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>4537</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>4538</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>4539</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>4540</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>4496</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>4497</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>4498</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>4499</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>4500</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>4501</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>4502</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>4503</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>4504</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>4505</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>4506</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>4507</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>4508</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>4509</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>4510</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>4511</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>4512</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>4513</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>4514</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>4515</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>4516</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>4517</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>4518</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>4519</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>4520</v>
+        <v>4517</v>
       </c>
     </row>
   </sheetData>
@@ -14633,34 +14630,32 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{C8BFD78A-84CC-4904-AA3B-694F42CF115A}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{2CFE964C-F704-424C-82DE-EAC54EA65B43}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{90F03244-A49B-415F-AE5C-C39268FC6ECF}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{165D0DCF-B9EF-4BEB-8AB6-A07B063544D4}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{66540129-6739-4BAB-B06F-7D6406F882C7}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{530D7395-ED3E-486C-9332-EEDE68098C87}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{848B9A78-4ADC-40F0-BA06-94E40BA491CD}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{F52BE524-58A0-45F9-A03E-1FE7200DC5C1}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{494C3087-2D80-4553-B523-9BBF9FC69BCF}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://www.amazon.in/gp/f.html?C=ETSVHW0T0C3M&amp;K=2RALHA32FWMPU&amp;M=urn:rtn:msg:20240124195822c72d6d052acb4ccd9814462258b0p0eu&amp;R=1EAU6PM73H558&amp;T=C&amp;U=https%3A%2F%2Fwww.amazon.in%2Freview%2FRLI7VVGSYFLM8%2Fref%3Dpe_1640331_66412301_cm_rv_eml_rv0_rv&amp;H=6C7HRHKFVSMQ2WIL7GAPOS2WJLCA&amp;ref_=pe_1640331_66412301_cm_rv_eml_rv0_rv" xr:uid="{1011EB7C-4C67-4EA3-8DDC-FE66EF60F178}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{BE650DD1-F8B9-4D64-B042-11C972607ABC}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{00710524-B6E3-4155-8467-53186E30718F}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{836EC225-E687-48D7-8298-2AF4A2507098}"/>
-    <hyperlink ref="A15" r:id="rId14" xr:uid="{82036FEA-B6ED-4B2A-B71F-E7378B47178B}"/>
-    <hyperlink ref="A16" r:id="rId15" xr:uid="{CAC3BC24-524F-431B-8C33-D7F474D5F105}"/>
-    <hyperlink ref="A17" r:id="rId16" xr:uid="{C2FDA69B-F95B-48B4-9985-563E36E34375}"/>
-    <hyperlink ref="A22" r:id="rId17" xr:uid="{D6630CBA-F0EF-419A-A56B-2C4E25927DF1}"/>
-    <hyperlink ref="A23" r:id="rId18" xr:uid="{1F5E880A-C82E-4E8F-AA40-1B7903CC0576}"/>
-    <hyperlink ref="A24" r:id="rId19" xr:uid="{4E852D84-1251-493E-ABA2-F001E58E7DE2}"/>
-    <hyperlink ref="A25" r:id="rId20" xr:uid="{9C37783A-3692-48F4-AC5D-D618C14FF805}"/>
-    <hyperlink ref="A26" r:id="rId21" xr:uid="{8AD2A742-C680-46A5-836C-F073073617C5}"/>
-    <hyperlink ref="A27" r:id="rId22" xr:uid="{537447BD-EB3E-4C06-AD51-D5F3E03133E6}"/>
-    <hyperlink ref="A28" r:id="rId23" xr:uid="{09616EA4-C30A-4BDF-960B-683AD54D6C31}"/>
-    <hyperlink ref="A29" r:id="rId24" xr:uid="{7C3C1C61-2941-4EA6-9D09-4EA5B14052EE}"/>
-    <hyperlink ref="A30" r:id="rId25" xr:uid="{DC85159A-AA34-4BD9-A830-F120FE296B0F}"/>
-    <hyperlink ref="A31" r:id="rId26" xr:uid="{2F0EA0DE-70EE-4D76-A579-4057199C10D1}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{66540129-6739-4BAB-B06F-7D6406F882C7}"/>
+    <hyperlink ref="A7" r:id="rId3" xr:uid="{530D7395-ED3E-486C-9332-EEDE68098C87}"/>
+    <hyperlink ref="A8" r:id="rId4" xr:uid="{848B9A78-4ADC-40F0-BA06-94E40BA491CD}"/>
+    <hyperlink ref="A9" r:id="rId5" xr:uid="{F52BE524-58A0-45F9-A03E-1FE7200DC5C1}"/>
+    <hyperlink ref="A10" r:id="rId6" xr:uid="{494C3087-2D80-4553-B523-9BBF9FC69BCF}"/>
+    <hyperlink ref="A11" r:id="rId7" display="https://www.amazon.in/gp/f.html?C=ETSVHW0T0C3M&amp;K=2RALHA32FWMPU&amp;M=urn:rtn:msg:20240124195822c72d6d052acb4ccd9814462258b0p0eu&amp;R=1EAU6PM73H558&amp;T=C&amp;U=https%3A%2F%2Fwww.amazon.in%2Freview%2FRLI7VVGSYFLM8%2Fref%3Dpe_1640331_66412301_cm_rv_eml_rv0_rv&amp;H=6C7HRHKFVSMQ2WIL7GAPOS2WJLCA&amp;ref_=pe_1640331_66412301_cm_rv_eml_rv0_rv" xr:uid="{1011EB7C-4C67-4EA3-8DDC-FE66EF60F178}"/>
+    <hyperlink ref="A12" r:id="rId8" xr:uid="{BE650DD1-F8B9-4D64-B042-11C972607ABC}"/>
+    <hyperlink ref="A13" r:id="rId9" xr:uid="{00710524-B6E3-4155-8467-53186E30718F}"/>
+    <hyperlink ref="A14" r:id="rId10" xr:uid="{836EC225-E687-48D7-8298-2AF4A2507098}"/>
+    <hyperlink ref="A15" r:id="rId11" xr:uid="{82036FEA-B6ED-4B2A-B71F-E7378B47178B}"/>
+    <hyperlink ref="A16" r:id="rId12" xr:uid="{CAC3BC24-524F-431B-8C33-D7F474D5F105}"/>
+    <hyperlink ref="A17" r:id="rId13" xr:uid="{C2FDA69B-F95B-48B4-9985-563E36E34375}"/>
+    <hyperlink ref="A22" r:id="rId14" xr:uid="{D6630CBA-F0EF-419A-A56B-2C4E25927DF1}"/>
+    <hyperlink ref="A23" r:id="rId15" xr:uid="{1F5E880A-C82E-4E8F-AA40-1B7903CC0576}"/>
+    <hyperlink ref="A24" r:id="rId16" xr:uid="{4E852D84-1251-493E-ABA2-F001E58E7DE2}"/>
+    <hyperlink ref="A25" r:id="rId17" xr:uid="{9C37783A-3692-48F4-AC5D-D618C14FF805}"/>
+    <hyperlink ref="A26" r:id="rId18" xr:uid="{8AD2A742-C680-46A5-836C-F073073617C5}"/>
+    <hyperlink ref="A27" r:id="rId19" xr:uid="{537447BD-EB3E-4C06-AD51-D5F3E03133E6}"/>
+    <hyperlink ref="A28" r:id="rId20" xr:uid="{09616EA4-C30A-4BDF-960B-683AD54D6C31}"/>
+    <hyperlink ref="A29" r:id="rId21" xr:uid="{7C3C1C61-2941-4EA6-9D09-4EA5B14052EE}"/>
+    <hyperlink ref="A30" r:id="rId22" xr:uid="{DC85159A-AA34-4BD9-A830-F120FE296B0F}"/>
+    <hyperlink ref="A31" r:id="rId23" xr:uid="{2F0EA0DE-70EE-4D76-A579-4057199C10D1}"/>
+    <hyperlink ref="A5" r:id="rId24" xr:uid="{1C8E1C6A-AD9C-447E-9F06-8CA3723D59A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId27"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
 

--- a/Review_sheet.xlsx
+++ b/Review_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rish\Documents\GitHub_Repositories\Review_Scraper_Streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975EAF62-437F-47D5-936A-E0FA1DBCBF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3222A6B-94B6-4E94-A37F-187EAF50BFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ui" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Log" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ui!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ui!$A$1:$K$141</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16600" uniqueCount="4540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17719" uniqueCount="5000">
   <si>
     <t>Enter review link here</t>
   </si>
@@ -13451,214 +13449,1594 @@
     <t>VALIDITY</t>
   </si>
   <si>
-    <t>https://www.amazon.in/gp/aw/review/B0CN2JC9HC/R3RB8ZXF73QQGR?ref_=cm_sw_r_mwn_dprv_1BWGMPH8K16BTMXFN2WJ&amp;language=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/gp/aw/review/B0CN2N8H94/R3JFF3DNUAMKO5?ref=pf_vv_at_pdctrvw_srp</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/review/R33VB6RNOFCEWT/ref=pe_1640331_66412301_cm_rv_eml_rv0_rv</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/gp/aw/review/B0CN2N8H94/R34IXO76ESG7IB</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/gp/customer-reviews/R1US2XEMAL3EB?ref=pf_ov_at_pdctrvw_srp</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/review/R2OXCVVITRGETY/ref=pe_1640331_66412301_cm_rv_eml_rv0_rv</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/gp/f.html?C=ETSVHW0T0C3M&amp;K=2RALHA32FWMPU&amp;M=urn:rtn:msg:20240124195822c72d6d052acb4ccd9814462258b0p0eu&amp;R=1EAU6PM73H558&amp;T=C&amp;U=https%3A%2F%2Fwww.amazon.in%2Freview%2FRLI7VVGSYFLM8%2Fref%3Dpe_1640331_66412301_cm_rv_eml_rv0_rv&amp;H=6C7HRHKFVSMQ2WIL7GAPOS2WJLCA&amp;ref_=pe_1640331_66412301_cm_rv_eml_rv0_rv</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/gp/aw/review/B0CN2N8H94/RYCZ8FM5RR98M?ref=pf_ov_at_pdctrvw_srp</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/review/R2OPUHV924HLK4/ref=pe_1640331_66412301_cm_rv_eml_rv0_rv</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/gp/aw/review/B0CN2N8H94/R3V4EQH0TYU37M?ref=pf_ov_at_pdctrvw_srp</t>
-  </si>
-  <si>
-    <t>http://dl.flipkart.com/dl/reviews/SMWGVGE3AQP6MK4Y:5?reviewId=2c87b1e6-f696-4d8a-821d-9bc3629acf2f</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/SMWGVGE3FAVYTWZF:6?reviewId=4f54a2b5-2704-42dc-b47e-453ea158dbeb</t>
-  </si>
-  <si>
-    <t>http://dl.flipkart.com/dl/reviews/SMWGVGE3FAVYTWZF:7?reviewId=fc8e81e2-c606-4276-ac91-c0989a2d8658</t>
-  </si>
-  <si>
-    <t>https://dl.flipkart.com/dl/reviews/SMWGVGE3AQP6MK4Y:4?reviewId=9f3639a7-f09f-48ff-82e9-f142cbef8083</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/SMWGVGE3FAVYTWZF:8?reviewId=9b0a6c9c-1321-4688-b00f-776c871b9a43</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/SMWGVGE3FAVYTWZF:9?reviewId=5c35a94f-911a-4823-a3f0-169cb1653f97</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/SMWGVGE3AQP6MK4Y:6?reviewId=6236b00a-7410-4a99-838f-b080ed01d373</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/SMWGVGE3FAVYTWZF:11?reviewId=85f1ef4e-e5e3-4fff-8d0e-117f687dcbaf</t>
-  </si>
-  <si>
-    <t>http://dl.flipkart.com/dl/reviews/SMWGVGE3QSYEPPGH:3?reviewId=4eafd84b-697a-439a-9902-71228897e3e5</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/SMWGVGE3FAVYTWZF:12?reviewId=98281539-d15e-4d2f-a4b3-e4674ca7e951</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/SMWGVGE3FAVYTWZF:10?reviewId=6bc5dc9f-323f-4fd3-ac99-5ad6af230e45</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/SMWGVGE3FAVYTWZF:16?reviewId=9ed3e531-9d1a-4a01-8f51-04975cf85bf1</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/SMWGVGE3QSYEPPGH:6?reviewId=41ad70ce-6010-42c6-bdcb-e44eba94ce89</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/SMWGVGE3FAVYTWZF:18?reviewId=c012dd30-df1a-439f-81b1-5a5f9bcd3734</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/review/R2I8V1XRULNGD4/ref=cm_cr_srp_d_rdp_perm?ie=UTF8</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/gp/aw/review/B0CN2JC9HC/R2MO1VSBLMTRIY?ref=pf_ov_at_pdctrvw_srp</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/review/R13A0O5DR3K69/ref=cm_cr_srp_d_rdp_perm?ie=UTF8&amp;ASIN=B0CN2N8H94</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/SMWGVGE3FAVYTWZF:17?reviewId=f5f7ce63-ea62-4a09-92a5-8d0a23a83df2</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/gp/aw/review/B0CN2JC9HC/R2UR03QMLYCCNZ?ref=pf_vv_at_pdctrvw_srp</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/gp/aw/review/B0CN2SYX6Q/R3BO2V4DXT7Z04?ref=pf_vv_at_pdctrvw_srp</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/gp/aw/review/B0CN2SYX6Q/R3HW83QANHQ6YR?ref=pf_vv_at_pdctrvw_srp</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/SMWGVGE3QSYEPPGH:2?reviewId=1085138a-1846-40d5-84dc-b692024aba66</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/SMWGVGE3FAVYTWZF:15?reviewId=bdaaf349-99b8-49e6-bd97-adf7eed32152</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/SMWGVGE3FAVYTWZF:14?reviewId=2f5228d2-0ef1-4cf8-90d7-924e2beb30c6</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/d00e7dfd-c2be-4ea6-8651-aab79bb13e94</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/SMWGVGE3AQP6MK4Y:11?reviewId=b0dc532f-f9fe-409c-bfb9-deb23a097642</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/gp/aw/review/B0CN2JC9HC/R18TFUZKE607WI?ref=pf_vv_at_pdctrvw_srp</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/gp/aw/review/B0CN2N8H94/R2JMJBLOZZ545Y?ref=pf_ov_at_pdctrvw_srp</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/gp/aw/review/B0CN2SYX6Q/R56K1MP42H412?ref=pf_ov_at_pdctrvw_srp</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/gp/aw/review/B0CN2N8H94/R3R0ZY4TCHUHII?ref=pf_ov_at_pdctrvw_srp</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/gp/aw/review/B0CN2SYX6Q/RX5O7XE2HTHX4?ref=pf_ov_at_pdctrvw_srp</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/SMWGVGE3QSYEPPGH:4?reviewId=68154392-ccb2-45aa-96d7-2c3cdf0b9a99</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/SMWGVGE3FAVYTWZF:21?reviewId=49e7c5ff-0888-4a9a-9b8b-7c0e30f91abe</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/SMWGVGE3AQP6MK4Y:12?reviewId=da8f4a23-6547-4183-bae6-0c86d6e560cb</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/SMWGVGE3QSYEPPGH:5?reviewId=4e1d42c5-bf5e-4bec-828c-d2538d6940b6</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/review/R2R9CNEIPPL4E3/ref=pe_1640331_66412301_cm_rv_eml_rv0_rv</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/gp/aw/review/B0CN2N8H94/REZ2G9D1161CN?ref=pf_ov_at_pdctrvw_srp</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/SMWGVGE3AQP6MK4Y:14?reviewId=4e4ca177-c461-4dbe-9c78-4c9195be1a38</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/gp/customer-reviews/R1OOEZEE74ZZLZ?ref=pf_ov_at_pdctrvw_srp</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/75a52bde-83b7-48ff-945b-e4920af189be</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/60d1231c-fc75-4257-9590-a4cee0af7089</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/93fdadab-8dc1-49ab-8c9d-f3224f347af3</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/ef89dc28-c348-4865-8184-97c4c04e4ecf</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/gp/aw/review/B0CN2C26R9/R3KU02Q8XVIZAA?ref_=cm_sw_r_mwn_dprv_2747TBRE1GD38FEAV3Y3&amp;language=en_US</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/SMWGVKPKXYPKM76P:18?reviewId=8ac3eac6-f409-4149-a60c-8e4857edcf3c</t>
-  </si>
-  <si>
-    <t>https://dl.flipkart.com/dl/reviews/SMWGVKPKXYPKM76P:23?reviewId=50204904-9e4b-498b-b389-0b39de94ef18</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/SMWGVKPKXYPKM76P:24?reviewId=ccf8f688-6957-4246-9dd0-b0a5909e55e6</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/gp/aw/review/B0CN2RZR8M/R2PSY80EQL5HAR?ref=pf_ov_at_pdctrvw_srp</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/gp/customer-reviews/R2KU6V9G8KTQCO?ref=pf_ov_at_pdctrvw_srp</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/gp/aw/review/B0CN2RZR8M/R70DTOGEKA1MP?ref=pf_vv_at_pdctrvw_srp</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/gp/aw/review/B0CN2C26R9/RBDNH8OE0RH51?ref_=cm_sw_r_mwn_dprv_2PAXMMH2YZKPYGD6V9DS&amp;language=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/review/R203OZTDNLTP0L/ref=cm_cr_srp_d_rdp_perm?ie=UTF8</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/gp/customer-reviews/R2PWU2Q5W2BOUT?ref=pf_ov_at_pdctrvw_srp</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/review/R2VQ10C5PCGTRQ/ref=cm_cr_srp_d_rdp_perm?ie=UTF8</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/SMWGVHDFMZZMBZMD:4?reviewId=7f213aba-f278-40b3-9309-eb235b602256</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/SMWGVCMGBBERT7GF:8?reviewId=87c5afeb-11a2-4c46-8f26-c8d95de3ae10</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/SMWGVCMGEXFVDZ2P:9?reviewId=3f5d72ad-6516-44eb-9372-f39f2ca30207</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/SMWGVCMGEXFVDZ2P:10?reviewId=207dd198-ec7a-4e94-a3fc-5efb71866291</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/boat-airdopes-161-pro-50-hrs-playback-asap-charge-multi-point-connectivity-bluetooth-headset/product-reviews/itm0ee04480957e4?pid=ACCGQR43WKKHF5PD&amp;lid=LSTACCGQR43WKKHF5PD3FU7K2&amp;aid=4b1283bc-3a6a-4202-b448-7f0aa2f72656&amp;certifiedBuyer=false&amp;sortOrder=MOST_RECENT&amp;pageUID=1693886890297</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/eefc9afd-395e-479e-b83f-3d56d8c1c302</t>
+    <t>https://www.amazon.in/gp/aw/review/B0C27VXVZC/R14DHVTFPH67V4?ref=pf_vv_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B08GFM1X1Y/R1MNVCIH1YH66K?ref_=cm_sw_r_apin_dprv_5BSFFM1K3W8KMCDZTJY6&amp;language=en_US</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CL9S36DV/RGPS0WF2BQ9R1?ref_=cm_sw_r_apin_dprv_B0EQW1S2Y3869M2EFS8P&amp;language=en_US</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/customer-reviews/R2T5MBOV5XLAF7?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/review-your-purchases/edit?_encoding=UTF8&amp;asin=B08L6LNCY9&amp;channel=YAcc-wr</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R2E60W2GNE494B/ref=cm_cr_srp_d_rdp_perm?ie=UTF8&amp;ASIN=B08X4QQXRC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/customer-reviews/R3VUJ7D3ACODXE?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0BMQD8T58/R3MJNXSM3XVQYO?ref=pf_vv_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R12H7I5VY35K81/ref=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/customer-reviews/R3K0XB9P7YBSGF?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/customer-reviews/R2GS5N31PS3YB?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/LSKGXJNYAWZPFFDG:12?reviewId=05417a9b-54c8-4c34-a3f2-03ff20c6bb51</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/LSKGU2QABBWNAACQ:26?reviewId=f6a5a906-c539-4054-8217-9e4f04e65507</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/LSKGYCNRRMYAGHBW:1229?reviewId=ba2619cd-5d63-45f2-8da7-cac724a3e315</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/customer-reviews/R2PP3L0E9QEWPL?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/DEOGWWWZV4ETG5EC:6?reviewId=0d2c5d23-2055-4e6e-9d9a-50521dd78d10</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/2d967601-890e-4eba-91ba-94ab01e3d94e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/DEOGXJZJEPYP8G3H:3?reviewId=fa4ec0c1-b604-4aa4-97bd-a4a9d39d7392</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/SNRGZFB4TGGFWTCN:15?reviewId=eeeba92f-9205-4b0a-8b3e-a7c61f8ad9c8</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/SNRGZFB4TGGFWTCN:14?reviewId=5d3362ea-c736-4f86-b911-31733357f1e0</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/PERGGNX6XPHZUYH9:611?reviewId=4e38e6e6-b381-4638-9332-75857e968a78</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/DEOGWWWZV4ETG5EC:7?reviewId=9bdc717c-7081-453c-bbcc-d619fa978c16</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/SNRGZFB4TGGFWTCN:16?reviewId=5f85ea32-2b4b-45c7-a61f-46f5bc347d2a</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CYHGNLF8/RWN5CS1LFR59R?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CDCM1DJ1/R4D3DDUYBSMH2?ref_=cm_sw_r_apann_dprv_4H5M3XNBBJ33P3X163BX&amp;language=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/PRMGR8ZYX6U4YVFY:165?reviewId=e1cf45dc-4b66-40c8-8cd2-c2912ebb98e7</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/MSCGGM3HEB7DD2FF:12?reviewId=a83b4f01-adbe-4301-b88a-e57d064dbd9b</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/MSCGBGD687FZW3AG:79?reviewId=2c715d47-cf02-40de-81fa-ff0e31a5a9d3</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/DEOGWWXHGUVHN5C4:8?reviewId=43c43b88-9b8b-4f0c-aa0b-2acd59c43b1c</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/customer-reviews/R10JYJAWW05SA8</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/DEOGXJZJEPYP8G3H:8?reviewId=653867a4-583b-48c3-8338-e84979db0e9e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/LSKGU2QABBWNAACQ:27?reviewId=2e671d8d-2f63-404d-bafb-cab869b8e41d</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/PERGWWXZWNYDF2F5:4?reviewId=ccb4edf9-f404-4314-a12e-d2b30f23e9e9</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R8QS0VQIBI3N4/ref=cm_cr_srp_d_rdp_perm?ie=UTF8</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/DEOGWWWRM8P9GFFA:8?reviewId=7aff531a-dda9-454b-b830-59f11460ceb3</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/DEOGWWXHGUVHN5C4:4?reviewId=98a07e68-fd67-4f7e-b745-456dbc4fd5eb</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/DEOGXJZJEPYP8G3H:2?reviewId=64640c06-8a96-43fa-8125-067476ac6de9</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/DEOGWWWZV4ETG5EC:4?reviewId=383ddec2-da1f-4156-b0c2-4172d63a82af</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/HRCHF4J6CY7WZUH9:11?reviewId=2532f82e-ed15-4def-8abb-25fd169f6f67</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/RAVS1OG0PKWMP/ref=cm_cr_srp_d_rdp_perm?ie=UTF8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R38BYE09D9J4ZI/ref=cm_cr_srp_d_rdp_perm?ie=UTF8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R1T4XNA80AJJ42/ref=cm_cr_srp_d_rdp_perm?ie=UTF8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/RQV1BUW0GLN30/ref=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/LSKGXJNYAWZPFFDG:15?reviewId=5eb630ba-7072-4e15-afe3-ecb8061a8d51</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/LSKGXJNYAWZPFFDG:20?reviewId=ea93769b-80a4-4cd4-8e69-6f04a047b127</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/DEOGWWWZV4ETG5EC:9?reviewId=46de1e2b-099d-4017-974b-8daa49d65c88</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R16SP4H1G1G2ZX/ref=cm_cr_srp_d_rdp_perm?ie=UTF8</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/DEOGWWXHGUVHN5C4:9?reviewId=8f4c3175-6043-40fc-8b26-98c77c8125bd</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/DEOGWWXHGUVHN5C4:10?reviewId=fe8fae0f-6394-4432-b9f8-8de477fc3227</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/renee-body-mist-pack-4-long-lasting-premium-fragrance-women-travel-friendly-women/product-reviews/itm63d2fc3896c62?pid=DEOGXJZJEPYP8G3H&amp;lid=LSTDEOGXJZJEPYP8G3HTOH3ZO&amp;marketplace=FLIPKART</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/9f02568d-3b68-47ba-850f-0970262f6c4a</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/LSKGXJNYAWZPFFDG:19?reviewId=e00e60cc-d6e2-47d2-be34-230fe0f4d14f</t>
+  </si>
+  <si>
+    <t>https://dl.flipkart.com/dl/reviews/LPBGU35YHQEGJD5B:33?reviewId=580f06dc-3e11-47c5-9795-bf3e661e6797</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/LSKGYCNRRMYAGHBW:1228?reviewId=ab166bcf-3800-47ca-91b7-ff7721bb10ed</t>
+  </si>
+  <si>
+    <t>http://dl.flipkart.com/dl/reviews/PERGWWXZWNYDF2F5:3?reviewId=f1d924e6-069d-467c-ad26-7a16a4e7dac0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CQJTM6TW/R30EFY35UPF2ES?ref_=cm_sw_r_mwn_dprv_RK13471N3WF53WZ3W0H5&amp;language=en_US</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R3V5F02HLOMKR2/ref=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/DEOGXJZJEPYP8G3H:7?reviewId=806f7cb8-4020-41d4-98ae-e20881e80ad6</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/DEOGXJZJEPYP8G3H:9?reviewId=5b2181b6-1993-4dda-b700-e9b3d1d298eb</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/reviews/DEOGWWWZV4ETG5EC:8?reviewId=f3d783c4-b4dd-4893-bc14-49cf476936a1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/RF47ZU25YYCJ3/ref=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/product/B0CS6R5NFH/ref=ppx_yo_dt_b_asin_title_o06_s00?ie=UTF8&amp;psc=1#customerReviews</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CWTX999Q/R2Y5ECWKNSNWYA?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R38Q4Z37P4N2N0/ref=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CWTSM8Y7/R3FURPVRZGV7ML?ref=pf_vv_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CS6RSJTB/R1M4EZYAGP3KLB?ref=pf_vv_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CW3BTHN8/R2YTRQT4O9AXKH?ref=pf_vv_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CW3C696D/RUJMJL0T7LXSF?ref_=cm_sw_r_mwn_dprv_JK78Y9HBMFFAA99XES2M&amp;language=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/RWTH1734XW35K/ref=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R4PD8DGAY0OZL/ref=cm_cr_srp_d_rdp_perm?ie=UTF8&amp;ASIN=B0CW9944RQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CS6RSJTB/R3US54M6LDEPJ5?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/customer-reviews/R3UEXBQ11U2MTK?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/customer-reviews/R2Q0NM703EQPIA?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R3DOV5XHQ1FZNX/ref=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CP21FGH6/R7H7Q32DPC3CN?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R1QBT0XG6999EJ/ref=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/customer-reviews/RMID7TARIKMIZ?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CW9JS8HK/R1RD4Q7DMREP8K?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/customer-reviews/R3GGKN9FEBOCI5/ref=cm_cr_getr_d_rvw_ttl?ie=UTF8&amp;ASIN=B0CWTSM8Y7</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CS6R5NFH/R1HVPKH8XOSOUP?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/RQITJS3BQUSG4/ref=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R3BFY4ACHYVDZO/ref=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CWTSM8Y7/R36AZ7JAQIQ6US?ref_=cm_sw_r_mwn_dprv_QNJNK5M6JS728C104V8B&amp;language=en_US</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R3HWHG592GUB97/ref=cm_cr_srp_d_rdp_perm?ie=UTF8&amp;ASIN=B0CW9944RQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CW9944RQ/R3LJA3VDKRBHPI?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R2E07AN1YV0SCY/ref=cm_cr_srp_d_rdp_perm?ie=UTF8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/RUEQFQKZ26QNO/ref=cm_cr_srp_d_rdp_perm?ie=UTF8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CW3BTHN8/R1KSZNWEWHE718?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R10QE64JEQIKI9/ref=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/f.html?C=ETSVHW0T0C3M&amp;K=21CFHO3HOSIAX&amp;M=urn:rtn:msg:20240704135745b0fe14ad00034f5699f2496efc40p0eu&amp;R=24WF4Y1HR6CFO&amp;T=C&amp;U=https%3A%2F%2Fwww.amazon.in%2Freview%2FRU6E688QAD3KJ%2Fref%3Dpe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv&amp;H=SLMVO2SSIXEVTCEGHISGPV8MXVCA&amp;ref_=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R1G7WJ7TS4KS20/ref=cm_cr_srp_d_rdp_perm?ie=UTF8&amp;ASIN=B0CWTSM8Y7</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R2HVQJGKNOD7JA/ref=cm_cr_srp_d_rdp_perm?ie=UTF8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/customer-reviews/R2DVR5I0UQ99JR?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/customer-reviews/R8OXQUC2Y2XMU?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CW9944RQ/R1C28ACYXF6Q07?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R25NSSP6Q7F1AS/ref=cm_cr_srp_d_rdp_perm?ie=UTF8&amp;ASIN=B0CRVJS1XG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R148R5YU6LNLEL/ref=cm_cr_srp_d_rdp_perm?ie=UTF8&amp;ASIN=B0CS6R5NFH</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/f.html?C=ETSVHW0T0C3M&amp;K=1ER7NTAE7D6ZN&amp;M=urn:rtn:msg:202407090557292eea0ed5e6e14c6dac541466cf50p0eu&amp;R=13AC7NX35SJQ1&amp;T=C&amp;U=https%3A%2F%2Fwww.amazon.in%2Freview%2FR2TZYUSJA6R365%2Fref%3Dpe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv&amp;H=A7YGABBALJSVY5EQWAMNAJ5TWJ0A&amp;ref_=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R1KDINVU51IKZZ/ref=cm_cr_srp_d_rdp_perm?ie=UTF8&amp;ASIN=B0CWTX999Q</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/customer-reviews/REKRQ9VU2RRQ?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R3ARK78V5GAHLZ/ref=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/RAW7FH3JUTXRE/ref=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R5X6IIT970XDG/ref=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0D1TZW8TL/R1FGEZCE4YU5CP?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CWH2XN6T/R2MG0PVLPTCUUM?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/customer-reviews/R28484MF0U8JVI/ref=cm_cr_othr_d_rvw_ttl?ie=UTF8&amp;ASIN=B0CS6R5NFH</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CS6RSJTB/R2J6EVZIYDGE0O?ref_=cm_sw_r_apann_dprv_1F6N2FQXN9SA4FQ1FP4C&amp;language=en_US</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CS6R5NFH/R2ZSS4T0PI0QV?ref_=cm_sw_r_apann_dprv_2JGPW9KSN8JW93SRNHQG&amp;language=en_US</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0B7WN3GFF/R2EDTG2GAVFGR4?ref_=cm_sw_r_apann_dprv_PGEH25X2N441MDHQHZZ7&amp;language=en_US</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CWTSM8Y7/R6W80KC827HRX?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CWTX999Q/RB922I8DXZNOQ?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CRVJS1XG/RFEJ91ODYLQLG?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/customer-reviews/R1VS598RNNALKE/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R38GBXXR0LYH0G/ref=cm_cr_srp_d_rdp_perm?ie=UTF8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R1G30YEMTQPHKC/ref=cm_cr_srp_d_rdp_perm?ie=UTF8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0B7WN3GFF/R2VALB943PFOYU?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/customer-reviews/R1GZ2RE1VBD3MH?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CQYSDMK2/R237TR046Z4ART?ref_=cm_sw_r_apann_dprv_1TSP4PXVR9KC6C1YPGDC&amp;language=en_US</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CWH2XN6T/R30B9HMZ3FA2D7?ref_=cm_sw_r_apann_dprv_1HWR0PT0QCYXSE2V3XSZ&amp;language=en_US</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R1I70JWTDLG349/ref=cm_cr_srp_d_rdp_perm?ie=UTF8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/f.html?C=ETSVHW0T0C3M&amp;K=1ER7NTAE7D6ZN&amp;M=urn:rtn:msg:202407150557333baeddd223fa44099fee20bad4d0p0eu&amp;R=2BMDRGZV91J3C&amp;T=C&amp;U=https%3A%2F%2Fwww.amazon.in%2Freview%2FR1BUZ7X66TJSFV%2Fref%3Dpe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv&amp;H=JPOEERSA0PZNFAT0XXWCAXLKA3CA&amp;ref_=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/create-review/?ie=UTF8&amp;channel=glance-detail&amp;asin=B0CS6R5NFH</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CS6R5NFH/R1FHY6LF804E4C?ref_=cm_sw_r_apann_dprv_AQ2YSVQCQHWR32F545AY&amp;language=en_US</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CWTX999Q/RXQ9NYY48AOF7?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R17LZLBRBEYSET/ref=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CW9J2RCL/R3P6SQADZ5KBOJ?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CS6R5NFH/R1JAH7MR9YJE4G?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R3NTA52MHMNKMA/ref=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CW9J2RCL/R3PISOZE4U4IDC?ref_=cm_sw_r_mwn_dprv_SRSHYKRT96NK5RJV5NGG&amp;language=en_US</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/customer-reviews/R66M2R96Y59UP/ref=cm_cr_dp_d_rvw_ttl?ie=UTF8&amp;ASIN=B0CRVJS1XG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/f.html?C=ETSVHW0T0C3M&amp;K=1GX2N5VXODP60&amp;M=urn:rtn:msg:202407062043393cfb91a7a20943818ff99c6a1880p0eu&amp;R=3JWXXQTMU6WRP&amp;T=C&amp;U=https%3A%2F%2Fwww.amazon.in%2Freview%2FR3KGI05IXS49V6%2Fref%3Dpe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv&amp;H=4QCKSKFCRIFNN4N6BUIERFXCMVMA&amp;ref_=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R1ABQ5FBZSITOV/ref=cm_cr_srp_d_rdp_perm?ie=UTF8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R27RINJA3UDHYW/ref=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R2N0IIKS007OYX/ref=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/REC60734U4HNM/ref=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R34NRQX80Z0PYQ/ref=cm_cr_srp_d_rdp_perm?ie=UTF8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/RU7T2FA7B1VEP/ref=cm_cr_srp_d_rdp_perm?ie=UTF8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R99LSFK2L5Y70/ref=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/review/R19D6OOEEKEXFJ/ref=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>review/B0C27VXVZC/R14DHVTFPH67V4</t>
+  </si>
+  <si>
+    <t>Sagar</t>
+  </si>
+  <si>
+    <t>Verified Purchase</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 15 June 2024</t>
+  </si>
+  <si>
+    <t>VILLAIN Roar Combo-4 X 20Ml Premium Liquid Musk, Spicy,Woody Perfume Gift Set For Men Eau De Parfum Long Lasting Fragrance</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>review/B08GFM1X1Y/R1MNVCIH1YH66K</t>
+  </si>
+  <si>
+    <t>Disha dwivedi</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 2 July 2024</t>
+  </si>
+  <si>
+    <t>Villain Perfume For Men 100 Ml - Eau De Parfum - Premium Long Lasting Fragrance Spray - Woody &amp; Spicy</t>
+  </si>
+  <si>
+    <t>This perfume smell is too good 👍</t>
+  </si>
+  <si>
+    <t>review/B0CL9S36DV/RGPS0WF2BQ9R1</t>
+  </si>
+  <si>
+    <t>VILLAIN Revolver Liquid Perfume For Men 100 Ml Eau De Parfum Premium Long-Lasting Fragrance Travel Friendly Woody Oriental Scent Special Pack</t>
+  </si>
+  <si>
+    <t>I loved it.</t>
+  </si>
+  <si>
+    <t>2T5MBOV5XLAF7</t>
+  </si>
+  <si>
+    <t>Madhuri</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 1 July 2024</t>
+  </si>
+  <si>
+    <t>VILLAIN Revolver Edp Perfume For Men Gold Limited Edition, 100 Ml | Eau De Parfum Liquid | Premium Long-Lasting Fragrance | Spicy, Woody</t>
+  </si>
+  <si>
+    <t>Nice perfume</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>R2E60W2GNE494B</t>
+  </si>
+  <si>
+    <t>Pulkit jindal</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 3 July 2024</t>
+  </si>
+  <si>
+    <t>Villain Snake Perfume for Men 100ml | Long Lasting Perfume | Strong, Smoky, Sexy and Masculine| Premium EDP Perfume For Men | Best Gift For Men</t>
+  </si>
+  <si>
+    <t>Good quantity of nice fragrance.</t>
+  </si>
+  <si>
+    <t>3VUJ7D3ACODXE</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 12 July 2024</t>
+  </si>
+  <si>
+    <t>Villain Hydra Perfume (Eau Da Parfum) (100 ml), Aquatic</t>
+  </si>
+  <si>
+    <t>The Perfect Blend of Freshness and Mystery</t>
+  </si>
+  <si>
+    <t>review/B0BMQD8T58/R3MJNXSM3XVQYO</t>
+  </si>
+  <si>
+    <t>Amar</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 4 July 2024</t>
+  </si>
+  <si>
+    <t>VILLAIN Rebel Luxury Liquid Perfume Gift Set For Men 4X20 Ml With Woody, Oud, Musk, Aqua Perfume Luxury Long Lasting Fragrance Men Fragrance Set Perfume Combo Set For Men|Edp Perfume Combo</t>
+  </si>
+  <si>
+    <t>R12H7I5VY35K81</t>
+  </si>
+  <si>
+    <t>Ajay Bohra</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 14 July 2024</t>
+  </si>
+  <si>
+    <t>Villain Luxury EVillain Party Combo | Luxury Perfume For Men, Classic &amp; Hydra EDP Perfume Combo, Pack of 2 Premium Long Lasting Perfume for Men, 100 Ml EachDP Men, Classic &amp; Hydra EDP Perfumes Combo, Pack of 2 Premium Long Lasting Perfume for Men, 100 Ml Each</t>
+  </si>
+  <si>
+    <t>Best fragrance</t>
+  </si>
+  <si>
+    <t>3K0XB9P7YBSGF</t>
+  </si>
+  <si>
+    <t>Unique and Captivating Scent</t>
+  </si>
+  <si>
+    <t>2GS5N31PS3YB</t>
+  </si>
+  <si>
+    <t>Aayush Goyal</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 1 June 2024</t>
+  </si>
+  <si>
+    <t>RENEE Colorlock Transfer Not Lip Crayon with Sharpener, SPF 20, Waterproof, Smudgeproof, Lightweight &amp; Long Lasting, Intense Color Payoff with Ultra Matte Finish, Enriched with Vitamin E, Tempt 3gm</t>
+  </si>
+  <si>
+    <t>Amazing</t>
+  </si>
+  <si>
+    <t>FLIPKART</t>
+  </si>
+  <si>
+    <t>Pallavi Singhvi</t>
+  </si>
+  <si>
+    <t>Certified Buyer</t>
+  </si>
+  <si>
+    <t>12 Jun, 2024</t>
+  </si>
+  <si>
+    <t>Renee FAB 5 Glossy 5 in 1 Lipstick - Five Shades In One Stick - S...</t>
+  </si>
+  <si>
+    <t>Manila Chawla</t>
+  </si>
+  <si>
+    <t>22 Jun, 2024</t>
+  </si>
+  <si>
+    <t>Renee FAB 5 Nude, 5-in-1 Lipstick, Smooth Matte Finish Lips, Non-...</t>
+  </si>
+  <si>
+    <t>Love these</t>
+  </si>
+  <si>
+    <t>2PP3L0E9QEWPL</t>
+  </si>
+  <si>
+    <t>Rohini Pal</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 5 February 2024</t>
+  </si>
+  <si>
+    <t>RENEE Volumax Mascara Black 10ml | Quick Dry, Waterproof, Long Lasting Weightless Formula | Volumizes, Lengthens &amp; Conditions the Lashes With Intense Color | 360 - Degree Wand for Clump Free Application</t>
+  </si>
+  <si>
+    <t>Volume and length</t>
+  </si>
+  <si>
+    <t>Advaita Warang</t>
+  </si>
+  <si>
+    <t>Renee Body Mist Pack of 4, Long Lasting Premium Fragrance for Wom...</t>
+  </si>
+  <si>
+    <t>Govind Yadav</t>
+  </si>
+  <si>
+    <t>25 Jun, 2024</t>
+  </si>
+  <si>
+    <t>Renee Sunscreen - SPF 50 PA++++ Pore Minimizing Face Gel, Enriche...</t>
+  </si>
+  <si>
+    <t>Sagar Yadav</t>
+  </si>
+  <si>
+    <t>Hema Bisht</t>
+  </si>
+  <si>
+    <t>19 Jun, 2024</t>
+  </si>
+  <si>
+    <t>Renee Bloom Eau de Parfum - 50 ml</t>
+  </si>
+  <si>
+    <t>Kartik Saini</t>
+  </si>
+  <si>
+    <t>27 Jun, 2024</t>
+  </si>
+  <si>
+    <t>Renee Violet Melody Body Mist, Fruity Luxurious Blend, Long Lasti...</t>
+  </si>
+  <si>
+    <t>Aman Jain</t>
+  </si>
+  <si>
+    <t>26 Jun, 2024</t>
+  </si>
+  <si>
+    <t>Great product everyone should buy</t>
+  </si>
+  <si>
+    <t>review/B0CYHGNLF8/RWN5CS1LFR59R</t>
+  </si>
+  <si>
+    <t>Nidhi</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 17 June 2024</t>
+  </si>
+  <si>
+    <t>RENEE Pore Minimizing Sunscreen Spf 70 With 2% Niacinamide For All Skins, 2% Peptide &amp; 3% Multivitamins, 50Ml</t>
+  </si>
+  <si>
+    <t>Perfect sunscreen for me</t>
+  </si>
+  <si>
+    <t>review/B0CDCM1DJ1/R4D3DDUYBSMH2</t>
+  </si>
+  <si>
+    <t>Jatin Behl</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 28 January 2024</t>
+  </si>
+  <si>
+    <t>RENEE Glitterati Nail Paint- Silver Confetti 10ml | Quick Drying, Glittery Finish, Long Lasting, Chip resisting Formula with High Glitter &amp; Full Coverage | Acetone &amp; Paraben Free</t>
+  </si>
+  <si>
+    <t>It is wow</t>
+  </si>
+  <si>
+    <t>Maitreyi P</t>
+  </si>
+  <si>
+    <t>02 Jul, 2024</t>
+  </si>
+  <si>
+    <t>Renee Sucker � Oil Pulling Stick Primer - 5 g</t>
+  </si>
+  <si>
+    <t>Renee Face Gloss with Hyaluronic Acid, 10ml - Rose Gold</t>
+  </si>
+  <si>
+    <t>Renee Face Gloss Illuminating Face Serum, 10ml</t>
+  </si>
+  <si>
+    <t>Renee Bohemian Zest Body Mist, Fruity Luxurious Blend, Long Lasti...</t>
+  </si>
+  <si>
+    <t>10JYJAWW05SA8</t>
+  </si>
+  <si>
+    <t>Ibtesam Rahman</t>
+  </si>
+  <si>
+    <t>Non sticky, quick absorbing SPF 70</t>
+  </si>
+  <si>
+    <t>Bharadwaj Pant</t>
+  </si>
+  <si>
+    <t>08 Jul, 2024</t>
+  </si>
+  <si>
+    <t>05 Jul, 2024</t>
+  </si>
+  <si>
+    <t>Renee Flirt &amp; Madame Perfume - Pack Of 2 - 20ml Each - Premium, L...</t>
+  </si>
+  <si>
+    <t>R8QS0VQIBI3N4</t>
+  </si>
+  <si>
+    <t>Vaibhav</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 8 July 2024</t>
+  </si>
+  <si>
+    <t>RENEE See Me Shine Minis Gloss Party Lip Gloss Combo 1ml Each, Non Sticky &amp; Non Drying Formula, Long Lasting Moisturizing Effect, Compact and Easy to Carry</t>
+  </si>
+  <si>
+    <t>Glosssy</t>
+  </si>
+  <si>
+    <t>Manya Sethi</t>
+  </si>
+  <si>
+    <t>21 Jun, 2024</t>
+  </si>
+  <si>
+    <t>Renee Pink Romance Body Mist, Floral Luxurious Blend, Long Lastin...</t>
+  </si>
+  <si>
+    <t>RAVS1OG0PKWMP</t>
+  </si>
+  <si>
+    <t>Priyadarshini</t>
+  </si>
+  <si>
+    <t>RENEE Hot Shot Face &amp; Body Glowstick 30gm, Moisturizing, Weightless, Shimmery Finish Illuminating Stick | Infused With Rosehip &amp; Avocado Oil, Boosts Skin Radiance Instantly</t>
+  </si>
+  <si>
+    <t>A must have for glowy skin</t>
+  </si>
+  <si>
+    <t>R38BYE09D9J4ZI</t>
+  </si>
+  <si>
+    <t>RENEE PRO Pearl Primer- Gold 30 ml, Shimmery Finish, Blurs Pores, Fine Lines &amp; Wrinkles | Lightweight, Hydrates, Smoothens &amp; Evens Out Skin Tone | Enriched with Hyluronic Acid &amp; Vitamin E</t>
+  </si>
+  <si>
+    <t>One of the best primers that I've tried on</t>
+  </si>
+  <si>
+    <t>R1T4XNA80AJJ42</t>
+  </si>
+  <si>
+    <t>RENEE Centre Stage Primer 30 Ml, Transparent Lightweight, Non-sticky, Long Lasting Formulation Enriched With Vitamin E - Hides Pores &amp; Fine Lines for Smooth &amp; Even Skin With Matte Finish</t>
+  </si>
+  <si>
+    <t>Neutral and lightweight primer</t>
+  </si>
+  <si>
+    <t>RQV1BUW0GLN30</t>
+  </si>
+  <si>
+    <t>javisha</t>
+  </si>
+  <si>
+    <t>RENEE Face Base Liquid Foundation - Cappuccino, 23ml | Enriched with Hyaluronic Acid &amp; Vitamin E, Provides SPF 8 Protection, Weightless, Long-lasting Matte Finish</t>
+  </si>
+  <si>
+    <t>Best and affordable foundation</t>
+  </si>
+  <si>
+    <t>Shruti Bhoir</t>
+  </si>
+  <si>
+    <t>09 Jul, 2024</t>
+  </si>
+  <si>
+    <t>Renee Stay Forever Matte Liquid Lipstick Combo - Transfer &amp; Smudg...</t>
+  </si>
+  <si>
+    <t>R16SP4H1G1G2ZX</t>
+  </si>
+  <si>
+    <t>Ishita</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 10 July 2024</t>
+  </si>
+  <si>
+    <t>RENEE Long Stick On Nails L MTN 01| 24 Reusable Artificial Fake Nail Set| Lightweight &amp; Long Lasting| Easy To Use| Quick Fix For Festivals &amp; Special Occasions</t>
+  </si>
+  <si>
+    <t>Easy to use</t>
+  </si>
+  <si>
+    <t>10 Jul, 2024</t>
+  </si>
+  <si>
+    <t>Alaika Vasani</t>
+  </si>
+  <si>
+    <t>Rakhi Prasad</t>
+  </si>
+  <si>
+    <t>06 Jul, 2024</t>
+  </si>
+  <si>
+    <t>Renee Disney Frozen Princess Donut Jelly Lip Balm Elsa Tinted Pin...</t>
+  </si>
+  <si>
+    <t>Pappu Pappu</t>
+  </si>
+  <si>
+    <t>13 Jun, 2024</t>
+  </si>
+  <si>
+    <t>Anmol</t>
+  </si>
+  <si>
+    <t>review/B0CQJTM6TW/R30EFY35UPF2ES</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 13 July 2024</t>
+  </si>
+  <si>
+    <t>RENEE Midnight Kohl Pencil - Smudgeproof and Waterproof Kajal - 24 Hrs Long Stay - Darkest Black - One Swipe Application - Rich Color Payoff - Vitamin E, Olive Oil and Castor Oil - 1.5 Gm</t>
+  </si>
+  <si>
+    <t>Perfect kohl</t>
+  </si>
+  <si>
+    <t>R3V5F02HLOMKR2</t>
+  </si>
+  <si>
+    <t>prasanna</t>
+  </si>
+  <si>
+    <t>Does its job</t>
+  </si>
+  <si>
+    <t>Raman Raj</t>
+  </si>
+  <si>
+    <t>Vaibhav Sethi</t>
+  </si>
+  <si>
+    <t>13 Jul, 2024</t>
+  </si>
+  <si>
+    <t>Naeelah Shaikh</t>
+  </si>
+  <si>
+    <t>RF47ZU25YYCJ3</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Beardo Perfume For Men - Don, 50ml | With Melon, Jasmin, Vannila Intense Fresh | Strong Long Lasting Mens Perfume | EAU DE PARFUM Men | Ideal Gift For Men</t>
+  </si>
+  <si>
+    <t>Smells gorgeous</t>
+  </si>
+  <si>
+    <t>review/B0CWTX999Q/R2Y5ECWKNSNWYA</t>
+  </si>
+  <si>
+    <t>Dr. Simran</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 21 June 2024</t>
+  </si>
+  <si>
+    <t>Beardo Mariner Perfume EDP 50ml &amp; Mariner Captain Jack Perfume Body Spray 120ml for Men | Eau De Parfum | Long Lasting Perfume for Men | Deodorant Body Spray for Men | Day Time Fragrance Body Spray For Men | Fresh, Aqua Notes | Gift for Men</t>
+  </si>
+  <si>
+    <t>Worth purchasing</t>
+  </si>
+  <si>
+    <t>R38Q4Z37P4N2N0</t>
+  </si>
+  <si>
+    <t>Charan tej</t>
+  </si>
+  <si>
+    <t>Beardo Ape-X Prime 3-in-1 Multipurpose Trimmer for Men | Grooming Kit : Beard Trimmer, Precision Trimmer, Ear &amp; Nose Trimmer | Stainless Steel self-sharpening blades | Type C charging</t>
+  </si>
+  <si>
+    <t>Multiples machines</t>
+  </si>
+  <si>
+    <t>review/B0CWTSM8Y7/R3FURPVRZGV7ML</t>
+  </si>
+  <si>
+    <t>Anish</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 19 June 2024</t>
+  </si>
+  <si>
+    <t>Beardo Whisky Smoke Deodorant 120ml &amp; Bourbon Perfume 50ml for Men Giftset | Eau De Parfum &amp; Body Spray | Spicy, Woody - Oudh | Long Lasting Mens Perfume | Date night fragrance</t>
+  </si>
+  <si>
+    <t>Mild Fragrance</t>
+  </si>
+  <si>
+    <t>review/B0CS6RSJTB/R1M4EZYAGP3KLB</t>
+  </si>
+  <si>
+    <t>Dhruv khurana</t>
+  </si>
+  <si>
+    <t>Beardo Day Perfumes For Men &amp; Women 4 x 20ml | Compliment worthy Unisex perfume combo | Long Lasting Perfumes - Fresh &amp; Aquatic Fragrances | Gift for men</t>
+  </si>
+  <si>
+    <t>So good!</t>
+  </si>
+  <si>
+    <t>review/B0CW3BTHN8/R2YTRQT4O9AXKH</t>
+  </si>
+  <si>
+    <t>Ajay khurana</t>
+  </si>
+  <si>
+    <t>Beardo Whisky Smoke Perfume for Men &amp; Freed Musk Bomb Perfume for Women, 20ml x 2 | Woody Fragrance Notes for Men &amp; Women Long Lasting Perfume for Date night fragrance</t>
+  </si>
+  <si>
+    <t>Perfect for Him and Her</t>
+  </si>
+  <si>
+    <t>review/B0CW3C696D/RUJMJL0T7LXSF</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 18 June 2024</t>
+  </si>
+  <si>
+    <t>Beardo Darkside &amp; Godfather Perfume for Men, 20ml x 2 | Godfather EDP with Aromatic, Spicy Perfume for Men Long Lasting Perfume for Date night fragrance | Fresh, Woody Premium Darkside fragrance | Ideal gift for men</t>
+  </si>
+  <si>
+    <t>Extra fragrance</t>
+  </si>
+  <si>
+    <t>RWTH1734XW35K</t>
+  </si>
+  <si>
+    <t>Sandeep Anturkar</t>
+  </si>
+  <si>
+    <t>Beardo Him &amp; Her Perfume Giftset 20ml x 4 | Long Lasting Spicy Eau De Parfum | Gift For Couple, Men Women</t>
+  </si>
+  <si>
+    <t>Very Happening &amp; The Essence is So Adorable 😍😍</t>
+  </si>
+  <si>
+    <t>R4PD8DGAY0OZL</t>
+  </si>
+  <si>
+    <t>Naveen sharma</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 23 June 2024</t>
+  </si>
+  <si>
+    <t>multi purpose trimmer.</t>
+  </si>
+  <si>
+    <t>review/B0CS6RSJTB/R3US54M6LDEPJ5</t>
+  </si>
+  <si>
+    <t>Shivani mishra</t>
+  </si>
+  <si>
+    <t>Fragrance is too good 🤩</t>
+  </si>
+  <si>
+    <t>3UEXBQ11U2MTK</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>Beardo Apex Go Trimmer for Men - 80-Min Run Time - Powerful 5500 RPM motor - Compact Travel-Friendly Design - Self-Sharpening Blades, 3 Comb Attachments, Type-C Charging, Digital Display</t>
+  </si>
+  <si>
+    <t>Fascinating product</t>
+  </si>
+  <si>
+    <t>2Q0NM703EQPIA</t>
+  </si>
+  <si>
+    <t>Beardo Whisky Smoke Perfumed Luxury Soap for Men, 75g x 3 | Deep cleanses skin pores | Repairs broken skin and Reduce Hyperpigmentation | Refreshing Fragrance all day long</t>
+  </si>
+  <si>
+    <t>LUXURIOUS PRODUCT</t>
+  </si>
+  <si>
+    <t>R3DOV5XHQ1FZNX</t>
+  </si>
+  <si>
+    <t>Lakshay Burman</t>
+  </si>
+  <si>
+    <t>Beardo Studio Professional Tornado Hair Dryer with 2000 Watts Power | AC Motor, Concentrator, Diffuser, 2 Speeds, 3 Temperature Settings &amp; Cool Shot feature | Suitable for Professional Drying Experience</t>
+  </si>
+  <si>
+    <t>Classy and powerful</t>
+  </si>
+  <si>
+    <t>review/B0CP21FGH6/R7H7Q32DPC3CN</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 25 June 2024</t>
+  </si>
+  <si>
+    <t>Beardo PurpleX Teeth Whitening Powder, 50g | Stain Removal and Teeth Whitening Solution | Enamel Safe | Prevents Bad Breath | With Papain and Bromelain Enzymes for Stain removal | Peroxide Free</t>
+  </si>
+  <si>
+    <t>Good product</t>
+  </si>
+  <si>
+    <t>R1QBT0XG6999EJ</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 22 June 2024</t>
+  </si>
+  <si>
+    <t>Beardo Max Volume Powder Wax, 10 gm | Powder Hair Wax Men | Hair Styling Wax for Matte Finish | Strong Hold &amp; Restylable Hair Powder For Men | Hair Volumizing Powder Wax Superlight &amp; Instant Volume</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/aw/review/B0CP21FGH6/RSC7PE6M55CRM?ref=pf_ov_at_pdctrvw_srp</t>
+  </si>
+  <si>
+    <t>review/B0CP21FGH6/RSC7PE6M55CRM</t>
+  </si>
+  <si>
+    <t>Sushant Borhade</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 28 June 2024</t>
+  </si>
+  <si>
+    <t>Effective in Removing yellow stains from teeth</t>
+  </si>
+  <si>
+    <t>MID7TARIKMIZ</t>
+  </si>
+  <si>
+    <t>Shivam</t>
+  </si>
+  <si>
+    <t>Material quality is good</t>
+  </si>
+  <si>
+    <t>review/B0CW9JS8HK/R1RD4Q7DMREP8K</t>
+  </si>
+  <si>
+    <t>Kartik</t>
+  </si>
+  <si>
+    <t>Powerfull noice less performence</t>
+  </si>
+  <si>
+    <t>3GGKN9FEBOCI5</t>
+  </si>
+  <si>
+    <t>Abhijeet Sen</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 4 June 2024</t>
+  </si>
+  <si>
+    <t>Smells so good</t>
+  </si>
+  <si>
+    <t>review/B0CS6R5NFH/R1HVPKH8XOSOUP</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 26 June 2024</t>
+  </si>
+  <si>
+    <t>Beardo Mini Perfume Trial Kit, 10 x 5ml | Best Date Night Fragrances for Men | Travel friendly perfume kit for all moods &amp; occasions | Ideal gift for men</t>
+  </si>
+  <si>
+    <t>RQITJS3BQUSG4</t>
+  </si>
+  <si>
+    <t>Harshal Tiwari</t>
+  </si>
+  <si>
+    <t>Fresh and Invigorating: Beardo Mariner Perfume and Captain Jack Body Spray 🌊✨</t>
+  </si>
+  <si>
+    <t>R3BFY4ACHYVDZO</t>
+  </si>
+  <si>
+    <t>For Clean and white teeth</t>
+  </si>
+  <si>
+    <t>review/B0CWTSM8Y7/R36AZ7JAQIQ6US</t>
+  </si>
+  <si>
+    <t>Dipesh Ingle</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 29 June 2024</t>
+  </si>
+  <si>
+    <t>Best perfumes.</t>
+  </si>
+  <si>
+    <t>R3HWHG592GUB97</t>
+  </si>
+  <si>
+    <t>advanced and precious trimming.</t>
+  </si>
+  <si>
+    <t>review/B0CW9944RQ/R3LJA3VDKRBHPI</t>
+  </si>
+  <si>
+    <t>Kanta Tharani</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 18 May 2024</t>
+  </si>
+  <si>
+    <t>Worth it..👍</t>
+  </si>
+  <si>
+    <t>R2E07AN1YV0SCY</t>
+  </si>
+  <si>
+    <t>Neeraj Agarwal</t>
+  </si>
+  <si>
+    <t>Top notch hairdryer</t>
+  </si>
+  <si>
+    <t>RUEQFQKZ26QNO</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 24 June 2024</t>
+  </si>
+  <si>
+    <t>Beardo Scalp Massager for Hair with Removable Handle | Soft Silicone Bristles for Dry Massage, Oil &amp; Shampoo</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>review/B0CW3BTHN8/R1KSZNWEWHE718</t>
+  </si>
+  <si>
+    <t>kushal</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 13 June 2024</t>
+  </si>
+  <si>
+    <t>Quality and fragrance</t>
+  </si>
+  <si>
+    <t>R10QE64JEQIKI9</t>
+  </si>
+  <si>
+    <t>Mona Sahu</t>
+  </si>
+  <si>
+    <t>Very Long lasting and beautiful smell</t>
+  </si>
+  <si>
+    <t>tps://www.amazon.in/gp/f.html?C=ETSVHW0T0C3M&amp;K=21CFHO3HOSIAX&amp;M=urn:rtn:msg:20240704135745b0fe14ad00034f5699f2496efc40p0eu&amp;R=24WF4Y1HR6CFO&amp;T=C&amp;U=https%3A%2F%2Fwww.amazon.in%2Freview%2FRU6E688QAD3KJ%2Fref%3Dpe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv&amp;H=SLMVO2SSIXEVTCEGHISGPV8MXVCA&amp;ref_=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>Swapnil parab</t>
+  </si>
+  <si>
+    <t>Best compact trimmer with great result</t>
+  </si>
+  <si>
+    <t>R1G7WJ7TS4KS20</t>
+  </si>
+  <si>
+    <t>Smoky and manly fragrance. Loved it.</t>
+  </si>
+  <si>
+    <t>R2HVQJGKNOD7JA</t>
+  </si>
+  <si>
+    <t>Rachit</t>
+  </si>
+  <si>
+    <t>Nice Fragrances in Economic Packaging</t>
+  </si>
+  <si>
+    <t>2DVR5I0UQ99JR</t>
+  </si>
+  <si>
+    <t>Siddharth Singhania</t>
+  </si>
+  <si>
+    <t>Beardo Derma Roller For Hair Growth 0.5 mm with 540 Chromium Needles | Reverse Signs of Aging | Dermaroller Increases Collagen production Repairs Damaged Hair | For Hair Fall, Hair Thickening</t>
+  </si>
+  <si>
+    <t>Useful Product</t>
+  </si>
+  <si>
+    <t>8OXQUC2Y2XMU</t>
+  </si>
+  <si>
+    <t>Nice Product</t>
+  </si>
+  <si>
+    <t>review/B0CW9944RQ/R1C28ACYXF6Q07</t>
+  </si>
+  <si>
+    <t>Dinesh swami</t>
+  </si>
+  <si>
+    <t>Nice Trimmer</t>
+  </si>
+  <si>
+    <t>R25NSSP6Q7F1AS</t>
+  </si>
+  <si>
+    <t>Vivek Pathak</t>
+  </si>
+  <si>
+    <t>Build quality is awesome...</t>
+  </si>
+  <si>
+    <t>R148R5YU6LNLEL</t>
+  </si>
+  <si>
+    <t>Shubham Aggarwal</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 7 July 2024</t>
+  </si>
+  <si>
+    <t>Great packaging</t>
+  </si>
+  <si>
+    <t>tps://www.amazon.in/gp/f.html?C=ETSVHW0T0C3M&amp;K=1ER7NTAE7D6ZN&amp;M=urn:rtn:msg:202407090557292eea0ed5e6e14c6dac541466cf50p0eu&amp;R=13AC7NX35SJQ1&amp;T=C&amp;U=https%3A%2F%2Fwww.amazon.in%2Freview%2FR2TZYUSJA6R365%2Fref%3Dpe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv&amp;H=A7YGABBALJSVY5EQWAMNAJ5TWJ0A&amp;ref_=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>morning_moon6</t>
+  </si>
+  <si>
+    <t>Go for it guys</t>
+  </si>
+  <si>
+    <t>R1KDINVU51IKZZ</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 6 July 2024</t>
+  </si>
+  <si>
+    <t>Good package for gifting.</t>
+  </si>
+  <si>
+    <t>EKRQ9VU2RRQ</t>
+  </si>
+  <si>
+    <t>Thakkar meet</t>
+  </si>
+  <si>
+    <t>Perfume</t>
+  </si>
+  <si>
+    <t>R3ARK78V5GAHLZ</t>
+  </si>
+  <si>
+    <t>ayush</t>
+  </si>
+  <si>
+    <t>RAW7FH3JUTXRE</t>
+  </si>
+  <si>
+    <t>Aditi Mangla</t>
+  </si>
+  <si>
+    <t>great fragrances</t>
+  </si>
+  <si>
+    <t>R5X6IIT970XDG</t>
+  </si>
+  <si>
+    <t>woody musky fragrance</t>
+  </si>
+  <si>
+    <t>review/B0D1TZW8TL/R1FGEZCE4YU5CP</t>
+  </si>
+  <si>
+    <t>Rashmi Kapoor</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 5 July 2024</t>
+  </si>
+  <si>
+    <t>Excellent choice for gifting</t>
+  </si>
+  <si>
+    <t>review/B0CWH2XN6T/R2MG0PVLPTCUUM</t>
+  </si>
+  <si>
+    <t>Sneha Manocha</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 11 July 2024</t>
+  </si>
+  <si>
+    <t>Scalp massager</t>
+  </si>
+  <si>
+    <t>28484MF0U8JVI</t>
+  </si>
+  <si>
+    <t>Yash Shah</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 9 July 2024</t>
+  </si>
+  <si>
+    <t>Nice fragrance worth buying</t>
+  </si>
+  <si>
+    <t>review/B0CS6RSJTB/R2J6EVZIYDGE0O</t>
+  </si>
+  <si>
+    <t>Kanchan</t>
+  </si>
+  <si>
+    <t>Amazing fragrance</t>
+  </si>
+  <si>
+    <t>review/B0CS6R5NFH/R2ZSS4T0PI0QV</t>
+  </si>
+  <si>
+    <t>Perfect to gift</t>
+  </si>
+  <si>
+    <t>review/B0B7WN3GFF/R2EDTG2GAVFGR4</t>
+  </si>
+  <si>
+    <t>Neelu</t>
+  </si>
+  <si>
+    <t>review/B0CWTSM8Y7/R6W80KC827HRX</t>
+  </si>
+  <si>
+    <t>Kunal mahajan</t>
+  </si>
+  <si>
+    <t>review/B0CWTX999Q/RB922I8DXZNOQ</t>
+  </si>
+  <si>
+    <t>review/B0CRVJS1XG/RFEJ91ODYLQLG</t>
+  </si>
+  <si>
+    <t>Ever bst product</t>
+  </si>
+  <si>
+    <t>1VS598RNNALKE/</t>
+  </si>
+  <si>
+    <t>malhaar</t>
+  </si>
+  <si>
+    <t>Beardo Ball Safe Trimmer for Men - Private Part Shaving, Beard, Pubic Hair Groomer with Flexi Ball &amp; Comfort Curve, Waterproof, Cordless, Rechargeable - 0 Nicks or Cuts, Powerful Motor, Fast Charging, 110-Min Runtime</t>
+  </si>
+  <si>
+    <t>Good purchase</t>
+  </si>
+  <si>
+    <t>R38GBXXR0LYH0G</t>
+  </si>
+  <si>
+    <t>Nice quality perfumes.</t>
+  </si>
+  <si>
+    <t>R1G30YEMTQPHKC</t>
+  </si>
+  <si>
+    <t>Jani Borthakur</t>
+  </si>
+  <si>
+    <t>Amazing 😍</t>
+  </si>
+  <si>
+    <t>review/B0B7WN3GFF/R2VALB943PFOYU</t>
+  </si>
+  <si>
+    <t>Suraj Salunke</t>
+  </si>
+  <si>
+    <t>BEARDO MAX VOLUME</t>
+  </si>
+  <si>
+    <t>1GZ2RE1VBD3MH</t>
+  </si>
+  <si>
+    <t>Deepak Mishra</t>
+  </si>
+  <si>
+    <t>Easy and hygienic</t>
+  </si>
+  <si>
+    <t>review/B0CQYSDMK2/R237TR046Z4ART</t>
+  </si>
+  <si>
+    <t>Sumit</t>
+  </si>
+  <si>
+    <t>Must try it.</t>
+  </si>
+  <si>
+    <t>review/B0CWH2XN6T/R30B9HMZ3FA2D7</t>
+  </si>
+  <si>
+    <t>R1I70JWTDLG349</t>
+  </si>
+  <si>
+    <t>Very nice scalp massager</t>
+  </si>
+  <si>
+    <t>tps://www.amazon.in/gp/f.html?C=ETSVHW0T0C3M&amp;K=1ER7NTAE7D6ZN&amp;M=urn:rtn:msg:202407150557333baeddd223fa44099fee20bad4d0p0eu&amp;R=2BMDRGZV91J3C&amp;T=C&amp;U=https%3A%2F%2Fwww.amazon.in%2Freview%2FR1BUZ7X66TJSFV%2Fref%3Dpe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv&amp;H=JPOEERSA0PZNFAT0XXWCAXLKA3CA&amp;ref_=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>review/B0CS6R5NFH/R1FHY6LF804E4C</t>
+  </si>
+  <si>
+    <t>great combination for perfume lover</t>
+  </si>
+  <si>
+    <t>review/B0CWTX999Q/RXQ9NYY48AOF7</t>
+  </si>
+  <si>
+    <t>Manas Malakar</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 16 July 2024</t>
+  </si>
+  <si>
+    <t>Good quality</t>
+  </si>
+  <si>
+    <t>R17LZLBRBEYSET</t>
+  </si>
+  <si>
+    <t>pratham jain</t>
+  </si>
+  <si>
+    <t>Best for Gifting your special one's</t>
+  </si>
+  <si>
+    <t>review/B0CW9J2RCL/R3P6SQADZ5KBOJ</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>The name is justified (Tornado)</t>
+  </si>
+  <si>
+    <t>review/B0CS6R5NFH/R1JAH7MR9YJE4G</t>
+  </si>
+  <si>
+    <t>Priyanka sethia</t>
+  </si>
+  <si>
+    <t>Excellent product</t>
+  </si>
+  <si>
+    <t>R3NTA52MHMNKMA</t>
+  </si>
+  <si>
+    <t>Dharmil shah</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 17 July 2024</t>
+  </si>
+  <si>
+    <t>Effective against acne scars</t>
+  </si>
+  <si>
+    <t>review/B0CW9J2RCL/R3PISOZE4U4IDC</t>
+  </si>
+  <si>
+    <t>Nilesh Mahajan</t>
+  </si>
+  <si>
+    <t>The Best Hair Dryer I’ve Ever Used</t>
+  </si>
+  <si>
+    <t>66M2R96Y59UP</t>
+  </si>
+  <si>
+    <t>Himanshu</t>
+  </si>
+  <si>
+    <t>Very effective for hair massage and penetration</t>
+  </si>
+  <si>
+    <t>tps://www.amazon.in/gp/f.html?C=ETSVHW0T0C3M&amp;K=1GX2N5VXODP60&amp;M=urn:rtn:msg:202407062043393cfb91a7a20943818ff99c6a1880p0eu&amp;R=3JWXXQTMU6WRP&amp;T=C&amp;U=https%3A%2F%2Fwww.amazon.in%2Freview%2FR3KGI05IXS49V6%2Fref%3Dpe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv&amp;H=4QCKSKFCRIFNN4N6BUIERFXCMVMA&amp;ref_=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
+  </si>
+  <si>
+    <t>Rajat Mangla</t>
+  </si>
+  <si>
+    <t>Great fragrances</t>
+  </si>
+  <si>
+    <t>R1ABQ5FBZSITOV</t>
+  </si>
+  <si>
+    <t>MANMEET SINGH</t>
+  </si>
+  <si>
+    <t>Very nice product</t>
+  </si>
+  <si>
+    <t>R27RINJA3UDHYW</t>
+  </si>
+  <si>
+    <t>Beardo Sport Sunscreen Stick| Easy Reapplication | SPF 50 Pa+++ Broad Spectrum, UVA/UVB Rays Protection| Hyaluronic Acid &amp; Bamboo Extract For Hydration &amp; Reduces Dark Spots | No White Cast 20g</t>
+  </si>
+  <si>
+    <t>Small pack with great impact</t>
+  </si>
+  <si>
+    <t>R2N0IIKS007OYX</t>
+  </si>
+  <si>
+    <t>Mukesh Mehta</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 18 July 2024</t>
+  </si>
+  <si>
+    <t>Refreshing and long lasting</t>
+  </si>
+  <si>
+    <t>REC60734U4HNM</t>
+  </si>
+  <si>
+    <t>Gita Pandey</t>
+  </si>
+  <si>
+    <t>Very good perfume.</t>
+  </si>
+  <si>
+    <t>R34NRQX80Z0PYQ</t>
+  </si>
+  <si>
+    <t>Vijay</t>
+  </si>
+  <si>
+    <t>Reviewed in India on 15 July 2024</t>
+  </si>
+  <si>
+    <t>Awesome Hair dryer</t>
+  </si>
+  <si>
+    <t>RU7T2FA7B1VEP</t>
+  </si>
+  <si>
+    <t>Soft Scalp Massager</t>
+  </si>
+  <si>
+    <t>R99LSFK2L5Y70</t>
+  </si>
+  <si>
+    <t>Kalyani Dudhekar</t>
+  </si>
+  <si>
+    <t>Best perfume</t>
+  </si>
+  <si>
+    <t>R19D6OOEEKEXFJ</t>
+  </si>
+  <si>
+    <t>Gaurav kumar</t>
   </si>
 </sst>
 </file>
@@ -13693,21 +15071,19 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0563C1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13729,12 +15105,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13844,21 +15214,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -13871,17 +15238,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -14210,10 +15567,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14223,8 +15580,8 @@
     <col min="3" max="3" width="26.77734375" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="30.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="53.21875" customWidth="1"/>
     <col min="9" max="9" width="41.33203125" customWidth="1"/>
     <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
@@ -14265,397 +15622,4707 @@
         <v>4468</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4470</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>4521</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>4538</v>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4609</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4610</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4612</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4613</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4471</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4616</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4617</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4618</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4619</v>
+      </c>
+      <c r="J3">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4472</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4620</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4616</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4617</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4621</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4622</v>
+      </c>
+      <c r="J4">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4614</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4539</v>
+        <v>4473</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4623</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4624</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4625</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4626</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4627</v>
+      </c>
+      <c r="J5">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4628</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4471</v>
+        <v>4474</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4472</v>
+        <v>4475</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4629</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4630</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4631</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4632</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4633</v>
+      </c>
+      <c r="J7">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4628</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>4473</v>
+        <v>4476</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4634</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4635</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4636</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4637</v>
+      </c>
+      <c r="J8">
+        <v>140</v>
+      </c>
+      <c r="K8" t="s">
+        <v>4628</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>4474</v>
+        <v>4477</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4638</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4639</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4640</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4641</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
+        <v>4614</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>4475</v>
+        <v>4478</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4642</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4643</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4644</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4645</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4646</v>
+      </c>
+      <c r="J10">
+        <v>61</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4628</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>4476</v>
+        <v>4479</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4647</v>
+      </c>
+      <c r="D11" t="s">
+        <v>787</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4635</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4636</v>
+      </c>
+      <c r="I11" t="s">
+        <v>4648</v>
+      </c>
+      <c r="J11">
+        <v>51</v>
+      </c>
+      <c r="K11" t="s">
+        <v>4628</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>4477</v>
+        <v>4480</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4649</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4650</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4651</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4652</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4653</v>
+      </c>
+      <c r="J12">
+        <v>42</v>
+      </c>
+      <c r="K12" t="s">
+        <v>4614</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>4478</v>
+        <v>4481</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>4479</v>
+        <v>4482</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4655</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4657</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4658</v>
+      </c>
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14">
+        <v>35</v>
+      </c>
+      <c r="K14" t="s">
+        <v>4614</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>4480</v>
+        <v>4483</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4659</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4660</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4661</v>
+      </c>
+      <c r="I15" t="s">
+        <v>4662</v>
+      </c>
+      <c r="J15">
+        <v>43</v>
+      </c>
+      <c r="K15" t="s">
+        <v>4614</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>4481</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4484</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4663</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4664</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>4665</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4666</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4667</v>
+      </c>
+      <c r="J16">
+        <v>19</v>
+      </c>
+      <c r="K16" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>4485</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>4486</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>4487</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4668</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>4660</v>
+      </c>
+      <c r="H19" t="s">
+        <v>4669</v>
+      </c>
+      <c r="I19" t="s">
+        <v>252</v>
+      </c>
+      <c r="J19">
+        <v>48</v>
+      </c>
+      <c r="K19" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>4488</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4670</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>4671</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4672</v>
+      </c>
+      <c r="I20" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20">
+        <v>34</v>
+      </c>
+      <c r="K20" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>4489</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4673</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>4671</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4672</v>
+      </c>
+      <c r="I21" t="s">
+        <v>252</v>
+      </c>
+      <c r="J21">
+        <v>25</v>
+      </c>
+      <c r="K21" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>4490</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4674</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4675</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4676</v>
+      </c>
+      <c r="I22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22">
+        <v>97</v>
+      </c>
+      <c r="K22" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>4491</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4677</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>4678</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4679</v>
+      </c>
+      <c r="I23" t="s">
+        <v>252</v>
+      </c>
+      <c r="J23">
+        <v>29</v>
+      </c>
+      <c r="K23" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>4492</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4680</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>4681</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4672</v>
+      </c>
+      <c r="I24" t="s">
+        <v>4682</v>
+      </c>
+      <c r="J24">
+        <v>39</v>
+      </c>
+      <c r="K24" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>4493</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4683</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4684</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>4685</v>
+      </c>
+      <c r="H25" t="s">
+        <v>4686</v>
+      </c>
+      <c r="I25" t="s">
+        <v>4687</v>
+      </c>
+      <c r="J25">
+        <v>47</v>
+      </c>
+      <c r="K25" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>4494</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4688</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4689</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>4690</v>
+      </c>
+      <c r="H26" t="s">
+        <v>4691</v>
+      </c>
+      <c r="I26" t="s">
+        <v>4692</v>
+      </c>
+      <c r="J26">
+        <v>39</v>
+      </c>
+      <c r="K26" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>4495</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4693</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>4694</v>
+      </c>
+      <c r="H27" t="s">
+        <v>4695</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27">
+        <v>42</v>
+      </c>
+      <c r="K27" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4693</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>4694</v>
+      </c>
+      <c r="H28" t="s">
+        <v>4696</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28">
+        <v>54</v>
+      </c>
+      <c r="K28" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>4497</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4693</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>4694</v>
+      </c>
+      <c r="H29" t="s">
+        <v>4697</v>
+      </c>
+      <c r="I29" t="s">
+        <v>252</v>
+      </c>
+      <c r="J29">
+        <v>59</v>
+      </c>
+      <c r="K29" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>4498</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4693</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>4694</v>
+      </c>
+      <c r="H30" t="s">
+        <v>4698</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30">
+        <v>36</v>
+      </c>
+      <c r="K30" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>4499</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4699</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4700</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>4625</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4686</v>
+      </c>
+      <c r="I31" t="s">
+        <v>4701</v>
+      </c>
+      <c r="J31">
+        <v>59</v>
+      </c>
+      <c r="K31" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>4500</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4702</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>4703</v>
+      </c>
+      <c r="H32" t="s">
+        <v>4669</v>
+      </c>
+      <c r="I32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32">
+        <v>40</v>
+      </c>
+      <c r="K32" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>4501</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4668</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>4703</v>
+      </c>
+      <c r="H33" t="s">
+        <v>4658</v>
+      </c>
+      <c r="I33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33">
+        <v>62</v>
+      </c>
+      <c r="K33" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>4502</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4668</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>4704</v>
+      </c>
+      <c r="H34" t="s">
+        <v>4705</v>
+      </c>
+      <c r="I34" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34">
+        <v>61</v>
+      </c>
+      <c r="K34" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>4503</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4706</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4707</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>4708</v>
+      </c>
+      <c r="H35" t="s">
+        <v>4709</v>
+      </c>
+      <c r="I35" t="s">
+        <v>4710</v>
+      </c>
+      <c r="J35">
+        <v>42</v>
+      </c>
+      <c r="K35" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>4504</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4711</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>4712</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4713</v>
+      </c>
+      <c r="I36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36">
+        <v>11</v>
+      </c>
+      <c r="K36" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>4505</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4711</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>4712</v>
+      </c>
+      <c r="H37" t="s">
+        <v>4698</v>
+      </c>
+      <c r="I37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37">
+        <v>12</v>
+      </c>
+      <c r="K37" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>4506</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4711</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>4712</v>
+      </c>
+      <c r="H38" t="s">
+        <v>4669</v>
+      </c>
+      <c r="I38" t="s">
+        <v>44</v>
+      </c>
+      <c r="J38">
+        <v>20</v>
+      </c>
+      <c r="K38" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>4507</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4711</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>4712</v>
+      </c>
+      <c r="H39" t="s">
+        <v>4679</v>
+      </c>
+      <c r="I39" t="s">
+        <v>252</v>
+      </c>
+      <c r="J39">
+        <v>24</v>
+      </c>
+      <c r="K39" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>4508</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>4509</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4714</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4715</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>4708</v>
+      </c>
+      <c r="H41" t="s">
+        <v>4716</v>
+      </c>
+      <c r="I41" t="s">
+        <v>4717</v>
+      </c>
+      <c r="J41">
+        <v>60</v>
+      </c>
+      <c r="K41" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>4510</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4718</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4715</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>4708</v>
+      </c>
+      <c r="H42" t="s">
+        <v>4719</v>
+      </c>
+      <c r="I42" t="s">
+        <v>4720</v>
+      </c>
+      <c r="J42">
+        <v>68</v>
+      </c>
+      <c r="K42" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>4511</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4721</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4715</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>4708</v>
+      </c>
+      <c r="H43" t="s">
+        <v>4722</v>
+      </c>
+      <c r="I43" t="s">
+        <v>4723</v>
+      </c>
+      <c r="J43">
+        <v>84</v>
+      </c>
+      <c r="K43" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>4512</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4724</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4725</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>4708</v>
+      </c>
+      <c r="H44" t="s">
+        <v>4726</v>
+      </c>
+      <c r="I44" t="s">
+        <v>4727</v>
+      </c>
+      <c r="J44">
+        <v>66</v>
+      </c>
+      <c r="K44" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>4513</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>4514</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4728</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>4729</v>
+      </c>
+      <c r="H46" t="s">
+        <v>4730</v>
+      </c>
+      <c r="I46" t="s">
+        <v>60</v>
+      </c>
+      <c r="J46">
+        <v>51</v>
+      </c>
+      <c r="K46" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>4515</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4668</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>4703</v>
+      </c>
+      <c r="H47" t="s">
+        <v>4679</v>
+      </c>
+      <c r="I47" t="s">
+        <v>67</v>
+      </c>
+      <c r="J47">
+        <v>49</v>
+      </c>
+      <c r="K47" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>4516</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4731</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4732</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>4733</v>
+      </c>
+      <c r="H48" t="s">
+        <v>4734</v>
+      </c>
+      <c r="I48" t="s">
+        <v>4735</v>
+      </c>
+      <c r="J48">
+        <v>54</v>
+      </c>
+      <c r="K48" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>4517</v>
+      </c>
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4728</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>4736</v>
+      </c>
+      <c r="H49" t="s">
+        <v>4698</v>
+      </c>
+      <c r="I49" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49">
+        <v>56</v>
+      </c>
+      <c r="K49" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>4518</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4737</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>4736</v>
+      </c>
+      <c r="H50" t="s">
+        <v>4698</v>
+      </c>
+      <c r="I50" t="s">
+        <v>44</v>
+      </c>
+      <c r="J50">
+        <v>52</v>
+      </c>
+      <c r="K50" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>4519</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="B51" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>4520</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="B52" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>4521</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4738</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>4739</v>
+      </c>
+      <c r="H53" t="s">
+        <v>4730</v>
+      </c>
+      <c r="I53" t="s">
+        <v>252</v>
+      </c>
+      <c r="J53">
+        <v>31</v>
+      </c>
+      <c r="K53" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>4522</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>4482</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>4483</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>4484</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>4485</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>4486</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>4487</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>4488</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>4489</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>4490</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>4491</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>4492</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54" t="s">
+        <v>4660</v>
+      </c>
+      <c r="H54" t="s">
+        <v>4740</v>
+      </c>
+      <c r="I54" t="s">
+        <v>237</v>
+      </c>
+      <c r="J54">
+        <v>51</v>
+      </c>
+      <c r="K54" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>4523</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4741</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55" t="s">
+        <v>4742</v>
+      </c>
+      <c r="H55" t="s">
+        <v>4661</v>
+      </c>
+      <c r="I55" t="s">
+        <v>44</v>
+      </c>
+      <c r="J55">
+        <v>52</v>
+      </c>
+      <c r="K55" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>4524</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4743</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56" t="s">
+        <v>4678</v>
+      </c>
+      <c r="H56" t="s">
+        <v>4705</v>
+      </c>
+      <c r="I56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J56">
+        <v>23</v>
+      </c>
+      <c r="K56" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>4525</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4744</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4659</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>4745</v>
+      </c>
+      <c r="H57" t="s">
+        <v>4746</v>
+      </c>
+      <c r="I57" t="s">
+        <v>4747</v>
+      </c>
+      <c r="J57">
+        <v>45</v>
+      </c>
+      <c r="K57" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>4526</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4748</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4749</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>4644</v>
+      </c>
+      <c r="H58" t="s">
+        <v>4686</v>
+      </c>
+      <c r="I58" t="s">
+        <v>4750</v>
+      </c>
+      <c r="J58">
+        <v>20</v>
+      </c>
+      <c r="K58" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>4527</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4751</v>
+      </c>
+      <c r="E59" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>4694</v>
+      </c>
+      <c r="H59" t="s">
+        <v>4669</v>
+      </c>
+      <c r="I59" t="s">
+        <v>60</v>
+      </c>
+      <c r="J59">
+        <v>28</v>
+      </c>
+      <c r="K59" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>4528</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4752</v>
+      </c>
+      <c r="E60" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>4753</v>
+      </c>
+      <c r="H60" t="s">
+        <v>4669</v>
+      </c>
+      <c r="I60" t="s">
+        <v>70</v>
+      </c>
+      <c r="J60">
+        <v>49</v>
+      </c>
+      <c r="K60" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>4529</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4754</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>4704</v>
+      </c>
+      <c r="H61" t="s">
+        <v>4679</v>
+      </c>
+      <c r="I61" t="s">
+        <v>139</v>
+      </c>
+      <c r="J61">
+        <v>59</v>
+      </c>
+      <c r="K61" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
         <v>4530</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4755</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4756</v>
+      </c>
+      <c r="E62" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62" t="s">
+        <v>4612</v>
+      </c>
+      <c r="H62" t="s">
+        <v>4757</v>
+      </c>
+      <c r="I62" t="s">
+        <v>4758</v>
+      </c>
+      <c r="J62">
+        <v>29</v>
+      </c>
+      <c r="K62" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
         <v>4531</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+      <c r="B63" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
         <v>4532</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="B64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4759</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4760</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64" t="s">
+        <v>4761</v>
+      </c>
+      <c r="H64" t="s">
+        <v>4762</v>
+      </c>
+      <c r="I64" t="s">
+        <v>4763</v>
+      </c>
+      <c r="J64">
+        <v>15</v>
+      </c>
+      <c r="K64" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
         <v>4533</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="B65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4764</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4765</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>4761</v>
+      </c>
+      <c r="H65" t="s">
+        <v>4766</v>
+      </c>
+      <c r="I65" t="s">
+        <v>4767</v>
+      </c>
+      <c r="J65">
+        <v>34</v>
+      </c>
+      <c r="K65" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
         <v>4534</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4768</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4769</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66" t="s">
+        <v>4770</v>
+      </c>
+      <c r="H66" t="s">
+        <v>4771</v>
+      </c>
+      <c r="I66" t="s">
+        <v>4772</v>
+      </c>
+      <c r="J66">
+        <v>29</v>
+      </c>
+      <c r="K66" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
         <v>4535</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+      <c r="B67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4773</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4774</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67" t="s">
+        <v>4612</v>
+      </c>
+      <c r="H67" t="s">
+        <v>4775</v>
+      </c>
+      <c r="I67" t="s">
+        <v>4776</v>
+      </c>
+      <c r="J67">
+        <v>22</v>
+      </c>
+      <c r="K67" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
         <v>4536</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+      <c r="B68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4777</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4778</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+      <c r="G68" t="s">
+        <v>4761</v>
+      </c>
+      <c r="H68" t="s">
+        <v>4779</v>
+      </c>
+      <c r="I68" t="s">
+        <v>4780</v>
+      </c>
+      <c r="J68">
+        <v>13</v>
+      </c>
+      <c r="K68" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
         <v>4537</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>4493</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>4494</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>4495</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>4496</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>4497</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>4498</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
-        <v>4499</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>4501</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
-        <v>4502</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>4503</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
-        <v>4504</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>4505</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>4506</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
-        <v>4507</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
-        <v>4508</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
-        <v>4509</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
-        <v>4510</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
-        <v>4511</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
-        <v>4512</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
-        <v>4513</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
-        <v>4514</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
-        <v>4515</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
-        <v>4516</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
-        <v>4517</v>
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4781</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4782</v>
+      </c>
+      <c r="E69" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+      <c r="G69" t="s">
+        <v>4783</v>
+      </c>
+      <c r="H69" t="s">
+        <v>4784</v>
+      </c>
+      <c r="I69" t="s">
+        <v>4785</v>
+      </c>
+      <c r="J69">
+        <v>11</v>
+      </c>
+      <c r="K69" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>4538</v>
+      </c>
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4786</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4787</v>
+      </c>
+      <c r="E70" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+      <c r="G70" t="s">
+        <v>4761</v>
+      </c>
+      <c r="H70" t="s">
+        <v>4788</v>
+      </c>
+      <c r="I70" t="s">
+        <v>4789</v>
+      </c>
+      <c r="J70">
+        <v>37</v>
+      </c>
+      <c r="K70" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>4539</v>
+      </c>
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4790</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4791</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+      <c r="G71" t="s">
+        <v>4792</v>
+      </c>
+      <c r="H71" t="s">
+        <v>4766</v>
+      </c>
+      <c r="I71" t="s">
+        <v>4793</v>
+      </c>
+      <c r="J71">
+        <v>100</v>
+      </c>
+      <c r="K71" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>4540</v>
+      </c>
+      <c r="B72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4794</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4795</v>
+      </c>
+      <c r="E72" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+      <c r="G72" t="s">
+        <v>4783</v>
+      </c>
+      <c r="H72" t="s">
+        <v>4775</v>
+      </c>
+      <c r="I72" t="s">
+        <v>4796</v>
+      </c>
+      <c r="J72">
+        <v>35</v>
+      </c>
+      <c r="K72" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>4541</v>
+      </c>
+      <c r="B73" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4797</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4798</v>
+      </c>
+      <c r="E73" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F73">
+        <v>5</v>
+      </c>
+      <c r="G73" t="s">
+        <v>4761</v>
+      </c>
+      <c r="H73" t="s">
+        <v>4799</v>
+      </c>
+      <c r="I73" t="s">
+        <v>4800</v>
+      </c>
+      <c r="J73">
+        <v>44</v>
+      </c>
+      <c r="K73" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>4542</v>
+      </c>
+      <c r="B74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4801</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4798</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74" t="s">
+        <v>4761</v>
+      </c>
+      <c r="H74" t="s">
+        <v>4802</v>
+      </c>
+      <c r="I74" t="s">
+        <v>4803</v>
+      </c>
+      <c r="J74">
+        <v>42</v>
+      </c>
+      <c r="K74" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>4543</v>
+      </c>
+      <c r="B75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4805</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F75">
+        <v>5</v>
+      </c>
+      <c r="G75" t="s">
+        <v>4761</v>
+      </c>
+      <c r="H75" t="s">
+        <v>4806</v>
+      </c>
+      <c r="I75" t="s">
+        <v>4807</v>
+      </c>
+      <c r="J75">
+        <v>99</v>
+      </c>
+      <c r="K75" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>4544</v>
+      </c>
+      <c r="B76" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4808</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4765</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+      <c r="G76" t="s">
+        <v>4809</v>
+      </c>
+      <c r="H76" t="s">
+        <v>4810</v>
+      </c>
+      <c r="I76" t="s">
+        <v>4811</v>
+      </c>
+      <c r="J76">
+        <v>30</v>
+      </c>
+      <c r="K76" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
+        <v>4545</v>
+      </c>
+      <c r="B77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4812</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4756</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+      <c r="G77" t="s">
+        <v>4813</v>
+      </c>
+      <c r="H77" t="s">
+        <v>4814</v>
+      </c>
+      <c r="I77" t="s">
+        <v>252</v>
+      </c>
+      <c r="J77">
+        <v>34</v>
+      </c>
+      <c r="K77" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>4815</v>
+      </c>
+      <c r="B78" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4816</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4817</v>
+      </c>
+      <c r="E78" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+      <c r="G78" t="s">
+        <v>4818</v>
+      </c>
+      <c r="H78" t="s">
+        <v>4810</v>
+      </c>
+      <c r="I78" t="s">
+        <v>4819</v>
+      </c>
+      <c r="J78">
+        <v>26</v>
+      </c>
+      <c r="K78" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="s">
+        <v>4546</v>
+      </c>
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4820</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4821</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F79">
+        <v>5</v>
+      </c>
+      <c r="G79" t="s">
+        <v>4818</v>
+      </c>
+      <c r="H79" t="s">
+        <v>4806</v>
+      </c>
+      <c r="I79" t="s">
+        <v>4822</v>
+      </c>
+      <c r="J79">
+        <v>64</v>
+      </c>
+      <c r="K79" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="7" t="s">
+        <v>4547</v>
+      </c>
+      <c r="B80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4823</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4824</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F80">
+        <v>5</v>
+      </c>
+      <c r="G80" t="s">
+        <v>4818</v>
+      </c>
+      <c r="H80" t="s">
+        <v>4799</v>
+      </c>
+      <c r="I80" t="s">
+        <v>4825</v>
+      </c>
+      <c r="J80">
+        <v>47</v>
+      </c>
+      <c r="K80" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>4548</v>
+      </c>
+      <c r="B81" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4826</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4827</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F81">
+        <v>5</v>
+      </c>
+      <c r="G81" t="s">
+        <v>4828</v>
+      </c>
+      <c r="H81" t="s">
+        <v>4771</v>
+      </c>
+      <c r="I81" t="s">
+        <v>4829</v>
+      </c>
+      <c r="J81">
+        <v>17</v>
+      </c>
+      <c r="K81" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="7" t="s">
+        <v>4549</v>
+      </c>
+      <c r="B82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4830</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4760</v>
+      </c>
+      <c r="E82" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F82">
+        <v>5</v>
+      </c>
+      <c r="G82" t="s">
+        <v>4831</v>
+      </c>
+      <c r="H82" t="s">
+        <v>4832</v>
+      </c>
+      <c r="I82" t="s">
+        <v>4763</v>
+      </c>
+      <c r="J82">
+        <v>18</v>
+      </c>
+      <c r="K82" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>4550</v>
+      </c>
+      <c r="B83" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4833</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4834</v>
+      </c>
+      <c r="E83" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+      <c r="G83" t="s">
+        <v>4792</v>
+      </c>
+      <c r="H83" t="s">
+        <v>4762</v>
+      </c>
+      <c r="I83" t="s">
+        <v>4835</v>
+      </c>
+      <c r="J83">
+        <v>43</v>
+      </c>
+      <c r="K83" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="7" t="s">
+        <v>4551</v>
+      </c>
+      <c r="B84" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4836</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4805</v>
+      </c>
+      <c r="E84" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F84">
+        <v>5</v>
+      </c>
+      <c r="G84" t="s">
+        <v>4809</v>
+      </c>
+      <c r="H84" t="s">
+        <v>4810</v>
+      </c>
+      <c r="I84" t="s">
+        <v>4837</v>
+      </c>
+      <c r="J84">
+        <v>43</v>
+      </c>
+      <c r="K84" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
+        <v>4552</v>
+      </c>
+      <c r="B85" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4838</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4839</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F85">
+        <v>5</v>
+      </c>
+      <c r="G85" t="s">
+        <v>4840</v>
+      </c>
+      <c r="H85" t="s">
+        <v>4771</v>
+      </c>
+      <c r="I85" t="s">
+        <v>4841</v>
+      </c>
+      <c r="J85">
+        <v>32</v>
+      </c>
+      <c r="K85" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="s">
+        <v>4553</v>
+      </c>
+      <c r="B86" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4842</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4610</v>
+      </c>
+      <c r="E86" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F86">
+        <v>5</v>
+      </c>
+      <c r="G86" t="s">
+        <v>4831</v>
+      </c>
+      <c r="H86" t="s">
+        <v>4766</v>
+      </c>
+      <c r="I86" t="s">
+        <v>4843</v>
+      </c>
+      <c r="J86">
+        <v>105</v>
+      </c>
+      <c r="K86" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="s">
+        <v>4554</v>
+      </c>
+      <c r="B87" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4844</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4845</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F87">
+        <v>5</v>
+      </c>
+      <c r="G87" t="s">
+        <v>4846</v>
+      </c>
+      <c r="H87" t="s">
+        <v>4766</v>
+      </c>
+      <c r="I87" t="s">
+        <v>4847</v>
+      </c>
+      <c r="J87">
+        <v>44</v>
+      </c>
+      <c r="K87" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="7" t="s">
+        <v>4555</v>
+      </c>
+      <c r="B88" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4848</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4849</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="G88" t="s">
+        <v>4818</v>
+      </c>
+      <c r="H88" t="s">
+        <v>4806</v>
+      </c>
+      <c r="I88" t="s">
+        <v>4850</v>
+      </c>
+      <c r="J88">
+        <v>30</v>
+      </c>
+      <c r="K88" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="7" t="s">
+        <v>4556</v>
+      </c>
+      <c r="B89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4851</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4849</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F89">
+        <v>5</v>
+      </c>
+      <c r="G89" t="s">
+        <v>4852</v>
+      </c>
+      <c r="H89" t="s">
+        <v>4853</v>
+      </c>
+      <c r="I89" t="s">
+        <v>4854</v>
+      </c>
+      <c r="J89">
+        <v>34</v>
+      </c>
+      <c r="K89" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="7" t="s">
+        <v>4557</v>
+      </c>
+      <c r="B90" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4855</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4856</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+      <c r="G90" t="s">
+        <v>4857</v>
+      </c>
+      <c r="H90" t="s">
+        <v>4779</v>
+      </c>
+      <c r="I90" t="s">
+        <v>4858</v>
+      </c>
+      <c r="J90">
+        <v>26</v>
+      </c>
+      <c r="K90" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="7" t="s">
+        <v>4558</v>
+      </c>
+      <c r="B91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4859</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4860</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F91">
+        <v>5</v>
+      </c>
+      <c r="G91" t="s">
+        <v>4625</v>
+      </c>
+      <c r="H91" t="s">
+        <v>4775</v>
+      </c>
+      <c r="I91" t="s">
+        <v>4861</v>
+      </c>
+      <c r="J91">
+        <v>61</v>
+      </c>
+      <c r="K91" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="7" t="s">
+        <v>4559</v>
+      </c>
+      <c r="B92" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4862</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4863</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+      <c r="G92" t="s">
+        <v>4631</v>
+      </c>
+      <c r="H92" t="s">
+        <v>4799</v>
+      </c>
+      <c r="I92" t="s">
+        <v>4864</v>
+      </c>
+      <c r="J92">
+        <v>46</v>
+      </c>
+      <c r="K92" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="7" t="s">
+        <v>4560</v>
+      </c>
+      <c r="B93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4865</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4630</v>
+      </c>
+      <c r="E93" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F93">
+        <v>5</v>
+      </c>
+      <c r="G93" t="s">
+        <v>4631</v>
+      </c>
+      <c r="H93" t="s">
+        <v>4771</v>
+      </c>
+      <c r="I93" t="s">
+        <v>4866</v>
+      </c>
+      <c r="J93">
+        <v>35</v>
+      </c>
+      <c r="K93" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
+        <v>4561</v>
+      </c>
+      <c r="B94" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4867</v>
+      </c>
+      <c r="D94" t="s">
+        <v>4868</v>
+      </c>
+      <c r="E94" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F94">
+        <v>5</v>
+      </c>
+      <c r="G94" t="s">
+        <v>4617</v>
+      </c>
+      <c r="H94" t="s">
+        <v>4832</v>
+      </c>
+      <c r="I94" t="s">
+        <v>4869</v>
+      </c>
+      <c r="J94">
+        <v>65</v>
+      </c>
+      <c r="K94" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="7" t="s">
+        <v>4562</v>
+      </c>
+      <c r="B95" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4870</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4871</v>
+      </c>
+      <c r="E95" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F95">
+        <v>5</v>
+      </c>
+      <c r="G95" t="s">
+        <v>4852</v>
+      </c>
+      <c r="H95" t="s">
+        <v>4872</v>
+      </c>
+      <c r="I95" t="s">
+        <v>4873</v>
+      </c>
+      <c r="J95">
+        <v>56</v>
+      </c>
+      <c r="K95" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="7" t="s">
+        <v>4563</v>
+      </c>
+      <c r="B96" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4874</v>
+      </c>
+      <c r="D96" t="s">
+        <v>4871</v>
+      </c>
+      <c r="E96" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F96">
+        <v>5</v>
+      </c>
+      <c r="G96" t="s">
+        <v>4852</v>
+      </c>
+      <c r="H96" t="s">
+        <v>4766</v>
+      </c>
+      <c r="I96" t="s">
+        <v>4875</v>
+      </c>
+      <c r="J96">
+        <v>52</v>
+      </c>
+      <c r="K96" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>4564</v>
+      </c>
+      <c r="B97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4876</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E97" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F97">
+        <v>5</v>
+      </c>
+      <c r="G97" t="s">
+        <v>4852</v>
+      </c>
+      <c r="H97" t="s">
+        <v>4766</v>
+      </c>
+      <c r="I97" t="s">
+        <v>4878</v>
+      </c>
+      <c r="J97">
+        <v>80</v>
+      </c>
+      <c r="K97" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="7" t="s">
+        <v>4565</v>
+      </c>
+      <c r="B98" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4879</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4880</v>
+      </c>
+      <c r="E98" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F98">
+        <v>5</v>
+      </c>
+      <c r="G98" t="s">
+        <v>4831</v>
+      </c>
+      <c r="H98" t="s">
+        <v>4872</v>
+      </c>
+      <c r="I98" t="s">
+        <v>4881</v>
+      </c>
+      <c r="J98">
+        <v>17</v>
+      </c>
+      <c r="K98" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>4566</v>
+      </c>
+      <c r="B99" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4882</v>
+      </c>
+      <c r="D99" t="s">
+        <v>4883</v>
+      </c>
+      <c r="E99" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F99">
+        <v>5</v>
+      </c>
+      <c r="G99" t="s">
+        <v>4884</v>
+      </c>
+      <c r="H99" t="s">
+        <v>4832</v>
+      </c>
+      <c r="I99" t="s">
+        <v>4885</v>
+      </c>
+      <c r="J99">
+        <v>21</v>
+      </c>
+      <c r="K99" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="7" t="s">
+        <v>4567</v>
+      </c>
+      <c r="B100" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4886</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4887</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F100">
+        <v>5</v>
+      </c>
+      <c r="G100" t="s">
+        <v>4884</v>
+      </c>
+      <c r="H100" t="s">
+        <v>4762</v>
+      </c>
+      <c r="I100" t="s">
+        <v>4888</v>
+      </c>
+      <c r="J100">
+        <v>25</v>
+      </c>
+      <c r="K100" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="7" t="s">
+        <v>4568</v>
+      </c>
+      <c r="B101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4889</v>
+      </c>
+      <c r="D101" t="s">
+        <v>4630</v>
+      </c>
+      <c r="E101" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F101">
+        <v>5</v>
+      </c>
+      <c r="G101" t="s">
+        <v>4890</v>
+      </c>
+      <c r="H101" t="s">
+        <v>4762</v>
+      </c>
+      <c r="I101" t="s">
+        <v>4891</v>
+      </c>
+      <c r="J101">
+        <v>43</v>
+      </c>
+      <c r="K101" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="7" t="s">
+        <v>4569</v>
+      </c>
+      <c r="B102" t="s">
+        <v>29</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4892</v>
+      </c>
+      <c r="D102" t="s">
+        <v>4893</v>
+      </c>
+      <c r="E102" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F102">
+        <v>5</v>
+      </c>
+      <c r="G102" t="s">
+        <v>4708</v>
+      </c>
+      <c r="H102" t="s">
+        <v>4775</v>
+      </c>
+      <c r="I102" t="s">
+        <v>4894</v>
+      </c>
+      <c r="J102">
+        <v>58</v>
+      </c>
+      <c r="K102" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="7" t="s">
+        <v>4570</v>
+      </c>
+      <c r="B103" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4895</v>
+      </c>
+      <c r="D103" t="s">
+        <v>4896</v>
+      </c>
+      <c r="E103" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F103">
+        <v>5</v>
+      </c>
+      <c r="G103" t="s">
+        <v>4890</v>
+      </c>
+      <c r="H103" t="s">
+        <v>4788</v>
+      </c>
+      <c r="I103" t="s">
+        <v>32</v>
+      </c>
+      <c r="J103">
+        <v>37</v>
+      </c>
+      <c r="K103" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>4571</v>
+      </c>
+      <c r="B104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4897</v>
+      </c>
+      <c r="D104" t="s">
+        <v>4898</v>
+      </c>
+      <c r="E104" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F104">
+        <v>5</v>
+      </c>
+      <c r="G104" t="s">
+        <v>4884</v>
+      </c>
+      <c r="H104" t="s">
+        <v>4788</v>
+      </c>
+      <c r="I104" t="s">
+        <v>4899</v>
+      </c>
+      <c r="J104">
+        <v>13</v>
+      </c>
+      <c r="K104" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
+        <v>4572</v>
+      </c>
+      <c r="B105" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4900</v>
+      </c>
+      <c r="D105" t="s">
+        <v>4898</v>
+      </c>
+      <c r="E105" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F105">
+        <v>5</v>
+      </c>
+      <c r="G105" t="s">
+        <v>4708</v>
+      </c>
+      <c r="H105" t="s">
+        <v>4779</v>
+      </c>
+      <c r="I105" t="s">
+        <v>4901</v>
+      </c>
+      <c r="J105">
+        <v>12</v>
+      </c>
+      <c r="K105" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="7" t="s">
+        <v>4573</v>
+      </c>
+      <c r="B106" t="s">
+        <v>29</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4902</v>
+      </c>
+      <c r="D106" t="s">
+        <v>4903</v>
+      </c>
+      <c r="E106" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F106">
+        <v>5</v>
+      </c>
+      <c r="G106" t="s">
+        <v>4904</v>
+      </c>
+      <c r="H106" t="s">
+        <v>4788</v>
+      </c>
+      <c r="I106" t="s">
+        <v>4905</v>
+      </c>
+      <c r="J106">
+        <v>46</v>
+      </c>
+      <c r="K106" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
+        <v>4574</v>
+      </c>
+      <c r="B107" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4906</v>
+      </c>
+      <c r="D107" t="s">
+        <v>4907</v>
+      </c>
+      <c r="E107" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F107">
+        <v>5</v>
+      </c>
+      <c r="G107" t="s">
+        <v>4908</v>
+      </c>
+      <c r="H107" t="s">
+        <v>4853</v>
+      </c>
+      <c r="I107" t="s">
+        <v>4909</v>
+      </c>
+      <c r="J107">
+        <v>33</v>
+      </c>
+      <c r="K107" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="7" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B108" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4910</v>
+      </c>
+      <c r="D108" t="s">
+        <v>4911</v>
+      </c>
+      <c r="E108" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F108">
+        <v>5</v>
+      </c>
+      <c r="G108" t="s">
+        <v>4912</v>
+      </c>
+      <c r="H108" t="s">
+        <v>4832</v>
+      </c>
+      <c r="I108" t="s">
+        <v>4913</v>
+      </c>
+      <c r="J108">
+        <v>76</v>
+      </c>
+      <c r="K108" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="7" t="s">
+        <v>4576</v>
+      </c>
+      <c r="B109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4914</v>
+      </c>
+      <c r="D109" t="s">
+        <v>4915</v>
+      </c>
+      <c r="E109" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F109">
+        <v>5</v>
+      </c>
+      <c r="G109" t="s">
+        <v>4908</v>
+      </c>
+      <c r="H109" t="s">
+        <v>4775</v>
+      </c>
+      <c r="I109" t="s">
+        <v>4916</v>
+      </c>
+      <c r="J109">
+        <v>11</v>
+      </c>
+      <c r="K109" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="7" t="s">
+        <v>4577</v>
+      </c>
+      <c r="B110" t="s">
+        <v>29</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4917</v>
+      </c>
+      <c r="D110" t="s">
+        <v>4915</v>
+      </c>
+      <c r="E110" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F110">
+        <v>5</v>
+      </c>
+      <c r="G110" t="s">
+        <v>4908</v>
+      </c>
+      <c r="H110" t="s">
+        <v>4832</v>
+      </c>
+      <c r="I110" t="s">
+        <v>4918</v>
+      </c>
+      <c r="J110">
+        <v>15</v>
+      </c>
+      <c r="K110" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="7" t="s">
+        <v>4578</v>
+      </c>
+      <c r="B111" t="s">
+        <v>29</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4919</v>
+      </c>
+      <c r="D111" t="s">
+        <v>4920</v>
+      </c>
+      <c r="E111" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F111">
+        <v>5</v>
+      </c>
+      <c r="G111" t="s">
+        <v>4733</v>
+      </c>
+      <c r="H111" t="s">
+        <v>4814</v>
+      </c>
+      <c r="I111" t="s">
+        <v>4653</v>
+      </c>
+      <c r="J111">
+        <v>19</v>
+      </c>
+      <c r="K111" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
+        <v>4579</v>
+      </c>
+      <c r="B112" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4921</v>
+      </c>
+      <c r="D112" t="s">
+        <v>4922</v>
+      </c>
+      <c r="E112" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F112">
+        <v>5</v>
+      </c>
+      <c r="G112" t="s">
+        <v>4733</v>
+      </c>
+      <c r="H112" t="s">
+        <v>4771</v>
+      </c>
+      <c r="I112" t="s">
+        <v>4627</v>
+      </c>
+      <c r="J112">
+        <v>8</v>
+      </c>
+      <c r="K112" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
+        <v>4580</v>
+      </c>
+      <c r="B113" t="s">
+        <v>29</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4923</v>
+      </c>
+      <c r="D113" t="s">
+        <v>4922</v>
+      </c>
+      <c r="E113" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F113">
+        <v>5</v>
+      </c>
+      <c r="G113" t="s">
+        <v>4733</v>
+      </c>
+      <c r="H113" t="s">
+        <v>4762</v>
+      </c>
+      <c r="I113" t="s">
+        <v>4646</v>
+      </c>
+      <c r="J113">
+        <v>18</v>
+      </c>
+      <c r="K113" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="7" t="s">
+        <v>4581</v>
+      </c>
+      <c r="B114" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4924</v>
+      </c>
+      <c r="D114" t="s">
+        <v>4845</v>
+      </c>
+      <c r="E114" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F114">
+        <v>5</v>
+      </c>
+      <c r="G114" t="s">
+        <v>4631</v>
+      </c>
+      <c r="H114" t="s">
+        <v>4872</v>
+      </c>
+      <c r="I114" t="s">
+        <v>4925</v>
+      </c>
+      <c r="J114">
+        <v>19</v>
+      </c>
+      <c r="K114" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
+        <v>4582</v>
+      </c>
+      <c r="B115" t="s">
+        <v>29</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4926</v>
+      </c>
+      <c r="D115" t="s">
+        <v>4927</v>
+      </c>
+      <c r="E115" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F115">
+        <v>4</v>
+      </c>
+      <c r="G115" t="s">
+        <v>4635</v>
+      </c>
+      <c r="H115" t="s">
+        <v>4928</v>
+      </c>
+      <c r="I115" t="s">
+        <v>4929</v>
+      </c>
+      <c r="J115">
+        <v>50</v>
+      </c>
+      <c r="K115" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="7" t="s">
+        <v>4583</v>
+      </c>
+      <c r="B116" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4930</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E116" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F116">
+        <v>5</v>
+      </c>
+      <c r="G116" t="s">
+        <v>4635</v>
+      </c>
+      <c r="H116" t="s">
+        <v>4775</v>
+      </c>
+      <c r="I116" t="s">
+        <v>4931</v>
+      </c>
+      <c r="J116">
+        <v>55</v>
+      </c>
+      <c r="K116" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
+        <v>4584</v>
+      </c>
+      <c r="B117" t="s">
+        <v>29</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4932</v>
+      </c>
+      <c r="D117" t="s">
+        <v>4933</v>
+      </c>
+      <c r="E117" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F117">
+        <v>5</v>
+      </c>
+      <c r="G117" t="s">
+        <v>4640</v>
+      </c>
+      <c r="H117" t="s">
+        <v>4832</v>
+      </c>
+      <c r="I117" t="s">
+        <v>4934</v>
+      </c>
+      <c r="J117">
+        <v>145</v>
+      </c>
+      <c r="K117" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="7" t="s">
+        <v>4585</v>
+      </c>
+      <c r="B118" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4935</v>
+      </c>
+      <c r="D118" t="s">
+        <v>4936</v>
+      </c>
+      <c r="E118" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F118">
+        <v>5</v>
+      </c>
+      <c r="G118" t="s">
+        <v>4644</v>
+      </c>
+      <c r="H118" t="s">
+        <v>4814</v>
+      </c>
+      <c r="I118" t="s">
+        <v>4937</v>
+      </c>
+      <c r="J118">
+        <v>20</v>
+      </c>
+      <c r="K118" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
+        <v>4586</v>
+      </c>
+      <c r="B119" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4938</v>
+      </c>
+      <c r="D119" t="s">
+        <v>4939</v>
+      </c>
+      <c r="E119" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F119">
+        <v>5</v>
+      </c>
+      <c r="G119" t="s">
+        <v>4708</v>
+      </c>
+      <c r="H119" t="s">
+        <v>4872</v>
+      </c>
+      <c r="I119" t="s">
+        <v>4940</v>
+      </c>
+      <c r="J119">
+        <v>29</v>
+      </c>
+      <c r="K119" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="7" t="s">
+        <v>4587</v>
+      </c>
+      <c r="B120" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4941</v>
+      </c>
+      <c r="D120" t="s">
+        <v>4942</v>
+      </c>
+      <c r="E120" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F120">
+        <v>5</v>
+      </c>
+      <c r="G120" t="s">
+        <v>4708</v>
+      </c>
+      <c r="H120" t="s">
+        <v>4802</v>
+      </c>
+      <c r="I120" t="s">
+        <v>4943</v>
+      </c>
+      <c r="J120">
+        <v>37</v>
+      </c>
+      <c r="K120" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="7" t="s">
+        <v>4588</v>
+      </c>
+      <c r="B121" t="s">
+        <v>29</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4944</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4942</v>
+      </c>
+      <c r="E121" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F121">
+        <v>5</v>
+      </c>
+      <c r="G121" t="s">
+        <v>4708</v>
+      </c>
+      <c r="H121" t="s">
+        <v>4853</v>
+      </c>
+      <c r="I121" t="s">
+        <v>4943</v>
+      </c>
+      <c r="J121">
+        <v>36</v>
+      </c>
+      <c r="K121" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
+        <v>4589</v>
+      </c>
+      <c r="B122" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4945</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E122" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F122">
+        <v>5</v>
+      </c>
+      <c r="G122" t="s">
+        <v>4644</v>
+      </c>
+      <c r="H122" t="s">
+        <v>4853</v>
+      </c>
+      <c r="I122" t="s">
+        <v>4946</v>
+      </c>
+      <c r="J122">
+        <v>60</v>
+      </c>
+      <c r="K122" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="7" t="s">
+        <v>4590</v>
+      </c>
+      <c r="B123" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4947</v>
+      </c>
+      <c r="D123" t="s">
+        <v>4887</v>
+      </c>
+      <c r="E123" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F123">
+        <v>5</v>
+      </c>
+      <c r="G123" t="s">
+        <v>4745</v>
+      </c>
+      <c r="H123" t="s">
+        <v>4775</v>
+      </c>
+      <c r="I123" t="s">
+        <v>4888</v>
+      </c>
+      <c r="J123">
+        <v>53</v>
+      </c>
+      <c r="K123" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
+        <v>4591</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="7" t="s">
+        <v>4592</v>
+      </c>
+      <c r="B125" t="s">
+        <v>29</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4948</v>
+      </c>
+      <c r="D125" t="s">
+        <v>4863</v>
+      </c>
+      <c r="E125" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F125">
+        <v>5</v>
+      </c>
+      <c r="G125" t="s">
+        <v>4809</v>
+      </c>
+      <c r="H125" t="s">
+        <v>4832</v>
+      </c>
+      <c r="I125" t="s">
+        <v>4949</v>
+      </c>
+      <c r="J125">
+        <v>48</v>
+      </c>
+      <c r="K125" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="7" t="s">
+        <v>4593</v>
+      </c>
+      <c r="B126" t="s">
+        <v>29</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4950</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4951</v>
+      </c>
+      <c r="E126" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F126">
+        <v>5</v>
+      </c>
+      <c r="G126" t="s">
+        <v>4952</v>
+      </c>
+      <c r="H126" t="s">
+        <v>4762</v>
+      </c>
+      <c r="I126" t="s">
+        <v>4953</v>
+      </c>
+      <c r="J126">
+        <v>24</v>
+      </c>
+      <c r="K126" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="7" t="s">
+        <v>4594</v>
+      </c>
+      <c r="B127" t="s">
+        <v>29</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4954</v>
+      </c>
+      <c r="D127" t="s">
+        <v>4955</v>
+      </c>
+      <c r="E127" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F127">
+        <v>5</v>
+      </c>
+      <c r="G127" t="s">
+        <v>4952</v>
+      </c>
+      <c r="H127" t="s">
+        <v>4775</v>
+      </c>
+      <c r="I127" t="s">
+        <v>4956</v>
+      </c>
+      <c r="J127">
+        <v>39</v>
+      </c>
+      <c r="K127" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
+        <v>4595</v>
+      </c>
+      <c r="B128" t="s">
+        <v>29</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4957</v>
+      </c>
+      <c r="D128" t="s">
+        <v>4958</v>
+      </c>
+      <c r="E128" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F128">
+        <v>5</v>
+      </c>
+      <c r="G128" t="s">
+        <v>4635</v>
+      </c>
+      <c r="H128" t="s">
+        <v>4806</v>
+      </c>
+      <c r="I128" t="s">
+        <v>4959</v>
+      </c>
+      <c r="J128">
+        <v>46</v>
+      </c>
+      <c r="K128" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="7" t="s">
+        <v>4596</v>
+      </c>
+      <c r="B129" t="s">
+        <v>29</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4960</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4961</v>
+      </c>
+      <c r="E129" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F129">
+        <v>5</v>
+      </c>
+      <c r="G129" t="s">
+        <v>4733</v>
+      </c>
+      <c r="H129" t="s">
+        <v>4832</v>
+      </c>
+      <c r="I129" t="s">
+        <v>4962</v>
+      </c>
+      <c r="J129">
+        <v>49</v>
+      </c>
+      <c r="K129" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="7" t="s">
+        <v>4597</v>
+      </c>
+      <c r="B130" t="s">
+        <v>29</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4963</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4964</v>
+      </c>
+      <c r="E130" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F130">
+        <v>5</v>
+      </c>
+      <c r="G130" t="s">
+        <v>4965</v>
+      </c>
+      <c r="H130" t="s">
+        <v>4872</v>
+      </c>
+      <c r="I130" t="s">
+        <v>4966</v>
+      </c>
+      <c r="J130">
+        <v>32</v>
+      </c>
+      <c r="K130" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="7" t="s">
+        <v>4598</v>
+      </c>
+      <c r="B131" t="s">
+        <v>29</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4967</v>
+      </c>
+      <c r="D131" t="s">
+        <v>4968</v>
+      </c>
+      <c r="E131" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F131">
+        <v>5</v>
+      </c>
+      <c r="G131" t="s">
+        <v>4912</v>
+      </c>
+      <c r="H131" t="s">
+        <v>4806</v>
+      </c>
+      <c r="I131" t="s">
+        <v>4969</v>
+      </c>
+      <c r="J131">
+        <v>49</v>
+      </c>
+      <c r="K131" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
+        <v>4599</v>
+      </c>
+      <c r="B132" t="s">
+        <v>29</v>
+      </c>
+      <c r="C132" t="s">
+        <v>4970</v>
+      </c>
+      <c r="D132" t="s">
+        <v>4971</v>
+      </c>
+      <c r="E132" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F132">
+        <v>5</v>
+      </c>
+      <c r="G132" t="s">
+        <v>4708</v>
+      </c>
+      <c r="H132" t="s">
+        <v>4872</v>
+      </c>
+      <c r="I132" t="s">
+        <v>4972</v>
+      </c>
+      <c r="J132">
+        <v>24</v>
+      </c>
+      <c r="K132" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="7" t="s">
+        <v>4600</v>
+      </c>
+      <c r="B133" t="s">
+        <v>29</v>
+      </c>
+      <c r="C133" t="s">
+        <v>4973</v>
+      </c>
+      <c r="D133" t="s">
+        <v>4974</v>
+      </c>
+      <c r="E133" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F133">
+        <v>5</v>
+      </c>
+      <c r="G133" t="s">
+        <v>4904</v>
+      </c>
+      <c r="H133" t="s">
+        <v>4832</v>
+      </c>
+      <c r="I133" t="s">
+        <v>4975</v>
+      </c>
+      <c r="J133">
+        <v>24</v>
+      </c>
+      <c r="K133" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="7" t="s">
+        <v>4601</v>
+      </c>
+      <c r="B134" t="s">
+        <v>29</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4976</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4977</v>
+      </c>
+      <c r="E134" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F134">
+        <v>5</v>
+      </c>
+      <c r="G134" t="s">
+        <v>4745</v>
+      </c>
+      <c r="H134" t="s">
+        <v>4872</v>
+      </c>
+      <c r="I134" t="s">
+        <v>4978</v>
+      </c>
+      <c r="J134">
+        <v>53</v>
+      </c>
+      <c r="K134" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="7" t="s">
+        <v>4602</v>
+      </c>
+      <c r="B135" t="s">
+        <v>29</v>
+      </c>
+      <c r="C135" t="s">
+        <v>4979</v>
+      </c>
+      <c r="D135" t="s">
+        <v>4805</v>
+      </c>
+      <c r="E135" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F135">
+        <v>5</v>
+      </c>
+      <c r="G135" t="s">
+        <v>4635</v>
+      </c>
+      <c r="H135" t="s">
+        <v>4980</v>
+      </c>
+      <c r="I135" t="s">
+        <v>4981</v>
+      </c>
+      <c r="J135">
+        <v>61</v>
+      </c>
+      <c r="K135" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="7" t="s">
+        <v>4603</v>
+      </c>
+      <c r="B136" t="s">
+        <v>29</v>
+      </c>
+      <c r="C136" t="s">
+        <v>4982</v>
+      </c>
+      <c r="D136" t="s">
+        <v>4983</v>
+      </c>
+      <c r="E136" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F136">
+        <v>5</v>
+      </c>
+      <c r="G136" t="s">
+        <v>4984</v>
+      </c>
+      <c r="H136" t="s">
+        <v>4762</v>
+      </c>
+      <c r="I136" t="s">
+        <v>4985</v>
+      </c>
+      <c r="J136">
+        <v>16</v>
+      </c>
+      <c r="K136" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="7" t="s">
+        <v>4604</v>
+      </c>
+      <c r="B137" t="s">
+        <v>29</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4986</v>
+      </c>
+      <c r="D137" t="s">
+        <v>4987</v>
+      </c>
+      <c r="E137" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F137">
+        <v>5</v>
+      </c>
+      <c r="G137" t="s">
+        <v>4890</v>
+      </c>
+      <c r="H137" t="s">
+        <v>4771</v>
+      </c>
+      <c r="I137" t="s">
+        <v>4988</v>
+      </c>
+      <c r="J137">
+        <v>52</v>
+      </c>
+      <c r="K137" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="7" t="s">
+        <v>4605</v>
+      </c>
+      <c r="B138" t="s">
+        <v>29</v>
+      </c>
+      <c r="C138" t="s">
+        <v>4989</v>
+      </c>
+      <c r="D138" t="s">
+        <v>4990</v>
+      </c>
+      <c r="E138" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F138">
+        <v>5</v>
+      </c>
+      <c r="G138" t="s">
+        <v>4991</v>
+      </c>
+      <c r="H138" t="s">
+        <v>4806</v>
+      </c>
+      <c r="I138" t="s">
+        <v>4992</v>
+      </c>
+      <c r="J138">
+        <v>44</v>
+      </c>
+      <c r="K138" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="7" t="s">
+        <v>4606</v>
+      </c>
+      <c r="B139" t="s">
+        <v>29</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D139" t="s">
+        <v>4990</v>
+      </c>
+      <c r="E139" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F139">
+        <v>5</v>
+      </c>
+      <c r="G139" t="s">
+        <v>4991</v>
+      </c>
+      <c r="H139" t="s">
+        <v>4853</v>
+      </c>
+      <c r="I139" t="s">
+        <v>4994</v>
+      </c>
+      <c r="J139">
+        <v>41</v>
+      </c>
+      <c r="K139" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="6" t="s">
+        <v>4607</v>
+      </c>
+      <c r="B140" t="s">
+        <v>29</v>
+      </c>
+      <c r="C140" t="s">
+        <v>4995</v>
+      </c>
+      <c r="D140" t="s">
+        <v>4996</v>
+      </c>
+      <c r="E140" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F140">
+        <v>5</v>
+      </c>
+      <c r="G140" t="s">
+        <v>4733</v>
+      </c>
+      <c r="H140" t="s">
+        <v>4757</v>
+      </c>
+      <c r="I140" t="s">
+        <v>4997</v>
+      </c>
+      <c r="J140">
+        <v>17</v>
+      </c>
+      <c r="K140" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="6" t="s">
+        <v>4608</v>
+      </c>
+      <c r="B141" t="s">
+        <v>29</v>
+      </c>
+      <c r="C141" t="s">
+        <v>4998</v>
+      </c>
+      <c r="D141" t="s">
+        <v>4999</v>
+      </c>
+      <c r="E141" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F141">
+        <v>5</v>
+      </c>
+      <c r="G141" t="s">
+        <v>4635</v>
+      </c>
+      <c r="H141" t="s">
+        <v>4762</v>
+      </c>
+      <c r="I141" t="s">
+        <v>4811</v>
+      </c>
+      <c r="J141">
+        <v>38</v>
+      </c>
+      <c r="K141" t="s">
+        <v>4628</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <autoFilter ref="A1:K141" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{C8BFD78A-84CC-4904-AA3B-694F42CF115A}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{66540129-6739-4BAB-B06F-7D6406F882C7}"/>
-    <hyperlink ref="A7" r:id="rId3" xr:uid="{530D7395-ED3E-486C-9332-EEDE68098C87}"/>
-    <hyperlink ref="A8" r:id="rId4" xr:uid="{848B9A78-4ADC-40F0-BA06-94E40BA491CD}"/>
-    <hyperlink ref="A9" r:id="rId5" xr:uid="{F52BE524-58A0-45F9-A03E-1FE7200DC5C1}"/>
-    <hyperlink ref="A10" r:id="rId6" xr:uid="{494C3087-2D80-4553-B523-9BBF9FC69BCF}"/>
-    <hyperlink ref="A11" r:id="rId7" display="https://www.amazon.in/gp/f.html?C=ETSVHW0T0C3M&amp;K=2RALHA32FWMPU&amp;M=urn:rtn:msg:20240124195822c72d6d052acb4ccd9814462258b0p0eu&amp;R=1EAU6PM73H558&amp;T=C&amp;U=https%3A%2F%2Fwww.amazon.in%2Freview%2FRLI7VVGSYFLM8%2Fref%3Dpe_1640331_66412301_cm_rv_eml_rv0_rv&amp;H=6C7HRHKFVSMQ2WIL7GAPOS2WJLCA&amp;ref_=pe_1640331_66412301_cm_rv_eml_rv0_rv" xr:uid="{1011EB7C-4C67-4EA3-8DDC-FE66EF60F178}"/>
-    <hyperlink ref="A12" r:id="rId8" xr:uid="{BE650DD1-F8B9-4D64-B042-11C972607ABC}"/>
-    <hyperlink ref="A13" r:id="rId9" xr:uid="{00710524-B6E3-4155-8467-53186E30718F}"/>
-    <hyperlink ref="A14" r:id="rId10" xr:uid="{836EC225-E687-48D7-8298-2AF4A2507098}"/>
-    <hyperlink ref="A15" r:id="rId11" xr:uid="{82036FEA-B6ED-4B2A-B71F-E7378B47178B}"/>
-    <hyperlink ref="A16" r:id="rId12" xr:uid="{CAC3BC24-524F-431B-8C33-D7F474D5F105}"/>
-    <hyperlink ref="A17" r:id="rId13" xr:uid="{C2FDA69B-F95B-48B4-9985-563E36E34375}"/>
-    <hyperlink ref="A22" r:id="rId14" xr:uid="{D6630CBA-F0EF-419A-A56B-2C4E25927DF1}"/>
-    <hyperlink ref="A23" r:id="rId15" xr:uid="{1F5E880A-C82E-4E8F-AA40-1B7903CC0576}"/>
-    <hyperlink ref="A24" r:id="rId16" xr:uid="{4E852D84-1251-493E-ABA2-F001E58E7DE2}"/>
-    <hyperlink ref="A25" r:id="rId17" xr:uid="{9C37783A-3692-48F4-AC5D-D618C14FF805}"/>
-    <hyperlink ref="A26" r:id="rId18" xr:uid="{8AD2A742-C680-46A5-836C-F073073617C5}"/>
-    <hyperlink ref="A27" r:id="rId19" xr:uid="{537447BD-EB3E-4C06-AD51-D5F3E03133E6}"/>
-    <hyperlink ref="A28" r:id="rId20" xr:uid="{09616EA4-C30A-4BDF-960B-683AD54D6C31}"/>
-    <hyperlink ref="A29" r:id="rId21" xr:uid="{7C3C1C61-2941-4EA6-9D09-4EA5B14052EE}"/>
-    <hyperlink ref="A30" r:id="rId22" xr:uid="{DC85159A-AA34-4BD9-A830-F120FE296B0F}"/>
-    <hyperlink ref="A31" r:id="rId23" xr:uid="{2F0EA0DE-70EE-4D76-A579-4057199C10D1}"/>
-    <hyperlink ref="A5" r:id="rId24" xr:uid="{1C8E1C6A-AD9C-447E-9F06-8CA3723D59A0}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{90C2A869-457E-416B-B54E-7E26803BAE01}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{7542FADF-80A4-4BC7-BE18-3FD4C0D7B3FA}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{2C33C0D8-6559-41E5-B122-7782DE4A5C69}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{E1D621CA-1355-418D-BC61-2B71EA94428F}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{055FB801-1857-4678-8015-27E8DB9B7512}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{42C7270B-48BE-41D7-B3C8-6B63EB299F08}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{950D7AE1-AF19-411F-9F30-D09EB5CEC8B3}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{A6CD75F4-8898-4868-865C-BC146CDC0BD5}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{F11E74B2-D7EA-40AF-A04A-06CB16792E5A}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{1AECD033-4507-4012-A18E-0A4E47723A2D}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{FF7B1522-2F4E-4555-9B46-C11F95ED0456}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{AB86C1CC-CA35-4524-B951-B65313B49087}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{C5810FA8-1198-4770-A490-1C41F83AA8BA}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{6B449E8A-DDA1-4129-B919-D2A0AF7B3244}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{BF6D50F9-968F-456E-BE2A-CA08335AEC37}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{AEE119EB-92D9-43B2-85A1-7198A08D5F72}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{7E2A83C5-C7A5-4DE2-B250-8BCC3F139B38}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{FAEA0A2C-DE37-49E5-B5C4-2C3ACBBE81B5}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{9B9C979C-9E17-48B8-B703-8BB47BCEFB26}"/>
+    <hyperlink ref="A21" r:id="rId20" xr:uid="{71CC6701-FB67-45DA-8D6A-DA12DD14D6D4}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{71CCE6B2-6548-42CC-9438-4F832E017131}"/>
+    <hyperlink ref="A23" r:id="rId22" xr:uid="{E5BA09EF-BB57-483B-830E-FB5A08F6A889}"/>
+    <hyperlink ref="A24" r:id="rId23" xr:uid="{33DCBCD1-A024-4B0E-B8AF-C24A4934712F}"/>
+    <hyperlink ref="A25" r:id="rId24" xr:uid="{320E4810-9E5F-40A5-A331-7580653BD0F2}"/>
+    <hyperlink ref="A26" r:id="rId25" xr:uid="{41F2CBFF-BAF7-49A0-AADD-68235B1510AB}"/>
+    <hyperlink ref="A27" r:id="rId26" xr:uid="{CCF52BBD-E01D-4865-8983-1237E9A327AD}"/>
+    <hyperlink ref="A28" r:id="rId27" xr:uid="{76D0A392-6C4E-4E99-BC38-9FDFC298893B}"/>
+    <hyperlink ref="A29" r:id="rId28" xr:uid="{C02D7810-66DB-40EF-A907-40C35EEDFCDE}"/>
+    <hyperlink ref="A30" r:id="rId29" xr:uid="{967EE3B4-BC47-4BD8-8799-E4561C8505D6}"/>
+    <hyperlink ref="A31" r:id="rId30" xr:uid="{663B9F9C-4BCE-4D63-B4BC-5EEA57B180C9}"/>
+    <hyperlink ref="A32" r:id="rId31" xr:uid="{A739B17F-5962-4C5E-9C29-4E9C381CC1A6}"/>
+    <hyperlink ref="A33" r:id="rId32" xr:uid="{E9D1B784-7927-4415-9207-E987A3FD08ED}"/>
+    <hyperlink ref="A34" r:id="rId33" xr:uid="{3C03A402-EBF6-4AFD-A555-0FC82C137D24}"/>
+    <hyperlink ref="A35" r:id="rId34" xr:uid="{1FA73398-7CC2-4F4B-8C91-A20BA585B41F}"/>
+    <hyperlink ref="A36" r:id="rId35" xr:uid="{A6372D2F-D104-4277-B1C0-52FB5CF033D8}"/>
+    <hyperlink ref="A37" r:id="rId36" xr:uid="{09A05886-A0B4-4833-B4DA-DF514AA83D9F}"/>
+    <hyperlink ref="A38" r:id="rId37" xr:uid="{76CD1548-A39D-468D-9A7F-A25FDF163D40}"/>
+    <hyperlink ref="A39" r:id="rId38" xr:uid="{1C2D1100-6A66-46B0-A35D-77799A4DB9D0}"/>
+    <hyperlink ref="A40" r:id="rId39" xr:uid="{970F5BBB-D0DB-4BE6-94C7-C975C2673515}"/>
+    <hyperlink ref="A41" r:id="rId40" xr:uid="{1A52C130-C20A-40BA-8465-F0C67BD02695}"/>
+    <hyperlink ref="A42" r:id="rId41" xr:uid="{3FE8874C-4810-4356-B97E-49105B019410}"/>
+    <hyperlink ref="A43" r:id="rId42" xr:uid="{FF11169C-2749-428C-880A-0D7EFFE25655}"/>
+    <hyperlink ref="A44" r:id="rId43" xr:uid="{CF3442B3-FF18-4782-9E55-B6D566FBD935}"/>
+    <hyperlink ref="A45" r:id="rId44" xr:uid="{9D04335E-9766-45CB-95B1-890D7AA4282E}"/>
+    <hyperlink ref="A46" r:id="rId45" xr:uid="{6735263E-1111-459A-B432-3332C6719B22}"/>
+    <hyperlink ref="A47" r:id="rId46" xr:uid="{15253944-2B45-45AD-AAB5-765A4EF2AAF0}"/>
+    <hyperlink ref="A48" r:id="rId47" xr:uid="{97813263-1EE2-4E25-9148-0602D2CE41C4}"/>
+    <hyperlink ref="A49" r:id="rId48" xr:uid="{2E5EA4D0-8852-4315-A241-CC33A3FB9637}"/>
+    <hyperlink ref="A50" r:id="rId49" xr:uid="{66AD4FA8-E6D7-4740-BD62-714FFAD0151C}"/>
+    <hyperlink ref="A51" r:id="rId50" xr:uid="{F91CDD4E-2F2E-4572-9886-31F37D6E2823}"/>
+    <hyperlink ref="A52" r:id="rId51" xr:uid="{5118EAAE-4A8E-4E29-88F6-6BF6D6E31A66}"/>
+    <hyperlink ref="A53" r:id="rId52" xr:uid="{0C4EC335-A43D-4A69-AEFE-EE917FFA61F0}"/>
+    <hyperlink ref="A54" r:id="rId53" xr:uid="{87591B6A-9DF1-4BFC-8BA8-C2841446BD2A}"/>
+    <hyperlink ref="A55" r:id="rId54" xr:uid="{FD97D6C0-56BC-4A52-AEEA-39C5A3320C74}"/>
+    <hyperlink ref="A56" r:id="rId55" xr:uid="{C1153C3F-5E93-41CB-881B-411BACEDF52F}"/>
+    <hyperlink ref="A57" r:id="rId56" xr:uid="{306B7A8E-AE1B-493F-9F72-2E2208951659}"/>
+    <hyperlink ref="A58" r:id="rId57" xr:uid="{36D1DE98-DA71-4C67-A1F8-42A160A9E6A2}"/>
+    <hyperlink ref="A59" r:id="rId58" xr:uid="{BC65A4B1-D67D-4933-B368-0EA742EFBF71}"/>
+    <hyperlink ref="A60" r:id="rId59" xr:uid="{A28AC557-AA43-40A2-8EF7-2CC09F2A402C}"/>
+    <hyperlink ref="A61" r:id="rId60" xr:uid="{1E19CD61-D41E-495D-91BF-6C200BC9F60A}"/>
+    <hyperlink ref="A78" r:id="rId61" xr:uid="{85C1F277-B31C-4571-B1CC-985CC807963D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
+  <pageSetup orientation="portrait" r:id="rId62"/>
 </worksheet>
 </file>
 
@@ -14734,12 +20401,12 @@
         <f>E2-F2</f>
         <v>-1</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <f>F2/E2</f>
         <v>1.0002323960027888</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
       <c r="M2" t="s">
         <v>73</v>
       </c>
@@ -14751,9 +20418,9 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">

--- a/Review_sheet.xlsx
+++ b/Review_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rish\Documents\GitHub_Repositories\Review_Scraper_Streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3222A6B-94B6-4E94-A37F-187EAF50BFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C626A4-5754-48D2-8023-C7E567948B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ui" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17719" uniqueCount="5000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16669" uniqueCount="4610">
   <si>
     <t>Enter review link here</t>
   </si>
@@ -13866,1177 +13866,7 @@
     <t>https://www.amazon.in/review/R19D6OOEEKEXFJ/ref=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
   </si>
   <si>
-    <t>review/B0C27VXVZC/R14DHVTFPH67V4</t>
-  </si>
-  <si>
-    <t>Sagar</t>
-  </si>
-  <si>
-    <t>Verified Purchase</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 15 June 2024</t>
-  </si>
-  <si>
-    <t>VILLAIN Roar Combo-4 X 20Ml Premium Liquid Musk, Spicy,Woody Perfume Gift Set For Men Eau De Parfum Long Lasting Fragrance</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>review/B08GFM1X1Y/R1MNVCIH1YH66K</t>
-  </si>
-  <si>
-    <t>Disha dwivedi</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 2 July 2024</t>
-  </si>
-  <si>
-    <t>Villain Perfume For Men 100 Ml - Eau De Parfum - Premium Long Lasting Fragrance Spray - Woody &amp; Spicy</t>
-  </si>
-  <si>
-    <t>This perfume smell is too good 👍</t>
-  </si>
-  <si>
-    <t>review/B0CL9S36DV/RGPS0WF2BQ9R1</t>
-  </si>
-  <si>
-    <t>VILLAIN Revolver Liquid Perfume For Men 100 Ml Eau De Parfum Premium Long-Lasting Fragrance Travel Friendly Woody Oriental Scent Special Pack</t>
-  </si>
-  <si>
-    <t>I loved it.</t>
-  </si>
-  <si>
-    <t>2T5MBOV5XLAF7</t>
-  </si>
-  <si>
-    <t>Madhuri</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 1 July 2024</t>
-  </si>
-  <si>
-    <t>VILLAIN Revolver Edp Perfume For Men Gold Limited Edition, 100 Ml | Eau De Parfum Liquid | Premium Long-Lasting Fragrance | Spicy, Woody</t>
-  </si>
-  <si>
-    <t>Nice perfume</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>R2E60W2GNE494B</t>
-  </si>
-  <si>
-    <t>Pulkit jindal</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 3 July 2024</t>
-  </si>
-  <si>
-    <t>Villain Snake Perfume for Men 100ml | Long Lasting Perfume | Strong, Smoky, Sexy and Masculine| Premium EDP Perfume For Men | Best Gift For Men</t>
-  </si>
-  <si>
-    <t>Good quantity of nice fragrance.</t>
-  </si>
-  <si>
-    <t>3VUJ7D3ACODXE</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 12 July 2024</t>
-  </si>
-  <si>
-    <t>Villain Hydra Perfume (Eau Da Parfum) (100 ml), Aquatic</t>
-  </si>
-  <si>
-    <t>The Perfect Blend of Freshness and Mystery</t>
-  </si>
-  <si>
-    <t>review/B0BMQD8T58/R3MJNXSM3XVQYO</t>
-  </si>
-  <si>
-    <t>Amar</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 4 July 2024</t>
-  </si>
-  <si>
-    <t>VILLAIN Rebel Luxury Liquid Perfume Gift Set For Men 4X20 Ml With Woody, Oud, Musk, Aqua Perfume Luxury Long Lasting Fragrance Men Fragrance Set Perfume Combo Set For Men|Edp Perfume Combo</t>
-  </si>
-  <si>
-    <t>R12H7I5VY35K81</t>
-  </si>
-  <si>
-    <t>Ajay Bohra</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 14 July 2024</t>
-  </si>
-  <si>
-    <t>Villain Luxury EVillain Party Combo | Luxury Perfume For Men, Classic &amp; Hydra EDP Perfume Combo, Pack of 2 Premium Long Lasting Perfume for Men, 100 Ml EachDP Men, Classic &amp; Hydra EDP Perfumes Combo, Pack of 2 Premium Long Lasting Perfume for Men, 100 Ml Each</t>
-  </si>
-  <si>
-    <t>Best fragrance</t>
-  </si>
-  <si>
-    <t>3K0XB9P7YBSGF</t>
-  </si>
-  <si>
-    <t>Unique and Captivating Scent</t>
-  </si>
-  <si>
-    <t>2GS5N31PS3YB</t>
-  </si>
-  <si>
-    <t>Aayush Goyal</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 1 June 2024</t>
-  </si>
-  <si>
-    <t>RENEE Colorlock Transfer Not Lip Crayon with Sharpener, SPF 20, Waterproof, Smudgeproof, Lightweight &amp; Long Lasting, Intense Color Payoff with Ultra Matte Finish, Enriched with Vitamin E, Tempt 3gm</t>
-  </si>
-  <si>
-    <t>Amazing</t>
-  </si>
-  <si>
-    <t>FLIPKART</t>
-  </si>
-  <si>
-    <t>Pallavi Singhvi</t>
-  </si>
-  <si>
-    <t>Certified Buyer</t>
-  </si>
-  <si>
-    <t>12 Jun, 2024</t>
-  </si>
-  <si>
-    <t>Renee FAB 5 Glossy 5 in 1 Lipstick - Five Shades In One Stick - S...</t>
-  </si>
-  <si>
-    <t>Manila Chawla</t>
-  </si>
-  <si>
-    <t>22 Jun, 2024</t>
-  </si>
-  <si>
-    <t>Renee FAB 5 Nude, 5-in-1 Lipstick, Smooth Matte Finish Lips, Non-...</t>
-  </si>
-  <si>
-    <t>Love these</t>
-  </si>
-  <si>
-    <t>2PP3L0E9QEWPL</t>
-  </si>
-  <si>
-    <t>Rohini Pal</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 5 February 2024</t>
-  </si>
-  <si>
-    <t>RENEE Volumax Mascara Black 10ml | Quick Dry, Waterproof, Long Lasting Weightless Formula | Volumizes, Lengthens &amp; Conditions the Lashes With Intense Color | 360 - Degree Wand for Clump Free Application</t>
-  </si>
-  <si>
-    <t>Volume and length</t>
-  </si>
-  <si>
-    <t>Advaita Warang</t>
-  </si>
-  <si>
-    <t>Renee Body Mist Pack of 4, Long Lasting Premium Fragrance for Wom...</t>
-  </si>
-  <si>
-    <t>Govind Yadav</t>
-  </si>
-  <si>
-    <t>25 Jun, 2024</t>
-  </si>
-  <si>
-    <t>Renee Sunscreen - SPF 50 PA++++ Pore Minimizing Face Gel, Enriche...</t>
-  </si>
-  <si>
-    <t>Sagar Yadav</t>
-  </si>
-  <si>
-    <t>Hema Bisht</t>
-  </si>
-  <si>
-    <t>19 Jun, 2024</t>
-  </si>
-  <si>
-    <t>Renee Bloom Eau de Parfum - 50 ml</t>
-  </si>
-  <si>
-    <t>Kartik Saini</t>
-  </si>
-  <si>
-    <t>27 Jun, 2024</t>
-  </si>
-  <si>
-    <t>Renee Violet Melody Body Mist, Fruity Luxurious Blend, Long Lasti...</t>
-  </si>
-  <si>
-    <t>Aman Jain</t>
-  </si>
-  <si>
-    <t>26 Jun, 2024</t>
-  </si>
-  <si>
-    <t>Great product everyone should buy</t>
-  </si>
-  <si>
-    <t>review/B0CYHGNLF8/RWN5CS1LFR59R</t>
-  </si>
-  <si>
-    <t>Nidhi</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 17 June 2024</t>
-  </si>
-  <si>
-    <t>RENEE Pore Minimizing Sunscreen Spf 70 With 2% Niacinamide For All Skins, 2% Peptide &amp; 3% Multivitamins, 50Ml</t>
-  </si>
-  <si>
-    <t>Perfect sunscreen for me</t>
-  </si>
-  <si>
-    <t>review/B0CDCM1DJ1/R4D3DDUYBSMH2</t>
-  </si>
-  <si>
-    <t>Jatin Behl</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 28 January 2024</t>
-  </si>
-  <si>
-    <t>RENEE Glitterati Nail Paint- Silver Confetti 10ml | Quick Drying, Glittery Finish, Long Lasting, Chip resisting Formula with High Glitter &amp; Full Coverage | Acetone &amp; Paraben Free</t>
-  </si>
-  <si>
-    <t>It is wow</t>
-  </si>
-  <si>
-    <t>Maitreyi P</t>
-  </si>
-  <si>
-    <t>02 Jul, 2024</t>
-  </si>
-  <si>
-    <t>Renee Sucker � Oil Pulling Stick Primer - 5 g</t>
-  </si>
-  <si>
-    <t>Renee Face Gloss with Hyaluronic Acid, 10ml - Rose Gold</t>
-  </si>
-  <si>
-    <t>Renee Face Gloss Illuminating Face Serum, 10ml</t>
-  </si>
-  <si>
-    <t>Renee Bohemian Zest Body Mist, Fruity Luxurious Blend, Long Lasti...</t>
-  </si>
-  <si>
-    <t>10JYJAWW05SA8</t>
-  </si>
-  <si>
-    <t>Ibtesam Rahman</t>
-  </si>
-  <si>
-    <t>Non sticky, quick absorbing SPF 70</t>
-  </si>
-  <si>
-    <t>Bharadwaj Pant</t>
-  </si>
-  <si>
-    <t>08 Jul, 2024</t>
-  </si>
-  <si>
-    <t>05 Jul, 2024</t>
-  </si>
-  <si>
-    <t>Renee Flirt &amp; Madame Perfume - Pack Of 2 - 20ml Each - Premium, L...</t>
-  </si>
-  <si>
-    <t>R8QS0VQIBI3N4</t>
-  </si>
-  <si>
-    <t>Vaibhav</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 8 July 2024</t>
-  </si>
-  <si>
-    <t>RENEE See Me Shine Minis Gloss Party Lip Gloss Combo 1ml Each, Non Sticky &amp; Non Drying Formula, Long Lasting Moisturizing Effect, Compact and Easy to Carry</t>
-  </si>
-  <si>
-    <t>Glosssy</t>
-  </si>
-  <si>
-    <t>Manya Sethi</t>
-  </si>
-  <si>
-    <t>21 Jun, 2024</t>
-  </si>
-  <si>
-    <t>Renee Pink Romance Body Mist, Floral Luxurious Blend, Long Lastin...</t>
-  </si>
-  <si>
-    <t>RAVS1OG0PKWMP</t>
-  </si>
-  <si>
-    <t>Priyadarshini</t>
-  </si>
-  <si>
-    <t>RENEE Hot Shot Face &amp; Body Glowstick 30gm, Moisturizing, Weightless, Shimmery Finish Illuminating Stick | Infused With Rosehip &amp; Avocado Oil, Boosts Skin Radiance Instantly</t>
-  </si>
-  <si>
-    <t>A must have for glowy skin</t>
-  </si>
-  <si>
-    <t>R38BYE09D9J4ZI</t>
-  </si>
-  <si>
-    <t>RENEE PRO Pearl Primer- Gold 30 ml, Shimmery Finish, Blurs Pores, Fine Lines &amp; Wrinkles | Lightweight, Hydrates, Smoothens &amp; Evens Out Skin Tone | Enriched with Hyluronic Acid &amp; Vitamin E</t>
-  </si>
-  <si>
-    <t>One of the best primers that I've tried on</t>
-  </si>
-  <si>
-    <t>R1T4XNA80AJJ42</t>
-  </si>
-  <si>
-    <t>RENEE Centre Stage Primer 30 Ml, Transparent Lightweight, Non-sticky, Long Lasting Formulation Enriched With Vitamin E - Hides Pores &amp; Fine Lines for Smooth &amp; Even Skin With Matte Finish</t>
-  </si>
-  <si>
-    <t>Neutral and lightweight primer</t>
-  </si>
-  <si>
-    <t>RQV1BUW0GLN30</t>
-  </si>
-  <si>
-    <t>javisha</t>
-  </si>
-  <si>
-    <t>RENEE Face Base Liquid Foundation - Cappuccino, 23ml | Enriched with Hyaluronic Acid &amp; Vitamin E, Provides SPF 8 Protection, Weightless, Long-lasting Matte Finish</t>
-  </si>
-  <si>
-    <t>Best and affordable foundation</t>
-  </si>
-  <si>
-    <t>Shruti Bhoir</t>
-  </si>
-  <si>
-    <t>09 Jul, 2024</t>
-  </si>
-  <si>
-    <t>Renee Stay Forever Matte Liquid Lipstick Combo - Transfer &amp; Smudg...</t>
-  </si>
-  <si>
-    <t>R16SP4H1G1G2ZX</t>
-  </si>
-  <si>
-    <t>Ishita</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 10 July 2024</t>
-  </si>
-  <si>
-    <t>RENEE Long Stick On Nails L MTN 01| 24 Reusable Artificial Fake Nail Set| Lightweight &amp; Long Lasting| Easy To Use| Quick Fix For Festivals &amp; Special Occasions</t>
-  </si>
-  <si>
-    <t>Easy to use</t>
-  </si>
-  <si>
-    <t>10 Jul, 2024</t>
-  </si>
-  <si>
-    <t>Alaika Vasani</t>
-  </si>
-  <si>
-    <t>Rakhi Prasad</t>
-  </si>
-  <si>
-    <t>06 Jul, 2024</t>
-  </si>
-  <si>
-    <t>Renee Disney Frozen Princess Donut Jelly Lip Balm Elsa Tinted Pin...</t>
-  </si>
-  <si>
-    <t>Pappu Pappu</t>
-  </si>
-  <si>
-    <t>13 Jun, 2024</t>
-  </si>
-  <si>
-    <t>Anmol</t>
-  </si>
-  <si>
-    <t>review/B0CQJTM6TW/R30EFY35UPF2ES</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 13 July 2024</t>
-  </si>
-  <si>
-    <t>RENEE Midnight Kohl Pencil - Smudgeproof and Waterproof Kajal - 24 Hrs Long Stay - Darkest Black - One Swipe Application - Rich Color Payoff - Vitamin E, Olive Oil and Castor Oil - 1.5 Gm</t>
-  </si>
-  <si>
-    <t>Perfect kohl</t>
-  </si>
-  <si>
-    <t>R3V5F02HLOMKR2</t>
-  </si>
-  <si>
-    <t>prasanna</t>
-  </si>
-  <si>
-    <t>Does its job</t>
-  </si>
-  <si>
-    <t>Raman Raj</t>
-  </si>
-  <si>
-    <t>Vaibhav Sethi</t>
-  </si>
-  <si>
-    <t>13 Jul, 2024</t>
-  </si>
-  <si>
-    <t>Naeelah Shaikh</t>
-  </si>
-  <si>
-    <t>RF47ZU25YYCJ3</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Beardo Perfume For Men - Don, 50ml | With Melon, Jasmin, Vannila Intense Fresh | Strong Long Lasting Mens Perfume | EAU DE PARFUM Men | Ideal Gift For Men</t>
-  </si>
-  <si>
-    <t>Smells gorgeous</t>
-  </si>
-  <si>
-    <t>review/B0CWTX999Q/R2Y5ECWKNSNWYA</t>
-  </si>
-  <si>
-    <t>Dr. Simran</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 21 June 2024</t>
-  </si>
-  <si>
-    <t>Beardo Mariner Perfume EDP 50ml &amp; Mariner Captain Jack Perfume Body Spray 120ml for Men | Eau De Parfum | Long Lasting Perfume for Men | Deodorant Body Spray for Men | Day Time Fragrance Body Spray For Men | Fresh, Aqua Notes | Gift for Men</t>
-  </si>
-  <si>
-    <t>Worth purchasing</t>
-  </si>
-  <si>
-    <t>R38Q4Z37P4N2N0</t>
-  </si>
-  <si>
-    <t>Charan tej</t>
-  </si>
-  <si>
-    <t>Beardo Ape-X Prime 3-in-1 Multipurpose Trimmer for Men | Grooming Kit : Beard Trimmer, Precision Trimmer, Ear &amp; Nose Trimmer | Stainless Steel self-sharpening blades | Type C charging</t>
-  </si>
-  <si>
-    <t>Multiples machines</t>
-  </si>
-  <si>
-    <t>review/B0CWTSM8Y7/R3FURPVRZGV7ML</t>
-  </si>
-  <si>
-    <t>Anish</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 19 June 2024</t>
-  </si>
-  <si>
-    <t>Beardo Whisky Smoke Deodorant 120ml &amp; Bourbon Perfume 50ml for Men Giftset | Eau De Parfum &amp; Body Spray | Spicy, Woody - Oudh | Long Lasting Mens Perfume | Date night fragrance</t>
-  </si>
-  <si>
-    <t>Mild Fragrance</t>
-  </si>
-  <si>
-    <t>review/B0CS6RSJTB/R1M4EZYAGP3KLB</t>
-  </si>
-  <si>
-    <t>Dhruv khurana</t>
-  </si>
-  <si>
-    <t>Beardo Day Perfumes For Men &amp; Women 4 x 20ml | Compliment worthy Unisex perfume combo | Long Lasting Perfumes - Fresh &amp; Aquatic Fragrances | Gift for men</t>
-  </si>
-  <si>
-    <t>So good!</t>
-  </si>
-  <si>
-    <t>review/B0CW3BTHN8/R2YTRQT4O9AXKH</t>
-  </si>
-  <si>
-    <t>Ajay khurana</t>
-  </si>
-  <si>
-    <t>Beardo Whisky Smoke Perfume for Men &amp; Freed Musk Bomb Perfume for Women, 20ml x 2 | Woody Fragrance Notes for Men &amp; Women Long Lasting Perfume for Date night fragrance</t>
-  </si>
-  <si>
-    <t>Perfect for Him and Her</t>
-  </si>
-  <si>
-    <t>review/B0CW3C696D/RUJMJL0T7LXSF</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 18 June 2024</t>
-  </si>
-  <si>
-    <t>Beardo Darkside &amp; Godfather Perfume for Men, 20ml x 2 | Godfather EDP with Aromatic, Spicy Perfume for Men Long Lasting Perfume for Date night fragrance | Fresh, Woody Premium Darkside fragrance | Ideal gift for men</t>
-  </si>
-  <si>
-    <t>Extra fragrance</t>
-  </si>
-  <si>
-    <t>RWTH1734XW35K</t>
-  </si>
-  <si>
-    <t>Sandeep Anturkar</t>
-  </si>
-  <si>
-    <t>Beardo Him &amp; Her Perfume Giftset 20ml x 4 | Long Lasting Spicy Eau De Parfum | Gift For Couple, Men Women</t>
-  </si>
-  <si>
-    <t>Very Happening &amp; The Essence is So Adorable 😍😍</t>
-  </si>
-  <si>
-    <t>R4PD8DGAY0OZL</t>
-  </si>
-  <si>
-    <t>Naveen sharma</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 23 June 2024</t>
-  </si>
-  <si>
-    <t>multi purpose trimmer.</t>
-  </si>
-  <si>
-    <t>review/B0CS6RSJTB/R3US54M6LDEPJ5</t>
-  </si>
-  <si>
-    <t>Shivani mishra</t>
-  </si>
-  <si>
-    <t>Fragrance is too good 🤩</t>
-  </si>
-  <si>
-    <t>3UEXBQ11U2MTK</t>
-  </si>
-  <si>
-    <t>Arjun</t>
-  </si>
-  <si>
-    <t>Beardo Apex Go Trimmer for Men - 80-Min Run Time - Powerful 5500 RPM motor - Compact Travel-Friendly Design - Self-Sharpening Blades, 3 Comb Attachments, Type-C Charging, Digital Display</t>
-  </si>
-  <si>
-    <t>Fascinating product</t>
-  </si>
-  <si>
-    <t>2Q0NM703EQPIA</t>
-  </si>
-  <si>
-    <t>Beardo Whisky Smoke Perfumed Luxury Soap for Men, 75g x 3 | Deep cleanses skin pores | Repairs broken skin and Reduce Hyperpigmentation | Refreshing Fragrance all day long</t>
-  </si>
-  <si>
-    <t>LUXURIOUS PRODUCT</t>
-  </si>
-  <si>
-    <t>R3DOV5XHQ1FZNX</t>
-  </si>
-  <si>
-    <t>Lakshay Burman</t>
-  </si>
-  <si>
-    <t>Beardo Studio Professional Tornado Hair Dryer with 2000 Watts Power | AC Motor, Concentrator, Diffuser, 2 Speeds, 3 Temperature Settings &amp; Cool Shot feature | Suitable for Professional Drying Experience</t>
-  </si>
-  <si>
-    <t>Classy and powerful</t>
-  </si>
-  <si>
-    <t>review/B0CP21FGH6/R7H7Q32DPC3CN</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 25 June 2024</t>
-  </si>
-  <si>
-    <t>Beardo PurpleX Teeth Whitening Powder, 50g | Stain Removal and Teeth Whitening Solution | Enamel Safe | Prevents Bad Breath | With Papain and Bromelain Enzymes for Stain removal | Peroxide Free</t>
-  </si>
-  <si>
-    <t>Good product</t>
-  </si>
-  <si>
-    <t>R1QBT0XG6999EJ</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 22 June 2024</t>
-  </si>
-  <si>
-    <t>Beardo Max Volume Powder Wax, 10 gm | Powder Hair Wax Men | Hair Styling Wax for Matte Finish | Strong Hold &amp; Restylable Hair Powder For Men | Hair Volumizing Powder Wax Superlight &amp; Instant Volume</t>
-  </si>
-  <si>
     <t>https://www.amazon.in/gp/aw/review/B0CP21FGH6/RSC7PE6M55CRM?ref=pf_ov_at_pdctrvw_srp</t>
-  </si>
-  <si>
-    <t>review/B0CP21FGH6/RSC7PE6M55CRM</t>
-  </si>
-  <si>
-    <t>Sushant Borhade</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 28 June 2024</t>
-  </si>
-  <si>
-    <t>Effective in Removing yellow stains from teeth</t>
-  </si>
-  <si>
-    <t>MID7TARIKMIZ</t>
-  </si>
-  <si>
-    <t>Shivam</t>
-  </si>
-  <si>
-    <t>Material quality is good</t>
-  </si>
-  <si>
-    <t>review/B0CW9JS8HK/R1RD4Q7DMREP8K</t>
-  </si>
-  <si>
-    <t>Kartik</t>
-  </si>
-  <si>
-    <t>Powerfull noice less performence</t>
-  </si>
-  <si>
-    <t>3GGKN9FEBOCI5</t>
-  </si>
-  <si>
-    <t>Abhijeet Sen</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 4 June 2024</t>
-  </si>
-  <si>
-    <t>Smells so good</t>
-  </si>
-  <si>
-    <t>review/B0CS6R5NFH/R1HVPKH8XOSOUP</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 26 June 2024</t>
-  </si>
-  <si>
-    <t>Beardo Mini Perfume Trial Kit, 10 x 5ml | Best Date Night Fragrances for Men | Travel friendly perfume kit for all moods &amp; occasions | Ideal gift for men</t>
-  </si>
-  <si>
-    <t>RQITJS3BQUSG4</t>
-  </si>
-  <si>
-    <t>Harshal Tiwari</t>
-  </si>
-  <si>
-    <t>Fresh and Invigorating: Beardo Mariner Perfume and Captain Jack Body Spray 🌊✨</t>
-  </si>
-  <si>
-    <t>R3BFY4ACHYVDZO</t>
-  </si>
-  <si>
-    <t>For Clean and white teeth</t>
-  </si>
-  <si>
-    <t>review/B0CWTSM8Y7/R36AZ7JAQIQ6US</t>
-  </si>
-  <si>
-    <t>Dipesh Ingle</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 29 June 2024</t>
-  </si>
-  <si>
-    <t>Best perfumes.</t>
-  </si>
-  <si>
-    <t>R3HWHG592GUB97</t>
-  </si>
-  <si>
-    <t>advanced and precious trimming.</t>
-  </si>
-  <si>
-    <t>review/B0CW9944RQ/R3LJA3VDKRBHPI</t>
-  </si>
-  <si>
-    <t>Kanta Tharani</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 18 May 2024</t>
-  </si>
-  <si>
-    <t>Worth it..👍</t>
-  </si>
-  <si>
-    <t>R2E07AN1YV0SCY</t>
-  </si>
-  <si>
-    <t>Neeraj Agarwal</t>
-  </si>
-  <si>
-    <t>Top notch hairdryer</t>
-  </si>
-  <si>
-    <t>RUEQFQKZ26QNO</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 24 June 2024</t>
-  </si>
-  <si>
-    <t>Beardo Scalp Massager for Hair with Removable Handle | Soft Silicone Bristles for Dry Massage, Oil &amp; Shampoo</t>
-  </si>
-  <si>
-    <t>As expected</t>
-  </si>
-  <si>
-    <t>review/B0CW3BTHN8/R1KSZNWEWHE718</t>
-  </si>
-  <si>
-    <t>kushal</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 13 June 2024</t>
-  </si>
-  <si>
-    <t>Quality and fragrance</t>
-  </si>
-  <si>
-    <t>R10QE64JEQIKI9</t>
-  </si>
-  <si>
-    <t>Mona Sahu</t>
-  </si>
-  <si>
-    <t>Very Long lasting and beautiful smell</t>
-  </si>
-  <si>
-    <t>tps://www.amazon.in/gp/f.html?C=ETSVHW0T0C3M&amp;K=21CFHO3HOSIAX&amp;M=urn:rtn:msg:20240704135745b0fe14ad00034f5699f2496efc40p0eu&amp;R=24WF4Y1HR6CFO&amp;T=C&amp;U=https%3A%2F%2Fwww.amazon.in%2Freview%2FRU6E688QAD3KJ%2Fref%3Dpe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv&amp;H=SLMVO2SSIXEVTCEGHISGPV8MXVCA&amp;ref_=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
-  </si>
-  <si>
-    <t>Swapnil parab</t>
-  </si>
-  <si>
-    <t>Best compact trimmer with great result</t>
-  </si>
-  <si>
-    <t>R1G7WJ7TS4KS20</t>
-  </si>
-  <si>
-    <t>Smoky and manly fragrance. Loved it.</t>
-  </si>
-  <si>
-    <t>R2HVQJGKNOD7JA</t>
-  </si>
-  <si>
-    <t>Rachit</t>
-  </si>
-  <si>
-    <t>Nice Fragrances in Economic Packaging</t>
-  </si>
-  <si>
-    <t>2DVR5I0UQ99JR</t>
-  </si>
-  <si>
-    <t>Siddharth Singhania</t>
-  </si>
-  <si>
-    <t>Beardo Derma Roller For Hair Growth 0.5 mm with 540 Chromium Needles | Reverse Signs of Aging | Dermaroller Increases Collagen production Repairs Damaged Hair | For Hair Fall, Hair Thickening</t>
-  </si>
-  <si>
-    <t>Useful Product</t>
-  </si>
-  <si>
-    <t>8OXQUC2Y2XMU</t>
-  </si>
-  <si>
-    <t>Nice Product</t>
-  </si>
-  <si>
-    <t>review/B0CW9944RQ/R1C28ACYXF6Q07</t>
-  </si>
-  <si>
-    <t>Dinesh swami</t>
-  </si>
-  <si>
-    <t>Nice Trimmer</t>
-  </si>
-  <si>
-    <t>R25NSSP6Q7F1AS</t>
-  </si>
-  <si>
-    <t>Vivek Pathak</t>
-  </si>
-  <si>
-    <t>Build quality is awesome...</t>
-  </si>
-  <si>
-    <t>R148R5YU6LNLEL</t>
-  </si>
-  <si>
-    <t>Shubham Aggarwal</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 7 July 2024</t>
-  </si>
-  <si>
-    <t>Great packaging</t>
-  </si>
-  <si>
-    <t>tps://www.amazon.in/gp/f.html?C=ETSVHW0T0C3M&amp;K=1ER7NTAE7D6ZN&amp;M=urn:rtn:msg:202407090557292eea0ed5e6e14c6dac541466cf50p0eu&amp;R=13AC7NX35SJQ1&amp;T=C&amp;U=https%3A%2F%2Fwww.amazon.in%2Freview%2FR2TZYUSJA6R365%2Fref%3Dpe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv&amp;H=A7YGABBALJSVY5EQWAMNAJ5TWJ0A&amp;ref_=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
-  </si>
-  <si>
-    <t>morning_moon6</t>
-  </si>
-  <si>
-    <t>Go for it guys</t>
-  </si>
-  <si>
-    <t>R1KDINVU51IKZZ</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 6 July 2024</t>
-  </si>
-  <si>
-    <t>Good package for gifting.</t>
-  </si>
-  <si>
-    <t>EKRQ9VU2RRQ</t>
-  </si>
-  <si>
-    <t>Thakkar meet</t>
-  </si>
-  <si>
-    <t>Perfume</t>
-  </si>
-  <si>
-    <t>R3ARK78V5GAHLZ</t>
-  </si>
-  <si>
-    <t>ayush</t>
-  </si>
-  <si>
-    <t>RAW7FH3JUTXRE</t>
-  </si>
-  <si>
-    <t>Aditi Mangla</t>
-  </si>
-  <si>
-    <t>great fragrances</t>
-  </si>
-  <si>
-    <t>R5X6IIT970XDG</t>
-  </si>
-  <si>
-    <t>woody musky fragrance</t>
-  </si>
-  <si>
-    <t>review/B0D1TZW8TL/R1FGEZCE4YU5CP</t>
-  </si>
-  <si>
-    <t>Rashmi Kapoor</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 5 July 2024</t>
-  </si>
-  <si>
-    <t>Excellent choice for gifting</t>
-  </si>
-  <si>
-    <t>review/B0CWH2XN6T/R2MG0PVLPTCUUM</t>
-  </si>
-  <si>
-    <t>Sneha Manocha</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 11 July 2024</t>
-  </si>
-  <si>
-    <t>Scalp massager</t>
-  </si>
-  <si>
-    <t>28484MF0U8JVI</t>
-  </si>
-  <si>
-    <t>Yash Shah</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 9 July 2024</t>
-  </si>
-  <si>
-    <t>Nice fragrance worth buying</t>
-  </si>
-  <si>
-    <t>review/B0CS6RSJTB/R2J6EVZIYDGE0O</t>
-  </si>
-  <si>
-    <t>Kanchan</t>
-  </si>
-  <si>
-    <t>Amazing fragrance</t>
-  </si>
-  <si>
-    <t>review/B0CS6R5NFH/R2ZSS4T0PI0QV</t>
-  </si>
-  <si>
-    <t>Perfect to gift</t>
-  </si>
-  <si>
-    <t>review/B0B7WN3GFF/R2EDTG2GAVFGR4</t>
-  </si>
-  <si>
-    <t>Neelu</t>
-  </si>
-  <si>
-    <t>review/B0CWTSM8Y7/R6W80KC827HRX</t>
-  </si>
-  <si>
-    <t>Kunal mahajan</t>
-  </si>
-  <si>
-    <t>review/B0CWTX999Q/RB922I8DXZNOQ</t>
-  </si>
-  <si>
-    <t>review/B0CRVJS1XG/RFEJ91ODYLQLG</t>
-  </si>
-  <si>
-    <t>Ever bst product</t>
-  </si>
-  <si>
-    <t>1VS598RNNALKE/</t>
-  </si>
-  <si>
-    <t>malhaar</t>
-  </si>
-  <si>
-    <t>Beardo Ball Safe Trimmer for Men - Private Part Shaving, Beard, Pubic Hair Groomer with Flexi Ball &amp; Comfort Curve, Waterproof, Cordless, Rechargeable - 0 Nicks or Cuts, Powerful Motor, Fast Charging, 110-Min Runtime</t>
-  </si>
-  <si>
-    <t>Good purchase</t>
-  </si>
-  <si>
-    <t>R38GBXXR0LYH0G</t>
-  </si>
-  <si>
-    <t>Nice quality perfumes.</t>
-  </si>
-  <si>
-    <t>R1G30YEMTQPHKC</t>
-  </si>
-  <si>
-    <t>Jani Borthakur</t>
-  </si>
-  <si>
-    <t>Amazing 😍</t>
-  </si>
-  <si>
-    <t>review/B0B7WN3GFF/R2VALB943PFOYU</t>
-  </si>
-  <si>
-    <t>Suraj Salunke</t>
-  </si>
-  <si>
-    <t>BEARDO MAX VOLUME</t>
-  </si>
-  <si>
-    <t>1GZ2RE1VBD3MH</t>
-  </si>
-  <si>
-    <t>Deepak Mishra</t>
-  </si>
-  <si>
-    <t>Easy and hygienic</t>
-  </si>
-  <si>
-    <t>review/B0CQYSDMK2/R237TR046Z4ART</t>
-  </si>
-  <si>
-    <t>Sumit</t>
-  </si>
-  <si>
-    <t>Must try it.</t>
-  </si>
-  <si>
-    <t>review/B0CWH2XN6T/R30B9HMZ3FA2D7</t>
-  </si>
-  <si>
-    <t>R1I70JWTDLG349</t>
-  </si>
-  <si>
-    <t>Very nice scalp massager</t>
-  </si>
-  <si>
-    <t>tps://www.amazon.in/gp/f.html?C=ETSVHW0T0C3M&amp;K=1ER7NTAE7D6ZN&amp;M=urn:rtn:msg:202407150557333baeddd223fa44099fee20bad4d0p0eu&amp;R=2BMDRGZV91J3C&amp;T=C&amp;U=https%3A%2F%2Fwww.amazon.in%2Freview%2FR1BUZ7X66TJSFV%2Fref%3Dpe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv&amp;H=JPOEERSA0PZNFAT0XXWCAXLKA3CA&amp;ref_=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
-  </si>
-  <si>
-    <t>review/B0CS6R5NFH/R1FHY6LF804E4C</t>
-  </si>
-  <si>
-    <t>great combination for perfume lover</t>
-  </si>
-  <si>
-    <t>review/B0CWTX999Q/RXQ9NYY48AOF7</t>
-  </si>
-  <si>
-    <t>Manas Malakar</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 16 July 2024</t>
-  </si>
-  <si>
-    <t>Good quality</t>
-  </si>
-  <si>
-    <t>R17LZLBRBEYSET</t>
-  </si>
-  <si>
-    <t>pratham jain</t>
-  </si>
-  <si>
-    <t>Best for Gifting your special one's</t>
-  </si>
-  <si>
-    <t>review/B0CW9J2RCL/R3P6SQADZ5KBOJ</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>The name is justified (Tornado)</t>
-  </si>
-  <si>
-    <t>review/B0CS6R5NFH/R1JAH7MR9YJE4G</t>
-  </si>
-  <si>
-    <t>Priyanka sethia</t>
-  </si>
-  <si>
-    <t>Excellent product</t>
-  </si>
-  <si>
-    <t>R3NTA52MHMNKMA</t>
-  </si>
-  <si>
-    <t>Dharmil shah</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 17 July 2024</t>
-  </si>
-  <si>
-    <t>Effective against acne scars</t>
-  </si>
-  <si>
-    <t>review/B0CW9J2RCL/R3PISOZE4U4IDC</t>
-  </si>
-  <si>
-    <t>Nilesh Mahajan</t>
-  </si>
-  <si>
-    <t>The Best Hair Dryer I’ve Ever Used</t>
-  </si>
-  <si>
-    <t>66M2R96Y59UP</t>
-  </si>
-  <si>
-    <t>Himanshu</t>
-  </si>
-  <si>
-    <t>Very effective for hair massage and penetration</t>
-  </si>
-  <si>
-    <t>tps://www.amazon.in/gp/f.html?C=ETSVHW0T0C3M&amp;K=1GX2N5VXODP60&amp;M=urn:rtn:msg:202407062043393cfb91a7a20943818ff99c6a1880p0eu&amp;R=3JWXXQTMU6WRP&amp;T=C&amp;U=https%3A%2F%2Fwww.amazon.in%2Freview%2FR3KGI05IXS49V6%2Fref%3Dpe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv&amp;H=4QCKSKFCRIFNN4N6BUIERFXCMVMA&amp;ref_=pe_1640331_66412301_SRTC0204BT_cm_rv_eml_rv0_rv</t>
-  </si>
-  <si>
-    <t>Rajat Mangla</t>
-  </si>
-  <si>
-    <t>Great fragrances</t>
-  </si>
-  <si>
-    <t>R1ABQ5FBZSITOV</t>
-  </si>
-  <si>
-    <t>MANMEET SINGH</t>
-  </si>
-  <si>
-    <t>Very nice product</t>
-  </si>
-  <si>
-    <t>R27RINJA3UDHYW</t>
-  </si>
-  <si>
-    <t>Beardo Sport Sunscreen Stick| Easy Reapplication | SPF 50 Pa+++ Broad Spectrum, UVA/UVB Rays Protection| Hyaluronic Acid &amp; Bamboo Extract For Hydration &amp; Reduces Dark Spots | No White Cast 20g</t>
-  </si>
-  <si>
-    <t>Small pack with great impact</t>
-  </si>
-  <si>
-    <t>R2N0IIKS007OYX</t>
-  </si>
-  <si>
-    <t>Mukesh Mehta</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 18 July 2024</t>
-  </si>
-  <si>
-    <t>Refreshing and long lasting</t>
-  </si>
-  <si>
-    <t>REC60734U4HNM</t>
-  </si>
-  <si>
-    <t>Gita Pandey</t>
-  </si>
-  <si>
-    <t>Very good perfume.</t>
-  </si>
-  <si>
-    <t>R34NRQX80Z0PYQ</t>
-  </si>
-  <si>
-    <t>Vijay</t>
-  </si>
-  <si>
-    <t>Reviewed in India on 15 July 2024</t>
-  </si>
-  <si>
-    <t>Awesome Hair dryer</t>
-  </si>
-  <si>
-    <t>RU7T2FA7B1VEP</t>
-  </si>
-  <si>
-    <t>Soft Scalp Massager</t>
-  </si>
-  <si>
-    <t>R99LSFK2L5Y70</t>
-  </si>
-  <si>
-    <t>Kalyani Dudhekar</t>
-  </si>
-  <si>
-    <t>Best perfume</t>
-  </si>
-  <si>
-    <t>R19D6OOEEKEXFJ</t>
-  </si>
-  <si>
-    <t>Gaurav kumar</t>
   </si>
 </sst>
 </file>
@@ -15569,8 +14399,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15626,4630 +14456,710 @@
       <c r="A2" s="1" t="s">
         <v>4470</v>
       </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4609</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4610</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4612</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4613</v>
-      </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>4614</v>
-      </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4471</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4615</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4616</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4617</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4618</v>
-      </c>
-      <c r="I3" t="s">
-        <v>4619</v>
-      </c>
-      <c r="J3">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>4614</v>
-      </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4472</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4620</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4616</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4617</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4621</v>
-      </c>
-      <c r="I4" t="s">
-        <v>4622</v>
-      </c>
-      <c r="J4">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>4614</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4473</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4623</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4624</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4625</v>
-      </c>
-      <c r="H5" t="s">
-        <v>4626</v>
-      </c>
-      <c r="I5" t="s">
-        <v>4627</v>
-      </c>
-      <c r="J5">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>4628</v>
-      </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4474</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4475</v>
       </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4629</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4630</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4631</v>
-      </c>
-      <c r="H7" t="s">
-        <v>4632</v>
-      </c>
-      <c r="I7" t="s">
-        <v>4633</v>
-      </c>
-      <c r="J7">
-        <v>52</v>
-      </c>
-      <c r="K7" t="s">
-        <v>4628</v>
-      </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4476</v>
       </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4634</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2068</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>4635</v>
-      </c>
-      <c r="H8" t="s">
-        <v>4636</v>
-      </c>
-      <c r="I8" t="s">
-        <v>4637</v>
-      </c>
-      <c r="J8">
-        <v>140</v>
-      </c>
-      <c r="K8" t="s">
-        <v>4628</v>
-      </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4477</v>
       </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4638</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4639</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>4640</v>
-      </c>
-      <c r="H9" t="s">
-        <v>4641</v>
-      </c>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9">
-        <v>10</v>
-      </c>
-      <c r="K9" t="s">
-        <v>4614</v>
-      </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4478</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4642</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4643</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>4644</v>
-      </c>
-      <c r="H10" t="s">
-        <v>4645</v>
-      </c>
-      <c r="I10" t="s">
-        <v>4646</v>
-      </c>
-      <c r="J10">
-        <v>61</v>
-      </c>
-      <c r="K10" t="s">
-        <v>4628</v>
-      </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4479</v>
       </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4647</v>
-      </c>
-      <c r="D11" t="s">
-        <v>787</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>4635</v>
-      </c>
-      <c r="H11" t="s">
-        <v>4636</v>
-      </c>
-      <c r="I11" t="s">
-        <v>4648</v>
-      </c>
-      <c r="J11">
-        <v>51</v>
-      </c>
-      <c r="K11" t="s">
-        <v>4628</v>
-      </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4480</v>
       </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4649</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4650</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>4651</v>
-      </c>
-      <c r="H12" t="s">
-        <v>4652</v>
-      </c>
-      <c r="I12" t="s">
-        <v>4653</v>
-      </c>
-      <c r="J12">
-        <v>42</v>
-      </c>
-      <c r="K12" t="s">
-        <v>4614</v>
-      </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4481</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4482</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4655</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14" t="s">
-        <v>4657</v>
-      </c>
-      <c r="H14" t="s">
-        <v>4658</v>
-      </c>
-      <c r="I14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14">
-        <v>35</v>
-      </c>
-      <c r="K14" t="s">
-        <v>4614</v>
-      </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4483</v>
       </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4659</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15" t="s">
-        <v>4660</v>
-      </c>
-      <c r="H15" t="s">
-        <v>4661</v>
-      </c>
-      <c r="I15" t="s">
-        <v>4662</v>
-      </c>
-      <c r="J15">
-        <v>43</v>
-      </c>
-      <c r="K15" t="s">
-        <v>4614</v>
-      </c>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4484</v>
       </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4663</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4664</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s">
-        <v>4665</v>
-      </c>
-      <c r="H16" t="s">
-        <v>4666</v>
-      </c>
-      <c r="I16" t="s">
-        <v>4667</v>
-      </c>
-      <c r="J16">
-        <v>19</v>
-      </c>
-      <c r="K16" t="s">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4485</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4486</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4487</v>
       </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4668</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="G19" t="s">
-        <v>4660</v>
-      </c>
-      <c r="H19" t="s">
-        <v>4669</v>
-      </c>
-      <c r="I19" t="s">
-        <v>252</v>
-      </c>
-      <c r="J19">
-        <v>48</v>
-      </c>
-      <c r="K19" t="s">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>4488</v>
       </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4670</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-      <c r="G20" t="s">
-        <v>4671</v>
-      </c>
-      <c r="H20" t="s">
-        <v>4672</v>
-      </c>
-      <c r="I20" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20">
-        <v>34</v>
-      </c>
-      <c r="K20" t="s">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4489</v>
       </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4673</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-      <c r="G21" t="s">
-        <v>4671</v>
-      </c>
-      <c r="H21" t="s">
-        <v>4672</v>
-      </c>
-      <c r="I21" t="s">
-        <v>252</v>
-      </c>
-      <c r="J21">
-        <v>25</v>
-      </c>
-      <c r="K21" t="s">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4490</v>
       </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4674</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-      <c r="G22" t="s">
-        <v>4675</v>
-      </c>
-      <c r="H22" t="s">
-        <v>4676</v>
-      </c>
-      <c r="I22" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22">
-        <v>97</v>
-      </c>
-      <c r="K22" t="s">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>4491</v>
       </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4677</v>
-      </c>
-      <c r="E23" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F23">
-        <v>5</v>
-      </c>
-      <c r="G23" t="s">
-        <v>4678</v>
-      </c>
-      <c r="H23" t="s">
-        <v>4679</v>
-      </c>
-      <c r="I23" t="s">
-        <v>252</v>
-      </c>
-      <c r="J23">
-        <v>29</v>
-      </c>
-      <c r="K23" t="s">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4492</v>
       </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4680</v>
-      </c>
-      <c r="E24" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F24">
-        <v>5</v>
-      </c>
-      <c r="G24" t="s">
-        <v>4681</v>
-      </c>
-      <c r="H24" t="s">
-        <v>4672</v>
-      </c>
-      <c r="I24" t="s">
-        <v>4682</v>
-      </c>
-      <c r="J24">
-        <v>39</v>
-      </c>
-      <c r="K24" t="s">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>4493</v>
       </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4683</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4684</v>
-      </c>
-      <c r="E25" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F25">
-        <v>5</v>
-      </c>
-      <c r="G25" t="s">
-        <v>4685</v>
-      </c>
-      <c r="H25" t="s">
-        <v>4686</v>
-      </c>
-      <c r="I25" t="s">
-        <v>4687</v>
-      </c>
-      <c r="J25">
-        <v>47</v>
-      </c>
-      <c r="K25" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>4494</v>
       </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4688</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4689</v>
-      </c>
-      <c r="E26" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F26">
-        <v>5</v>
-      </c>
-      <c r="G26" t="s">
-        <v>4690</v>
-      </c>
-      <c r="H26" t="s">
-        <v>4691</v>
-      </c>
-      <c r="I26" t="s">
-        <v>4692</v>
-      </c>
-      <c r="J26">
-        <v>39</v>
-      </c>
-      <c r="K26" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4495</v>
       </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4693</v>
-      </c>
-      <c r="E27" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-      <c r="G27" t="s">
-        <v>4694</v>
-      </c>
-      <c r="H27" t="s">
-        <v>4695</v>
-      </c>
-      <c r="I27" t="s">
-        <v>49</v>
-      </c>
-      <c r="J27">
-        <v>42</v>
-      </c>
-      <c r="K27" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>4496</v>
       </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4693</v>
-      </c>
-      <c r="E28" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F28">
-        <v>5</v>
-      </c>
-      <c r="G28" t="s">
-        <v>4694</v>
-      </c>
-      <c r="H28" t="s">
-        <v>4696</v>
-      </c>
-      <c r="I28" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28">
-        <v>54</v>
-      </c>
-      <c r="K28" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>4497</v>
       </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D29" t="s">
-        <v>4693</v>
-      </c>
-      <c r="E29" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F29">
-        <v>5</v>
-      </c>
-      <c r="G29" t="s">
-        <v>4694</v>
-      </c>
-      <c r="H29" t="s">
-        <v>4697</v>
-      </c>
-      <c r="I29" t="s">
-        <v>252</v>
-      </c>
-      <c r="J29">
-        <v>59</v>
-      </c>
-      <c r="K29" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>4498</v>
       </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D30" t="s">
-        <v>4693</v>
-      </c>
-      <c r="E30" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F30">
-        <v>5</v>
-      </c>
-      <c r="G30" t="s">
-        <v>4694</v>
-      </c>
-      <c r="H30" t="s">
-        <v>4698</v>
-      </c>
-      <c r="I30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30">
-        <v>36</v>
-      </c>
-      <c r="K30" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>4499</v>
       </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4699</v>
-      </c>
-      <c r="D31" t="s">
-        <v>4700</v>
-      </c>
-      <c r="E31" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F31">
-        <v>5</v>
-      </c>
-      <c r="G31" t="s">
-        <v>4625</v>
-      </c>
-      <c r="H31" t="s">
-        <v>4686</v>
-      </c>
-      <c r="I31" t="s">
-        <v>4701</v>
-      </c>
-      <c r="J31">
-        <v>59</v>
-      </c>
-      <c r="K31" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>4500</v>
       </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4702</v>
-      </c>
-      <c r="E32" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F32">
-        <v>5</v>
-      </c>
-      <c r="G32" t="s">
-        <v>4703</v>
-      </c>
-      <c r="H32" t="s">
-        <v>4669</v>
-      </c>
-      <c r="I32" t="s">
-        <v>39</v>
-      </c>
-      <c r="J32">
-        <v>40</v>
-      </c>
-      <c r="K32" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4501</v>
       </c>
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D33" t="s">
-        <v>4668</v>
-      </c>
-      <c r="E33" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F33">
-        <v>5</v>
-      </c>
-      <c r="G33" t="s">
-        <v>4703</v>
-      </c>
-      <c r="H33" t="s">
-        <v>4658</v>
-      </c>
-      <c r="I33" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33">
-        <v>62</v>
-      </c>
-      <c r="K33" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>4502</v>
       </c>
-      <c r="B34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D34" t="s">
-        <v>4668</v>
-      </c>
-      <c r="E34" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F34">
-        <v>5</v>
-      </c>
-      <c r="G34" t="s">
-        <v>4704</v>
-      </c>
-      <c r="H34" t="s">
-        <v>4705</v>
-      </c>
-      <c r="I34" t="s">
-        <v>91</v>
-      </c>
-      <c r="J34">
-        <v>61</v>
-      </c>
-      <c r="K34" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>4503</v>
       </c>
-      <c r="B35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4706</v>
-      </c>
-      <c r="D35" t="s">
-        <v>4707</v>
-      </c>
-      <c r="E35" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F35">
-        <v>5</v>
-      </c>
-      <c r="G35" t="s">
-        <v>4708</v>
-      </c>
-      <c r="H35" t="s">
-        <v>4709</v>
-      </c>
-      <c r="I35" t="s">
-        <v>4710</v>
-      </c>
-      <c r="J35">
-        <v>42</v>
-      </c>
-      <c r="K35" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>4504</v>
       </c>
-      <c r="B36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D36" t="s">
-        <v>4711</v>
-      </c>
-      <c r="E36" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F36">
-        <v>5</v>
-      </c>
-      <c r="G36" t="s">
-        <v>4712</v>
-      </c>
-      <c r="H36" t="s">
-        <v>4713</v>
-      </c>
-      <c r="I36" t="s">
-        <v>55</v>
-      </c>
-      <c r="J36">
-        <v>11</v>
-      </c>
-      <c r="K36" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>4505</v>
       </c>
-      <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D37" t="s">
-        <v>4711</v>
-      </c>
-      <c r="E37" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F37">
-        <v>5</v>
-      </c>
-      <c r="G37" t="s">
-        <v>4712</v>
-      </c>
-      <c r="H37" t="s">
-        <v>4698</v>
-      </c>
-      <c r="I37" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37">
-        <v>12</v>
-      </c>
-      <c r="K37" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>4506</v>
       </c>
-      <c r="B38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D38" t="s">
-        <v>4711</v>
-      </c>
-      <c r="E38" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F38">
-        <v>5</v>
-      </c>
-      <c r="G38" t="s">
-        <v>4712</v>
-      </c>
-      <c r="H38" t="s">
-        <v>4669</v>
-      </c>
-      <c r="I38" t="s">
-        <v>44</v>
-      </c>
-      <c r="J38">
-        <v>20</v>
-      </c>
-      <c r="K38" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>4507</v>
       </c>
-      <c r="B39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D39" t="s">
-        <v>4711</v>
-      </c>
-      <c r="E39" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F39">
-        <v>5</v>
-      </c>
-      <c r="G39" t="s">
-        <v>4712</v>
-      </c>
-      <c r="H39" t="s">
-        <v>4679</v>
-      </c>
-      <c r="I39" t="s">
-        <v>252</v>
-      </c>
-      <c r="J39">
-        <v>24</v>
-      </c>
-      <c r="K39" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>4508</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>4509</v>
       </c>
-      <c r="B41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4714</v>
-      </c>
-      <c r="D41" t="s">
-        <v>4715</v>
-      </c>
-      <c r="E41" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F41">
-        <v>5</v>
-      </c>
-      <c r="G41" t="s">
-        <v>4708</v>
-      </c>
-      <c r="H41" t="s">
-        <v>4716</v>
-      </c>
-      <c r="I41" t="s">
-        <v>4717</v>
-      </c>
-      <c r="J41">
-        <v>60</v>
-      </c>
-      <c r="K41" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4510</v>
       </c>
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" t="s">
-        <v>4718</v>
-      </c>
-      <c r="D42" t="s">
-        <v>4715</v>
-      </c>
-      <c r="E42" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F42">
-        <v>5</v>
-      </c>
-      <c r="G42" t="s">
-        <v>4708</v>
-      </c>
-      <c r="H42" t="s">
-        <v>4719</v>
-      </c>
-      <c r="I42" t="s">
-        <v>4720</v>
-      </c>
-      <c r="J42">
-        <v>68</v>
-      </c>
-      <c r="K42" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>4511</v>
       </c>
-      <c r="B43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" t="s">
-        <v>4721</v>
-      </c>
-      <c r="D43" t="s">
-        <v>4715</v>
-      </c>
-      <c r="E43" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F43">
-        <v>5</v>
-      </c>
-      <c r="G43" t="s">
-        <v>4708</v>
-      </c>
-      <c r="H43" t="s">
-        <v>4722</v>
-      </c>
-      <c r="I43" t="s">
-        <v>4723</v>
-      </c>
-      <c r="J43">
-        <v>84</v>
-      </c>
-      <c r="K43" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>4512</v>
       </c>
-      <c r="B44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" t="s">
-        <v>4724</v>
-      </c>
-      <c r="D44" t="s">
-        <v>4725</v>
-      </c>
-      <c r="E44" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F44">
-        <v>5</v>
-      </c>
-      <c r="G44" t="s">
-        <v>4708</v>
-      </c>
-      <c r="H44" t="s">
-        <v>4726</v>
-      </c>
-      <c r="I44" t="s">
-        <v>4727</v>
-      </c>
-      <c r="J44">
-        <v>66</v>
-      </c>
-      <c r="K44" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>4513</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>4514</v>
       </c>
-      <c r="B46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D46" t="s">
-        <v>4728</v>
-      </c>
-      <c r="E46" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F46">
-        <v>5</v>
-      </c>
-      <c r="G46" t="s">
-        <v>4729</v>
-      </c>
-      <c r="H46" t="s">
-        <v>4730</v>
-      </c>
-      <c r="I46" t="s">
-        <v>60</v>
-      </c>
-      <c r="J46">
-        <v>51</v>
-      </c>
-      <c r="K46" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>4515</v>
       </c>
-      <c r="B47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D47" t="s">
-        <v>4668</v>
-      </c>
-      <c r="E47" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F47">
-        <v>5</v>
-      </c>
-      <c r="G47" t="s">
-        <v>4703</v>
-      </c>
-      <c r="H47" t="s">
-        <v>4679</v>
-      </c>
-      <c r="I47" t="s">
-        <v>67</v>
-      </c>
-      <c r="J47">
-        <v>49</v>
-      </c>
-      <c r="K47" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>4516</v>
       </c>
-      <c r="B48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" t="s">
-        <v>4731</v>
-      </c>
-      <c r="D48" t="s">
-        <v>4732</v>
-      </c>
-      <c r="E48" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F48">
-        <v>5</v>
-      </c>
-      <c r="G48" t="s">
-        <v>4733</v>
-      </c>
-      <c r="H48" t="s">
-        <v>4734</v>
-      </c>
-      <c r="I48" t="s">
-        <v>4735</v>
-      </c>
-      <c r="J48">
-        <v>54</v>
-      </c>
-      <c r="K48" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>4517</v>
       </c>
-      <c r="B49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D49" t="s">
-        <v>4728</v>
-      </c>
-      <c r="E49" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F49">
-        <v>5</v>
-      </c>
-      <c r="G49" t="s">
-        <v>4736</v>
-      </c>
-      <c r="H49" t="s">
-        <v>4698</v>
-      </c>
-      <c r="I49" t="s">
-        <v>32</v>
-      </c>
-      <c r="J49">
-        <v>56</v>
-      </c>
-      <c r="K49" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>4518</v>
       </c>
-      <c r="B50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D50" t="s">
-        <v>4737</v>
-      </c>
-      <c r="E50" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F50">
-        <v>5</v>
-      </c>
-      <c r="G50" t="s">
-        <v>4736</v>
-      </c>
-      <c r="H50" t="s">
-        <v>4698</v>
-      </c>
-      <c r="I50" t="s">
-        <v>44</v>
-      </c>
-      <c r="J50">
-        <v>52</v>
-      </c>
-      <c r="K50" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>4519</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>4520</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>4521</v>
       </c>
-      <c r="B53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D53" t="s">
-        <v>4738</v>
-      </c>
-      <c r="E53" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F53">
-        <v>5</v>
-      </c>
-      <c r="G53" t="s">
-        <v>4739</v>
-      </c>
-      <c r="H53" t="s">
-        <v>4730</v>
-      </c>
-      <c r="I53" t="s">
-        <v>252</v>
-      </c>
-      <c r="J53">
-        <v>31</v>
-      </c>
-      <c r="K53" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>4522</v>
       </c>
-      <c r="B54" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1806</v>
-      </c>
-      <c r="E54" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F54">
-        <v>5</v>
-      </c>
-      <c r="G54" t="s">
-        <v>4660</v>
-      </c>
-      <c r="H54" t="s">
-        <v>4740</v>
-      </c>
-      <c r="I54" t="s">
-        <v>237</v>
-      </c>
-      <c r="J54">
-        <v>51</v>
-      </c>
-      <c r="K54" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>4523</v>
       </c>
-      <c r="B55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D55" t="s">
-        <v>4741</v>
-      </c>
-      <c r="E55" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F55">
-        <v>5</v>
-      </c>
-      <c r="G55" t="s">
-        <v>4742</v>
-      </c>
-      <c r="H55" t="s">
-        <v>4661</v>
-      </c>
-      <c r="I55" t="s">
-        <v>44</v>
-      </c>
-      <c r="J55">
-        <v>52</v>
-      </c>
-      <c r="K55" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>4524</v>
       </c>
-      <c r="B56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D56" t="s">
-        <v>4743</v>
-      </c>
-      <c r="E56" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F56">
-        <v>5</v>
-      </c>
-      <c r="G56" t="s">
-        <v>4678</v>
-      </c>
-      <c r="H56" t="s">
-        <v>4705</v>
-      </c>
-      <c r="I56" t="s">
-        <v>39</v>
-      </c>
-      <c r="J56">
-        <v>23</v>
-      </c>
-      <c r="K56" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>4525</v>
       </c>
-      <c r="B57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" t="s">
-        <v>4744</v>
-      </c>
-      <c r="D57" t="s">
-        <v>4659</v>
-      </c>
-      <c r="E57" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F57">
-        <v>5</v>
-      </c>
-      <c r="G57" t="s">
-        <v>4745</v>
-      </c>
-      <c r="H57" t="s">
-        <v>4746</v>
-      </c>
-      <c r="I57" t="s">
-        <v>4747</v>
-      </c>
-      <c r="J57">
-        <v>45</v>
-      </c>
-      <c r="K57" t="s">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>4526</v>
       </c>
-      <c r="B58" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" t="s">
-        <v>4748</v>
-      </c>
-      <c r="D58" t="s">
-        <v>4749</v>
-      </c>
-      <c r="E58" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F58">
-        <v>5</v>
-      </c>
-      <c r="G58" t="s">
-        <v>4644</v>
-      </c>
-      <c r="H58" t="s">
-        <v>4686</v>
-      </c>
-      <c r="I58" t="s">
-        <v>4750</v>
-      </c>
-      <c r="J58">
-        <v>20</v>
-      </c>
-      <c r="K58" t="s">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>4527</v>
       </c>
-      <c r="B59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D59" t="s">
-        <v>4751</v>
-      </c>
-      <c r="E59" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F59">
-        <v>5</v>
-      </c>
-      <c r="G59" t="s">
-        <v>4694</v>
-      </c>
-      <c r="H59" t="s">
-        <v>4669</v>
-      </c>
-      <c r="I59" t="s">
-        <v>60</v>
-      </c>
-      <c r="J59">
-        <v>28</v>
-      </c>
-      <c r="K59" t="s">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>4528</v>
       </c>
-      <c r="B60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D60" t="s">
-        <v>4752</v>
-      </c>
-      <c r="E60" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F60">
-        <v>5</v>
-      </c>
-      <c r="G60" t="s">
-        <v>4753</v>
-      </c>
-      <c r="H60" t="s">
-        <v>4669</v>
-      </c>
-      <c r="I60" t="s">
-        <v>70</v>
-      </c>
-      <c r="J60">
-        <v>49</v>
-      </c>
-      <c r="K60" t="s">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>4529</v>
       </c>
-      <c r="B61" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" t="s">
-        <v>4654</v>
-      </c>
-      <c r="D61" t="s">
-        <v>4754</v>
-      </c>
-      <c r="E61" t="s">
-        <v>4656</v>
-      </c>
-      <c r="F61">
-        <v>5</v>
-      </c>
-      <c r="G61" t="s">
-        <v>4704</v>
-      </c>
-      <c r="H61" t="s">
-        <v>4679</v>
-      </c>
-      <c r="I61" t="s">
-        <v>139</v>
-      </c>
-      <c r="J61">
-        <v>59</v>
-      </c>
-      <c r="K61" t="s">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>4530</v>
       </c>
-      <c r="B62" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" t="s">
-        <v>4755</v>
-      </c>
-      <c r="D62" t="s">
-        <v>4756</v>
-      </c>
-      <c r="E62" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F62">
-        <v>5</v>
-      </c>
-      <c r="G62" t="s">
-        <v>4612</v>
-      </c>
-      <c r="H62" t="s">
-        <v>4757</v>
-      </c>
-      <c r="I62" t="s">
-        <v>4758</v>
-      </c>
-      <c r="J62">
-        <v>29</v>
-      </c>
-      <c r="K62" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>4531</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>4532</v>
       </c>
-      <c r="B64" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" t="s">
-        <v>4759</v>
-      </c>
-      <c r="D64" t="s">
-        <v>4760</v>
-      </c>
-      <c r="E64" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F64">
-        <v>5</v>
-      </c>
-      <c r="G64" t="s">
-        <v>4761</v>
-      </c>
-      <c r="H64" t="s">
-        <v>4762</v>
-      </c>
-      <c r="I64" t="s">
-        <v>4763</v>
-      </c>
-      <c r="J64">
-        <v>15</v>
-      </c>
-      <c r="K64" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>4533</v>
       </c>
-      <c r="B65" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" t="s">
-        <v>4764</v>
-      </c>
-      <c r="D65" t="s">
-        <v>4765</v>
-      </c>
-      <c r="E65" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F65">
-        <v>5</v>
-      </c>
-      <c r="G65" t="s">
-        <v>4761</v>
-      </c>
-      <c r="H65" t="s">
-        <v>4766</v>
-      </c>
-      <c r="I65" t="s">
-        <v>4767</v>
-      </c>
-      <c r="J65">
-        <v>34</v>
-      </c>
-      <c r="K65" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>4534</v>
       </c>
-      <c r="B66" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" t="s">
-        <v>4768</v>
-      </c>
-      <c r="D66" t="s">
-        <v>4769</v>
-      </c>
-      <c r="E66" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F66">
-        <v>5</v>
-      </c>
-      <c r="G66" t="s">
-        <v>4770</v>
-      </c>
-      <c r="H66" t="s">
-        <v>4771</v>
-      </c>
-      <c r="I66" t="s">
-        <v>4772</v>
-      </c>
-      <c r="J66">
-        <v>29</v>
-      </c>
-      <c r="K66" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>4535</v>
       </c>
-      <c r="B67" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" t="s">
-        <v>4773</v>
-      </c>
-      <c r="D67" t="s">
-        <v>4774</v>
-      </c>
-      <c r="E67" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F67">
-        <v>5</v>
-      </c>
-      <c r="G67" t="s">
-        <v>4612</v>
-      </c>
-      <c r="H67" t="s">
-        <v>4775</v>
-      </c>
-      <c r="I67" t="s">
-        <v>4776</v>
-      </c>
-      <c r="J67">
-        <v>22</v>
-      </c>
-      <c r="K67" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>4536</v>
       </c>
-      <c r="B68" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68" t="s">
-        <v>4777</v>
-      </c>
-      <c r="D68" t="s">
-        <v>4778</v>
-      </c>
-      <c r="E68" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F68">
-        <v>5</v>
-      </c>
-      <c r="G68" t="s">
-        <v>4761</v>
-      </c>
-      <c r="H68" t="s">
-        <v>4779</v>
-      </c>
-      <c r="I68" t="s">
-        <v>4780</v>
-      </c>
-      <c r="J68">
-        <v>13</v>
-      </c>
-      <c r="K68" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>4537</v>
       </c>
-      <c r="B69" t="s">
-        <v>29</v>
-      </c>
-      <c r="C69" t="s">
-        <v>4781</v>
-      </c>
-      <c r="D69" t="s">
-        <v>4782</v>
-      </c>
-      <c r="E69" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F69">
-        <v>5</v>
-      </c>
-      <c r="G69" t="s">
-        <v>4783</v>
-      </c>
-      <c r="H69" t="s">
-        <v>4784</v>
-      </c>
-      <c r="I69" t="s">
-        <v>4785</v>
-      </c>
-      <c r="J69">
-        <v>11</v>
-      </c>
-      <c r="K69" t="s">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>4538</v>
       </c>
-      <c r="B70" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" t="s">
-        <v>4786</v>
-      </c>
-      <c r="D70" t="s">
-        <v>4787</v>
-      </c>
-      <c r="E70" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F70">
-        <v>5</v>
-      </c>
-      <c r="G70" t="s">
-        <v>4761</v>
-      </c>
-      <c r="H70" t="s">
-        <v>4788</v>
-      </c>
-      <c r="I70" t="s">
-        <v>4789</v>
-      </c>
-      <c r="J70">
-        <v>37</v>
-      </c>
-      <c r="K70" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>4539</v>
       </c>
-      <c r="B71" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" t="s">
-        <v>4790</v>
-      </c>
-      <c r="D71" t="s">
-        <v>4791</v>
-      </c>
-      <c r="E71" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F71">
-        <v>5</v>
-      </c>
-      <c r="G71" t="s">
-        <v>4792</v>
-      </c>
-      <c r="H71" t="s">
-        <v>4766</v>
-      </c>
-      <c r="I71" t="s">
-        <v>4793</v>
-      </c>
-      <c r="J71">
-        <v>100</v>
-      </c>
-      <c r="K71" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>4540</v>
       </c>
-      <c r="B72" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" t="s">
-        <v>4794</v>
-      </c>
-      <c r="D72" t="s">
-        <v>4795</v>
-      </c>
-      <c r="E72" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F72">
-        <v>5</v>
-      </c>
-      <c r="G72" t="s">
-        <v>4783</v>
-      </c>
-      <c r="H72" t="s">
-        <v>4775</v>
-      </c>
-      <c r="I72" t="s">
-        <v>4796</v>
-      </c>
-      <c r="J72">
-        <v>35</v>
-      </c>
-      <c r="K72" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>4541</v>
       </c>
-      <c r="B73" t="s">
-        <v>29</v>
-      </c>
-      <c r="C73" t="s">
-        <v>4797</v>
-      </c>
-      <c r="D73" t="s">
-        <v>4798</v>
-      </c>
-      <c r="E73" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F73">
-        <v>5</v>
-      </c>
-      <c r="G73" t="s">
-        <v>4761</v>
-      </c>
-      <c r="H73" t="s">
-        <v>4799</v>
-      </c>
-      <c r="I73" t="s">
-        <v>4800</v>
-      </c>
-      <c r="J73">
-        <v>44</v>
-      </c>
-      <c r="K73" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>4542</v>
       </c>
-      <c r="B74" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74" t="s">
-        <v>4801</v>
-      </c>
-      <c r="D74" t="s">
-        <v>4798</v>
-      </c>
-      <c r="E74" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F74">
-        <v>5</v>
-      </c>
-      <c r="G74" t="s">
-        <v>4761</v>
-      </c>
-      <c r="H74" t="s">
-        <v>4802</v>
-      </c>
-      <c r="I74" t="s">
-        <v>4803</v>
-      </c>
-      <c r="J74">
-        <v>42</v>
-      </c>
-      <c r="K74" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>4543</v>
       </c>
-      <c r="B75" t="s">
-        <v>29</v>
-      </c>
-      <c r="C75" t="s">
-        <v>4804</v>
-      </c>
-      <c r="D75" t="s">
-        <v>4805</v>
-      </c>
-      <c r="E75" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F75">
-        <v>5</v>
-      </c>
-      <c r="G75" t="s">
-        <v>4761</v>
-      </c>
-      <c r="H75" t="s">
-        <v>4806</v>
-      </c>
-      <c r="I75" t="s">
-        <v>4807</v>
-      </c>
-      <c r="J75">
-        <v>99</v>
-      </c>
-      <c r="K75" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>4544</v>
       </c>
-      <c r="B76" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" t="s">
-        <v>4808</v>
-      </c>
-      <c r="D76" t="s">
-        <v>4765</v>
-      </c>
-      <c r="E76" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F76">
-        <v>5</v>
-      </c>
-      <c r="G76" t="s">
-        <v>4809</v>
-      </c>
-      <c r="H76" t="s">
-        <v>4810</v>
-      </c>
-      <c r="I76" t="s">
-        <v>4811</v>
-      </c>
-      <c r="J76">
-        <v>30</v>
-      </c>
-      <c r="K76" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>4545</v>
       </c>
-      <c r="B77" t="s">
-        <v>29</v>
-      </c>
-      <c r="C77" t="s">
-        <v>4812</v>
-      </c>
-      <c r="D77" t="s">
-        <v>4756</v>
-      </c>
-      <c r="E77" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F77">
-        <v>5</v>
-      </c>
-      <c r="G77" t="s">
-        <v>4813</v>
-      </c>
-      <c r="H77" t="s">
-        <v>4814</v>
-      </c>
-      <c r="I77" t="s">
-        <v>252</v>
-      </c>
-      <c r="J77">
-        <v>34</v>
-      </c>
-      <c r="K77" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>4815</v>
-      </c>
-      <c r="B78" t="s">
-        <v>29</v>
-      </c>
-      <c r="C78" t="s">
-        <v>4816</v>
-      </c>
-      <c r="D78" t="s">
-        <v>4817</v>
-      </c>
-      <c r="E78" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F78">
-        <v>5</v>
-      </c>
-      <c r="G78" t="s">
-        <v>4818</v>
-      </c>
-      <c r="H78" t="s">
-        <v>4810</v>
-      </c>
-      <c r="I78" t="s">
-        <v>4819</v>
-      </c>
-      <c r="J78">
-        <v>26</v>
-      </c>
-      <c r="K78" t="s">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4609</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>4546</v>
       </c>
-      <c r="B79" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" t="s">
-        <v>4820</v>
-      </c>
-      <c r="D79" t="s">
-        <v>4821</v>
-      </c>
-      <c r="E79" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F79">
-        <v>5</v>
-      </c>
-      <c r="G79" t="s">
-        <v>4818</v>
-      </c>
-      <c r="H79" t="s">
-        <v>4806</v>
-      </c>
-      <c r="I79" t="s">
-        <v>4822</v>
-      </c>
-      <c r="J79">
-        <v>64</v>
-      </c>
-      <c r="K79" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>4547</v>
       </c>
-      <c r="B80" t="s">
-        <v>29</v>
-      </c>
-      <c r="C80" t="s">
-        <v>4823</v>
-      </c>
-      <c r="D80" t="s">
-        <v>4824</v>
-      </c>
-      <c r="E80" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F80">
-        <v>5</v>
-      </c>
-      <c r="G80" t="s">
-        <v>4818</v>
-      </c>
-      <c r="H80" t="s">
-        <v>4799</v>
-      </c>
-      <c r="I80" t="s">
-        <v>4825</v>
-      </c>
-      <c r="J80">
-        <v>47</v>
-      </c>
-      <c r="K80" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>4548</v>
       </c>
-      <c r="B81" t="s">
-        <v>29</v>
-      </c>
-      <c r="C81" t="s">
-        <v>4826</v>
-      </c>
-      <c r="D81" t="s">
-        <v>4827</v>
-      </c>
-      <c r="E81" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F81">
-        <v>5</v>
-      </c>
-      <c r="G81" t="s">
-        <v>4828</v>
-      </c>
-      <c r="H81" t="s">
-        <v>4771</v>
-      </c>
-      <c r="I81" t="s">
-        <v>4829</v>
-      </c>
-      <c r="J81">
-        <v>17</v>
-      </c>
-      <c r="K81" t="s">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>4549</v>
       </c>
-      <c r="B82" t="s">
-        <v>29</v>
-      </c>
-      <c r="C82" t="s">
-        <v>4830</v>
-      </c>
-      <c r="D82" t="s">
-        <v>4760</v>
-      </c>
-      <c r="E82" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F82">
-        <v>5</v>
-      </c>
-      <c r="G82" t="s">
-        <v>4831</v>
-      </c>
-      <c r="H82" t="s">
-        <v>4832</v>
-      </c>
-      <c r="I82" t="s">
-        <v>4763</v>
-      </c>
-      <c r="J82">
-        <v>18</v>
-      </c>
-      <c r="K82" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>4550</v>
       </c>
-      <c r="B83" t="s">
-        <v>29</v>
-      </c>
-      <c r="C83" t="s">
-        <v>4833</v>
-      </c>
-      <c r="D83" t="s">
-        <v>4834</v>
-      </c>
-      <c r="E83" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F83">
-        <v>5</v>
-      </c>
-      <c r="G83" t="s">
-        <v>4792</v>
-      </c>
-      <c r="H83" t="s">
-        <v>4762</v>
-      </c>
-      <c r="I83" t="s">
-        <v>4835</v>
-      </c>
-      <c r="J83">
-        <v>43</v>
-      </c>
-      <c r="K83" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>4551</v>
       </c>
-      <c r="B84" t="s">
-        <v>29</v>
-      </c>
-      <c r="C84" t="s">
-        <v>4836</v>
-      </c>
-      <c r="D84" t="s">
-        <v>4805</v>
-      </c>
-      <c r="E84" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F84">
-        <v>5</v>
-      </c>
-      <c r="G84" t="s">
-        <v>4809</v>
-      </c>
-      <c r="H84" t="s">
-        <v>4810</v>
-      </c>
-      <c r="I84" t="s">
-        <v>4837</v>
-      </c>
-      <c r="J84">
-        <v>43</v>
-      </c>
-      <c r="K84" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>4552</v>
       </c>
-      <c r="B85" t="s">
-        <v>29</v>
-      </c>
-      <c r="C85" t="s">
-        <v>4838</v>
-      </c>
-      <c r="D85" t="s">
-        <v>4839</v>
-      </c>
-      <c r="E85" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F85">
-        <v>5</v>
-      </c>
-      <c r="G85" t="s">
-        <v>4840</v>
-      </c>
-      <c r="H85" t="s">
-        <v>4771</v>
-      </c>
-      <c r="I85" t="s">
-        <v>4841</v>
-      </c>
-      <c r="J85">
-        <v>32</v>
-      </c>
-      <c r="K85" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>4553</v>
       </c>
-      <c r="B86" t="s">
-        <v>29</v>
-      </c>
-      <c r="C86" t="s">
-        <v>4842</v>
-      </c>
-      <c r="D86" t="s">
-        <v>4610</v>
-      </c>
-      <c r="E86" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F86">
-        <v>5</v>
-      </c>
-      <c r="G86" t="s">
-        <v>4831</v>
-      </c>
-      <c r="H86" t="s">
-        <v>4766</v>
-      </c>
-      <c r="I86" t="s">
-        <v>4843</v>
-      </c>
-      <c r="J86">
-        <v>105</v>
-      </c>
-      <c r="K86" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>4554</v>
       </c>
-      <c r="B87" t="s">
-        <v>29</v>
-      </c>
-      <c r="C87" t="s">
-        <v>4844</v>
-      </c>
-      <c r="D87" t="s">
-        <v>4845</v>
-      </c>
-      <c r="E87" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F87">
-        <v>5</v>
-      </c>
-      <c r="G87" t="s">
-        <v>4846</v>
-      </c>
-      <c r="H87" t="s">
-        <v>4766</v>
-      </c>
-      <c r="I87" t="s">
-        <v>4847</v>
-      </c>
-      <c r="J87">
-        <v>44</v>
-      </c>
-      <c r="K87" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>4555</v>
       </c>
-      <c r="B88" t="s">
-        <v>29</v>
-      </c>
-      <c r="C88" t="s">
-        <v>4848</v>
-      </c>
-      <c r="D88" t="s">
-        <v>4849</v>
-      </c>
-      <c r="E88" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F88">
-        <v>5</v>
-      </c>
-      <c r="G88" t="s">
-        <v>4818</v>
-      </c>
-      <c r="H88" t="s">
-        <v>4806</v>
-      </c>
-      <c r="I88" t="s">
-        <v>4850</v>
-      </c>
-      <c r="J88">
-        <v>30</v>
-      </c>
-      <c r="K88" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>4556</v>
       </c>
-      <c r="B89" t="s">
-        <v>29</v>
-      </c>
-      <c r="C89" t="s">
-        <v>4851</v>
-      </c>
-      <c r="D89" t="s">
-        <v>4849</v>
-      </c>
-      <c r="E89" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F89">
-        <v>5</v>
-      </c>
-      <c r="G89" t="s">
-        <v>4852</v>
-      </c>
-      <c r="H89" t="s">
-        <v>4853</v>
-      </c>
-      <c r="I89" t="s">
-        <v>4854</v>
-      </c>
-      <c r="J89">
-        <v>34</v>
-      </c>
-      <c r="K89" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>4557</v>
       </c>
-      <c r="B90" t="s">
-        <v>29</v>
-      </c>
-      <c r="C90" t="s">
-        <v>4855</v>
-      </c>
-      <c r="D90" t="s">
-        <v>4856</v>
-      </c>
-      <c r="E90" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F90">
-        <v>5</v>
-      </c>
-      <c r="G90" t="s">
-        <v>4857</v>
-      </c>
-      <c r="H90" t="s">
-        <v>4779</v>
-      </c>
-      <c r="I90" t="s">
-        <v>4858</v>
-      </c>
-      <c r="J90">
-        <v>26</v>
-      </c>
-      <c r="K90" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>4558</v>
       </c>
-      <c r="B91" t="s">
-        <v>29</v>
-      </c>
-      <c r="C91" t="s">
-        <v>4859</v>
-      </c>
-      <c r="D91" t="s">
-        <v>4860</v>
-      </c>
-      <c r="E91" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F91">
-        <v>5</v>
-      </c>
-      <c r="G91" t="s">
-        <v>4625</v>
-      </c>
-      <c r="H91" t="s">
-        <v>4775</v>
-      </c>
-      <c r="I91" t="s">
-        <v>4861</v>
-      </c>
-      <c r="J91">
-        <v>61</v>
-      </c>
-      <c r="K91" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>4559</v>
       </c>
-      <c r="B92" t="s">
-        <v>29</v>
-      </c>
-      <c r="C92" t="s">
-        <v>4862</v>
-      </c>
-      <c r="D92" t="s">
-        <v>4863</v>
-      </c>
-      <c r="E92" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F92">
-        <v>5</v>
-      </c>
-      <c r="G92" t="s">
-        <v>4631</v>
-      </c>
-      <c r="H92" t="s">
-        <v>4799</v>
-      </c>
-      <c r="I92" t="s">
-        <v>4864</v>
-      </c>
-      <c r="J92">
-        <v>46</v>
-      </c>
-      <c r="K92" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>4560</v>
       </c>
-      <c r="B93" t="s">
-        <v>29</v>
-      </c>
-      <c r="C93" t="s">
-        <v>4865</v>
-      </c>
-      <c r="D93" t="s">
-        <v>4630</v>
-      </c>
-      <c r="E93" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F93">
-        <v>5</v>
-      </c>
-      <c r="G93" t="s">
-        <v>4631</v>
-      </c>
-      <c r="H93" t="s">
-        <v>4771</v>
-      </c>
-      <c r="I93" t="s">
-        <v>4866</v>
-      </c>
-      <c r="J93">
-        <v>35</v>
-      </c>
-      <c r="K93" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>4561</v>
       </c>
-      <c r="B94" t="s">
-        <v>29</v>
-      </c>
-      <c r="C94" t="s">
-        <v>4867</v>
-      </c>
-      <c r="D94" t="s">
-        <v>4868</v>
-      </c>
-      <c r="E94" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F94">
-        <v>5</v>
-      </c>
-      <c r="G94" t="s">
-        <v>4617</v>
-      </c>
-      <c r="H94" t="s">
-        <v>4832</v>
-      </c>
-      <c r="I94" t="s">
-        <v>4869</v>
-      </c>
-      <c r="J94">
-        <v>65</v>
-      </c>
-      <c r="K94" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>4562</v>
       </c>
-      <c r="B95" t="s">
-        <v>29</v>
-      </c>
-      <c r="C95" t="s">
-        <v>4870</v>
-      </c>
-      <c r="D95" t="s">
-        <v>4871</v>
-      </c>
-      <c r="E95" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F95">
-        <v>5</v>
-      </c>
-      <c r="G95" t="s">
-        <v>4852</v>
-      </c>
-      <c r="H95" t="s">
-        <v>4872</v>
-      </c>
-      <c r="I95" t="s">
-        <v>4873</v>
-      </c>
-      <c r="J95">
-        <v>56</v>
-      </c>
-      <c r="K95" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>4563</v>
       </c>
-      <c r="B96" t="s">
-        <v>29</v>
-      </c>
-      <c r="C96" t="s">
-        <v>4874</v>
-      </c>
-      <c r="D96" t="s">
-        <v>4871</v>
-      </c>
-      <c r="E96" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F96">
-        <v>5</v>
-      </c>
-      <c r="G96" t="s">
-        <v>4852</v>
-      </c>
-      <c r="H96" t="s">
-        <v>4766</v>
-      </c>
-      <c r="I96" t="s">
-        <v>4875</v>
-      </c>
-      <c r="J96">
-        <v>52</v>
-      </c>
-      <c r="K96" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>4564</v>
       </c>
-      <c r="B97" t="s">
-        <v>29</v>
-      </c>
-      <c r="C97" t="s">
-        <v>4876</v>
-      </c>
-      <c r="D97" t="s">
-        <v>4877</v>
-      </c>
-      <c r="E97" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F97">
-        <v>5</v>
-      </c>
-      <c r="G97" t="s">
-        <v>4852</v>
-      </c>
-      <c r="H97" t="s">
-        <v>4766</v>
-      </c>
-      <c r="I97" t="s">
-        <v>4878</v>
-      </c>
-      <c r="J97">
-        <v>80</v>
-      </c>
-      <c r="K97" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>4565</v>
       </c>
-      <c r="B98" t="s">
-        <v>29</v>
-      </c>
-      <c r="C98" t="s">
-        <v>4879</v>
-      </c>
-      <c r="D98" t="s">
-        <v>4880</v>
-      </c>
-      <c r="E98" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F98">
-        <v>5</v>
-      </c>
-      <c r="G98" t="s">
-        <v>4831</v>
-      </c>
-      <c r="H98" t="s">
-        <v>4872</v>
-      </c>
-      <c r="I98" t="s">
-        <v>4881</v>
-      </c>
-      <c r="J98">
-        <v>17</v>
-      </c>
-      <c r="K98" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>4566</v>
       </c>
-      <c r="B99" t="s">
-        <v>29</v>
-      </c>
-      <c r="C99" t="s">
-        <v>4882</v>
-      </c>
-      <c r="D99" t="s">
-        <v>4883</v>
-      </c>
-      <c r="E99" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F99">
-        <v>5</v>
-      </c>
-      <c r="G99" t="s">
-        <v>4884</v>
-      </c>
-      <c r="H99" t="s">
-        <v>4832</v>
-      </c>
-      <c r="I99" t="s">
-        <v>4885</v>
-      </c>
-      <c r="J99">
-        <v>21</v>
-      </c>
-      <c r="K99" t="s">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>4567</v>
       </c>
-      <c r="B100" t="s">
-        <v>29</v>
-      </c>
-      <c r="C100" t="s">
-        <v>4886</v>
-      </c>
-      <c r="D100" t="s">
-        <v>4887</v>
-      </c>
-      <c r="E100" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F100">
-        <v>5</v>
-      </c>
-      <c r="G100" t="s">
-        <v>4884</v>
-      </c>
-      <c r="H100" t="s">
-        <v>4762</v>
-      </c>
-      <c r="I100" t="s">
-        <v>4888</v>
-      </c>
-      <c r="J100">
-        <v>25</v>
-      </c>
-      <c r="K100" t="s">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>4568</v>
       </c>
-      <c r="B101" t="s">
-        <v>29</v>
-      </c>
-      <c r="C101" t="s">
-        <v>4889</v>
-      </c>
-      <c r="D101" t="s">
-        <v>4630</v>
-      </c>
-      <c r="E101" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F101">
-        <v>5</v>
-      </c>
-      <c r="G101" t="s">
-        <v>4890</v>
-      </c>
-      <c r="H101" t="s">
-        <v>4762</v>
-      </c>
-      <c r="I101" t="s">
-        <v>4891</v>
-      </c>
-      <c r="J101">
-        <v>43</v>
-      </c>
-      <c r="K101" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>4569</v>
       </c>
-      <c r="B102" t="s">
-        <v>29</v>
-      </c>
-      <c r="C102" t="s">
-        <v>4892</v>
-      </c>
-      <c r="D102" t="s">
-        <v>4893</v>
-      </c>
-      <c r="E102" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F102">
-        <v>5</v>
-      </c>
-      <c r="G102" t="s">
-        <v>4708</v>
-      </c>
-      <c r="H102" t="s">
-        <v>4775</v>
-      </c>
-      <c r="I102" t="s">
-        <v>4894</v>
-      </c>
-      <c r="J102">
-        <v>58</v>
-      </c>
-      <c r="K102" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>4570</v>
       </c>
-      <c r="B103" t="s">
-        <v>29</v>
-      </c>
-      <c r="C103" t="s">
-        <v>4895</v>
-      </c>
-      <c r="D103" t="s">
-        <v>4896</v>
-      </c>
-      <c r="E103" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F103">
-        <v>5</v>
-      </c>
-      <c r="G103" t="s">
-        <v>4890</v>
-      </c>
-      <c r="H103" t="s">
-        <v>4788</v>
-      </c>
-      <c r="I103" t="s">
-        <v>32</v>
-      </c>
-      <c r="J103">
-        <v>37</v>
-      </c>
-      <c r="K103" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>4571</v>
       </c>
-      <c r="B104" t="s">
-        <v>29</v>
-      </c>
-      <c r="C104" t="s">
-        <v>4897</v>
-      </c>
-      <c r="D104" t="s">
-        <v>4898</v>
-      </c>
-      <c r="E104" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F104">
-        <v>5</v>
-      </c>
-      <c r="G104" t="s">
-        <v>4884</v>
-      </c>
-      <c r="H104" t="s">
-        <v>4788</v>
-      </c>
-      <c r="I104" t="s">
-        <v>4899</v>
-      </c>
-      <c r="J104">
-        <v>13</v>
-      </c>
-      <c r="K104" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>4572</v>
       </c>
-      <c r="B105" t="s">
-        <v>29</v>
-      </c>
-      <c r="C105" t="s">
-        <v>4900</v>
-      </c>
-      <c r="D105" t="s">
-        <v>4898</v>
-      </c>
-      <c r="E105" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F105">
-        <v>5</v>
-      </c>
-      <c r="G105" t="s">
-        <v>4708</v>
-      </c>
-      <c r="H105" t="s">
-        <v>4779</v>
-      </c>
-      <c r="I105" t="s">
-        <v>4901</v>
-      </c>
-      <c r="J105">
-        <v>12</v>
-      </c>
-      <c r="K105" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>4573</v>
       </c>
-      <c r="B106" t="s">
-        <v>29</v>
-      </c>
-      <c r="C106" t="s">
-        <v>4902</v>
-      </c>
-      <c r="D106" t="s">
-        <v>4903</v>
-      </c>
-      <c r="E106" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F106">
-        <v>5</v>
-      </c>
-      <c r="G106" t="s">
-        <v>4904</v>
-      </c>
-      <c r="H106" t="s">
-        <v>4788</v>
-      </c>
-      <c r="I106" t="s">
-        <v>4905</v>
-      </c>
-      <c r="J106">
-        <v>46</v>
-      </c>
-      <c r="K106" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>4574</v>
       </c>
-      <c r="B107" t="s">
-        <v>29</v>
-      </c>
-      <c r="C107" t="s">
-        <v>4906</v>
-      </c>
-      <c r="D107" t="s">
-        <v>4907</v>
-      </c>
-      <c r="E107" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F107">
-        <v>5</v>
-      </c>
-      <c r="G107" t="s">
-        <v>4908</v>
-      </c>
-      <c r="H107" t="s">
-        <v>4853</v>
-      </c>
-      <c r="I107" t="s">
-        <v>4909</v>
-      </c>
-      <c r="J107">
-        <v>33</v>
-      </c>
-      <c r="K107" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>4575</v>
       </c>
-      <c r="B108" t="s">
-        <v>29</v>
-      </c>
-      <c r="C108" t="s">
-        <v>4910</v>
-      </c>
-      <c r="D108" t="s">
-        <v>4911</v>
-      </c>
-      <c r="E108" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F108">
-        <v>5</v>
-      </c>
-      <c r="G108" t="s">
-        <v>4912</v>
-      </c>
-      <c r="H108" t="s">
-        <v>4832</v>
-      </c>
-      <c r="I108" t="s">
-        <v>4913</v>
-      </c>
-      <c r="J108">
-        <v>76</v>
-      </c>
-      <c r="K108" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>4576</v>
       </c>
-      <c r="B109" t="s">
-        <v>29</v>
-      </c>
-      <c r="C109" t="s">
-        <v>4914</v>
-      </c>
-      <c r="D109" t="s">
-        <v>4915</v>
-      </c>
-      <c r="E109" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F109">
-        <v>5</v>
-      </c>
-      <c r="G109" t="s">
-        <v>4908</v>
-      </c>
-      <c r="H109" t="s">
-        <v>4775</v>
-      </c>
-      <c r="I109" t="s">
-        <v>4916</v>
-      </c>
-      <c r="J109">
-        <v>11</v>
-      </c>
-      <c r="K109" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>4577</v>
       </c>
-      <c r="B110" t="s">
-        <v>29</v>
-      </c>
-      <c r="C110" t="s">
-        <v>4917</v>
-      </c>
-      <c r="D110" t="s">
-        <v>4915</v>
-      </c>
-      <c r="E110" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F110">
-        <v>5</v>
-      </c>
-      <c r="G110" t="s">
-        <v>4908</v>
-      </c>
-      <c r="H110" t="s">
-        <v>4832</v>
-      </c>
-      <c r="I110" t="s">
-        <v>4918</v>
-      </c>
-      <c r="J110">
-        <v>15</v>
-      </c>
-      <c r="K110" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>4578</v>
       </c>
-      <c r="B111" t="s">
-        <v>29</v>
-      </c>
-      <c r="C111" t="s">
-        <v>4919</v>
-      </c>
-      <c r="D111" t="s">
-        <v>4920</v>
-      </c>
-      <c r="E111" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F111">
-        <v>5</v>
-      </c>
-      <c r="G111" t="s">
-        <v>4733</v>
-      </c>
-      <c r="H111" t="s">
-        <v>4814</v>
-      </c>
-      <c r="I111" t="s">
-        <v>4653</v>
-      </c>
-      <c r="J111">
-        <v>19</v>
-      </c>
-      <c r="K111" t="s">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>4579</v>
       </c>
-      <c r="B112" t="s">
-        <v>29</v>
-      </c>
-      <c r="C112" t="s">
-        <v>4921</v>
-      </c>
-      <c r="D112" t="s">
-        <v>4922</v>
-      </c>
-      <c r="E112" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F112">
-        <v>5</v>
-      </c>
-      <c r="G112" t="s">
-        <v>4733</v>
-      </c>
-      <c r="H112" t="s">
-        <v>4771</v>
-      </c>
-      <c r="I112" t="s">
-        <v>4627</v>
-      </c>
-      <c r="J112">
-        <v>8</v>
-      </c>
-      <c r="K112" t="s">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>4580</v>
       </c>
-      <c r="B113" t="s">
-        <v>29</v>
-      </c>
-      <c r="C113" t="s">
-        <v>4923</v>
-      </c>
-      <c r="D113" t="s">
-        <v>4922</v>
-      </c>
-      <c r="E113" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F113">
-        <v>5</v>
-      </c>
-      <c r="G113" t="s">
-        <v>4733</v>
-      </c>
-      <c r="H113" t="s">
-        <v>4762</v>
-      </c>
-      <c r="I113" t="s">
-        <v>4646</v>
-      </c>
-      <c r="J113">
-        <v>18</v>
-      </c>
-      <c r="K113" t="s">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>4581</v>
       </c>
-      <c r="B114" t="s">
-        <v>29</v>
-      </c>
-      <c r="C114" t="s">
-        <v>4924</v>
-      </c>
-      <c r="D114" t="s">
-        <v>4845</v>
-      </c>
-      <c r="E114" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F114">
-        <v>5</v>
-      </c>
-      <c r="G114" t="s">
-        <v>4631</v>
-      </c>
-      <c r="H114" t="s">
-        <v>4872</v>
-      </c>
-      <c r="I114" t="s">
-        <v>4925</v>
-      </c>
-      <c r="J114">
-        <v>19</v>
-      </c>
-      <c r="K114" t="s">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>4582</v>
       </c>
-      <c r="B115" t="s">
-        <v>29</v>
-      </c>
-      <c r="C115" t="s">
-        <v>4926</v>
-      </c>
-      <c r="D115" t="s">
-        <v>4927</v>
-      </c>
-      <c r="E115" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F115">
-        <v>4</v>
-      </c>
-      <c r="G115" t="s">
-        <v>4635</v>
-      </c>
-      <c r="H115" t="s">
-        <v>4928</v>
-      </c>
-      <c r="I115" t="s">
-        <v>4929</v>
-      </c>
-      <c r="J115">
-        <v>50</v>
-      </c>
-      <c r="K115" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>4583</v>
       </c>
-      <c r="B116" t="s">
-        <v>29</v>
-      </c>
-      <c r="C116" t="s">
-        <v>4930</v>
-      </c>
-      <c r="D116" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E116" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F116">
-        <v>5</v>
-      </c>
-      <c r="G116" t="s">
-        <v>4635</v>
-      </c>
-      <c r="H116" t="s">
-        <v>4775</v>
-      </c>
-      <c r="I116" t="s">
-        <v>4931</v>
-      </c>
-      <c r="J116">
-        <v>55</v>
-      </c>
-      <c r="K116" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>4584</v>
       </c>
-      <c r="B117" t="s">
-        <v>29</v>
-      </c>
-      <c r="C117" t="s">
-        <v>4932</v>
-      </c>
-      <c r="D117" t="s">
-        <v>4933</v>
-      </c>
-      <c r="E117" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F117">
-        <v>5</v>
-      </c>
-      <c r="G117" t="s">
-        <v>4640</v>
-      </c>
-      <c r="H117" t="s">
-        <v>4832</v>
-      </c>
-      <c r="I117" t="s">
-        <v>4934</v>
-      </c>
-      <c r="J117">
-        <v>145</v>
-      </c>
-      <c r="K117" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>4585</v>
       </c>
-      <c r="B118" t="s">
-        <v>29</v>
-      </c>
-      <c r="C118" t="s">
-        <v>4935</v>
-      </c>
-      <c r="D118" t="s">
-        <v>4936</v>
-      </c>
-      <c r="E118" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F118">
-        <v>5</v>
-      </c>
-      <c r="G118" t="s">
-        <v>4644</v>
-      </c>
-      <c r="H118" t="s">
-        <v>4814</v>
-      </c>
-      <c r="I118" t="s">
-        <v>4937</v>
-      </c>
-      <c r="J118">
-        <v>20</v>
-      </c>
-      <c r="K118" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>4586</v>
       </c>
-      <c r="B119" t="s">
-        <v>29</v>
-      </c>
-      <c r="C119" t="s">
-        <v>4938</v>
-      </c>
-      <c r="D119" t="s">
-        <v>4939</v>
-      </c>
-      <c r="E119" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F119">
-        <v>5</v>
-      </c>
-      <c r="G119" t="s">
-        <v>4708</v>
-      </c>
-      <c r="H119" t="s">
-        <v>4872</v>
-      </c>
-      <c r="I119" t="s">
-        <v>4940</v>
-      </c>
-      <c r="J119">
-        <v>29</v>
-      </c>
-      <c r="K119" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>4587</v>
       </c>
-      <c r="B120" t="s">
-        <v>29</v>
-      </c>
-      <c r="C120" t="s">
-        <v>4941</v>
-      </c>
-      <c r="D120" t="s">
-        <v>4942</v>
-      </c>
-      <c r="E120" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F120">
-        <v>5</v>
-      </c>
-      <c r="G120" t="s">
-        <v>4708</v>
-      </c>
-      <c r="H120" t="s">
-        <v>4802</v>
-      </c>
-      <c r="I120" t="s">
-        <v>4943</v>
-      </c>
-      <c r="J120">
-        <v>37</v>
-      </c>
-      <c r="K120" t="s">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>4588</v>
       </c>
-      <c r="B121" t="s">
-        <v>29</v>
-      </c>
-      <c r="C121" t="s">
-        <v>4944</v>
-      </c>
-      <c r="D121" t="s">
-        <v>4942</v>
-      </c>
-      <c r="E121" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F121">
-        <v>5</v>
-      </c>
-      <c r="G121" t="s">
-        <v>4708</v>
-      </c>
-      <c r="H121" t="s">
-        <v>4853</v>
-      </c>
-      <c r="I121" t="s">
-        <v>4943</v>
-      </c>
-      <c r="J121">
-        <v>36</v>
-      </c>
-      <c r="K121" t="s">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>4589</v>
       </c>
-      <c r="B122" t="s">
-        <v>29</v>
-      </c>
-      <c r="C122" t="s">
-        <v>4945</v>
-      </c>
-      <c r="D122" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E122" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F122">
-        <v>5</v>
-      </c>
-      <c r="G122" t="s">
-        <v>4644</v>
-      </c>
-      <c r="H122" t="s">
-        <v>4853</v>
-      </c>
-      <c r="I122" t="s">
-        <v>4946</v>
-      </c>
-      <c r="J122">
-        <v>60</v>
-      </c>
-      <c r="K122" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>4590</v>
       </c>
-      <c r="B123" t="s">
-        <v>29</v>
-      </c>
-      <c r="C123" t="s">
-        <v>4947</v>
-      </c>
-      <c r="D123" t="s">
-        <v>4887</v>
-      </c>
-      <c r="E123" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F123">
-        <v>5</v>
-      </c>
-      <c r="G123" t="s">
-        <v>4745</v>
-      </c>
-      <c r="H123" t="s">
-        <v>4775</v>
-      </c>
-      <c r="I123" t="s">
-        <v>4888</v>
-      </c>
-      <c r="J123">
-        <v>53</v>
-      </c>
-      <c r="K123" t="s">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>4591</v>
       </c>
-      <c r="B124" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="5"/>
+    </row>
+    <row r="125" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
         <v>4592</v>
       </c>
-      <c r="B125" t="s">
-        <v>29</v>
-      </c>
-      <c r="C125" t="s">
-        <v>4948</v>
-      </c>
-      <c r="D125" t="s">
-        <v>4863</v>
-      </c>
-      <c r="E125" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F125">
-        <v>5</v>
-      </c>
-      <c r="G125" t="s">
-        <v>4809</v>
-      </c>
-      <c r="H125" t="s">
-        <v>4832</v>
-      </c>
-      <c r="I125" t="s">
-        <v>4949</v>
-      </c>
-      <c r="J125">
-        <v>48</v>
-      </c>
-      <c r="K125" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>4593</v>
       </c>
-      <c r="B126" t="s">
-        <v>29</v>
-      </c>
-      <c r="C126" t="s">
-        <v>4950</v>
-      </c>
-      <c r="D126" t="s">
-        <v>4951</v>
-      </c>
-      <c r="E126" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F126">
-        <v>5</v>
-      </c>
-      <c r="G126" t="s">
-        <v>4952</v>
-      </c>
-      <c r="H126" t="s">
-        <v>4762</v>
-      </c>
-      <c r="I126" t="s">
-        <v>4953</v>
-      </c>
-      <c r="J126">
-        <v>24</v>
-      </c>
-      <c r="K126" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>4594</v>
       </c>
-      <c r="B127" t="s">
-        <v>29</v>
-      </c>
-      <c r="C127" t="s">
-        <v>4954</v>
-      </c>
-      <c r="D127" t="s">
-        <v>4955</v>
-      </c>
-      <c r="E127" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F127">
-        <v>5</v>
-      </c>
-      <c r="G127" t="s">
-        <v>4952</v>
-      </c>
-      <c r="H127" t="s">
-        <v>4775</v>
-      </c>
-      <c r="I127" t="s">
-        <v>4956</v>
-      </c>
-      <c r="J127">
-        <v>39</v>
-      </c>
-      <c r="K127" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>4595</v>
       </c>
-      <c r="B128" t="s">
-        <v>29</v>
-      </c>
-      <c r="C128" t="s">
-        <v>4957</v>
-      </c>
-      <c r="D128" t="s">
-        <v>4958</v>
-      </c>
-      <c r="E128" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F128">
-        <v>5</v>
-      </c>
-      <c r="G128" t="s">
-        <v>4635</v>
-      </c>
-      <c r="H128" t="s">
-        <v>4806</v>
-      </c>
-      <c r="I128" t="s">
-        <v>4959</v>
-      </c>
-      <c r="J128">
-        <v>46</v>
-      </c>
-      <c r="K128" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>4596</v>
       </c>
-      <c r="B129" t="s">
-        <v>29</v>
-      </c>
-      <c r="C129" t="s">
-        <v>4960</v>
-      </c>
-      <c r="D129" t="s">
-        <v>4961</v>
-      </c>
-      <c r="E129" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F129">
-        <v>5</v>
-      </c>
-      <c r="G129" t="s">
-        <v>4733</v>
-      </c>
-      <c r="H129" t="s">
-        <v>4832</v>
-      </c>
-      <c r="I129" t="s">
-        <v>4962</v>
-      </c>
-      <c r="J129">
-        <v>49</v>
-      </c>
-      <c r="K129" t="s">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>4597</v>
       </c>
-      <c r="B130" t="s">
-        <v>29</v>
-      </c>
-      <c r="C130" t="s">
-        <v>4963</v>
-      </c>
-      <c r="D130" t="s">
-        <v>4964</v>
-      </c>
-      <c r="E130" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F130">
-        <v>5</v>
-      </c>
-      <c r="G130" t="s">
-        <v>4965</v>
-      </c>
-      <c r="H130" t="s">
-        <v>4872</v>
-      </c>
-      <c r="I130" t="s">
-        <v>4966</v>
-      </c>
-      <c r="J130">
-        <v>32</v>
-      </c>
-      <c r="K130" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>4598</v>
       </c>
-      <c r="B131" t="s">
-        <v>29</v>
-      </c>
-      <c r="C131" t="s">
-        <v>4967</v>
-      </c>
-      <c r="D131" t="s">
-        <v>4968</v>
-      </c>
-      <c r="E131" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F131">
-        <v>5</v>
-      </c>
-      <c r="G131" t="s">
-        <v>4912</v>
-      </c>
-      <c r="H131" t="s">
-        <v>4806</v>
-      </c>
-      <c r="I131" t="s">
-        <v>4969</v>
-      </c>
-      <c r="J131">
-        <v>49</v>
-      </c>
-      <c r="K131" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>4599</v>
       </c>
-      <c r="B132" t="s">
-        <v>29</v>
-      </c>
-      <c r="C132" t="s">
-        <v>4970</v>
-      </c>
-      <c r="D132" t="s">
-        <v>4971</v>
-      </c>
-      <c r="E132" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F132">
-        <v>5</v>
-      </c>
-      <c r="G132" t="s">
-        <v>4708</v>
-      </c>
-      <c r="H132" t="s">
-        <v>4872</v>
-      </c>
-      <c r="I132" t="s">
-        <v>4972</v>
-      </c>
-      <c r="J132">
-        <v>24</v>
-      </c>
-      <c r="K132" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>4600</v>
       </c>
-      <c r="B133" t="s">
-        <v>29</v>
-      </c>
-      <c r="C133" t="s">
-        <v>4973</v>
-      </c>
-      <c r="D133" t="s">
-        <v>4974</v>
-      </c>
-      <c r="E133" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F133">
-        <v>5</v>
-      </c>
-      <c r="G133" t="s">
-        <v>4904</v>
-      </c>
-      <c r="H133" t="s">
-        <v>4832</v>
-      </c>
-      <c r="I133" t="s">
-        <v>4975</v>
-      </c>
-      <c r="J133">
-        <v>24</v>
-      </c>
-      <c r="K133" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>4601</v>
       </c>
-      <c r="B134" t="s">
-        <v>29</v>
-      </c>
-      <c r="C134" t="s">
-        <v>4976</v>
-      </c>
-      <c r="D134" t="s">
-        <v>4977</v>
-      </c>
-      <c r="E134" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F134">
-        <v>5</v>
-      </c>
-      <c r="G134" t="s">
-        <v>4745</v>
-      </c>
-      <c r="H134" t="s">
-        <v>4872</v>
-      </c>
-      <c r="I134" t="s">
-        <v>4978</v>
-      </c>
-      <c r="J134">
-        <v>53</v>
-      </c>
-      <c r="K134" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>4602</v>
       </c>
-      <c r="B135" t="s">
-        <v>29</v>
-      </c>
-      <c r="C135" t="s">
-        <v>4979</v>
-      </c>
-      <c r="D135" t="s">
-        <v>4805</v>
-      </c>
-      <c r="E135" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F135">
-        <v>5</v>
-      </c>
-      <c r="G135" t="s">
-        <v>4635</v>
-      </c>
-      <c r="H135" t="s">
-        <v>4980</v>
-      </c>
-      <c r="I135" t="s">
-        <v>4981</v>
-      </c>
-      <c r="J135">
-        <v>61</v>
-      </c>
-      <c r="K135" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>4603</v>
       </c>
-      <c r="B136" t="s">
-        <v>29</v>
-      </c>
-      <c r="C136" t="s">
-        <v>4982</v>
-      </c>
-      <c r="D136" t="s">
-        <v>4983</v>
-      </c>
-      <c r="E136" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F136">
-        <v>5</v>
-      </c>
-      <c r="G136" t="s">
-        <v>4984</v>
-      </c>
-      <c r="H136" t="s">
-        <v>4762</v>
-      </c>
-      <c r="I136" t="s">
-        <v>4985</v>
-      </c>
-      <c r="J136">
-        <v>16</v>
-      </c>
-      <c r="K136" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>4604</v>
       </c>
-      <c r="B137" t="s">
-        <v>29</v>
-      </c>
-      <c r="C137" t="s">
-        <v>4986</v>
-      </c>
-      <c r="D137" t="s">
-        <v>4987</v>
-      </c>
-      <c r="E137" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F137">
-        <v>5</v>
-      </c>
-      <c r="G137" t="s">
-        <v>4890</v>
-      </c>
-      <c r="H137" t="s">
-        <v>4771</v>
-      </c>
-      <c r="I137" t="s">
-        <v>4988</v>
-      </c>
-      <c r="J137">
-        <v>52</v>
-      </c>
-      <c r="K137" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
         <v>4605</v>
       </c>
-      <c r="B138" t="s">
-        <v>29</v>
-      </c>
-      <c r="C138" t="s">
-        <v>4989</v>
-      </c>
-      <c r="D138" t="s">
-        <v>4990</v>
-      </c>
-      <c r="E138" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F138">
-        <v>5</v>
-      </c>
-      <c r="G138" t="s">
-        <v>4991</v>
-      </c>
-      <c r="H138" t="s">
-        <v>4806</v>
-      </c>
-      <c r="I138" t="s">
-        <v>4992</v>
-      </c>
-      <c r="J138">
-        <v>44</v>
-      </c>
-      <c r="K138" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
         <v>4606</v>
       </c>
-      <c r="B139" t="s">
-        <v>29</v>
-      </c>
-      <c r="C139" t="s">
-        <v>4993</v>
-      </c>
-      <c r="D139" t="s">
-        <v>4990</v>
-      </c>
-      <c r="E139" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F139">
-        <v>5</v>
-      </c>
-      <c r="G139" t="s">
-        <v>4991</v>
-      </c>
-      <c r="H139" t="s">
-        <v>4853</v>
-      </c>
-      <c r="I139" t="s">
-        <v>4994</v>
-      </c>
-      <c r="J139">
-        <v>41</v>
-      </c>
-      <c r="K139" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>4607</v>
       </c>
-      <c r="B140" t="s">
-        <v>29</v>
-      </c>
-      <c r="C140" t="s">
-        <v>4995</v>
-      </c>
-      <c r="D140" t="s">
-        <v>4996</v>
-      </c>
-      <c r="E140" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F140">
-        <v>5</v>
-      </c>
-      <c r="G140" t="s">
-        <v>4733</v>
-      </c>
-      <c r="H140" t="s">
-        <v>4757</v>
-      </c>
-      <c r="I140" t="s">
-        <v>4997</v>
-      </c>
-      <c r="J140">
-        <v>17</v>
-      </c>
-      <c r="K140" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>4608</v>
-      </c>
-      <c r="B141" t="s">
-        <v>29</v>
-      </c>
-      <c r="C141" t="s">
-        <v>4998</v>
-      </c>
-      <c r="D141" t="s">
-        <v>4999</v>
-      </c>
-      <c r="E141" t="s">
-        <v>4611</v>
-      </c>
-      <c r="F141">
-        <v>5</v>
-      </c>
-      <c r="G141" t="s">
-        <v>4635</v>
-      </c>
-      <c r="H141" t="s">
-        <v>4762</v>
-      </c>
-      <c r="I141" t="s">
-        <v>4811</v>
-      </c>
-      <c r="J141">
-        <v>38</v>
-      </c>
-      <c r="K141" t="s">
-        <v>4628</v>
       </c>
     </row>
   </sheetData>

--- a/Review_sheet.xlsx
+++ b/Review_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rish\Documents\GitHub_Repositories\Review_Scraper_Streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C626A4-5754-48D2-8023-C7E567948B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A792C1B0-449C-46D7-8ACE-63B25490A7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ui" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Log" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ui!$A$1:$K$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ui!$A$1:$K$137</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16669" uniqueCount="4610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16665" uniqueCount="4606">
   <si>
     <t>Enter review link here</t>
   </si>
@@ -13461,9 +13461,6 @@
     <t>https://www.amazon.in/gp/customer-reviews/R2T5MBOV5XLAF7?ref=pf_ov_at_pdctrvw_srp</t>
   </si>
   <si>
-    <t>https://www.amazon.in/review/review-your-purchases/edit?_encoding=UTF8&amp;asin=B08L6LNCY9&amp;channel=YAcc-wr</t>
-  </si>
-  <si>
     <t>https://www.amazon.in/review/R2E60W2GNE494B/ref=cm_cr_srp_d_rdp_perm?ie=UTF8&amp;ASIN=B08X4QQXRC</t>
   </si>
   <si>
@@ -13482,9 +13479,6 @@
     <t>https://www.amazon.in/gp/customer-reviews/R2GS5N31PS3YB?ref=pf_ov_at_pdctrvw_srp</t>
   </si>
   <si>
-    <t>https://www.flipkart.com/reviews/LSKGXJNYAWZPFFDG:12?reviewId=05417a9b-54c8-4c34-a3f2-03ff20c6bb51</t>
-  </si>
-  <si>
     <t>https://www.flipkart.com/reviews/LSKGU2QABBWNAACQ:26?reviewId=f6a5a906-c539-4054-8217-9e4f04e65507</t>
   </si>
   <si>
@@ -13492,12 +13486,6 @@
   </si>
   <si>
     <t>https://www.amazon.in/gp/customer-reviews/R2PP3L0E9QEWPL?ref=pf_ov_at_pdctrvw_srp</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/DEOGWWWZV4ETG5EC:6?reviewId=0d2c5d23-2055-4e6e-9d9a-50521dd78d10</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/reviews/2d967601-890e-4eba-91ba-94ab01e3d94e</t>
   </si>
   <si>
     <t>https://www.flipkart.com/reviews/DEOGXJZJEPYP8G3H:3?reviewId=fa4ec0c1-b604-4aa4-97bd-a4a9d39d7392</t>
@@ -14397,10 +14385,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K141"/>
+  <dimension ref="A1:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14476,7 +14464,6 @@
       <c r="A6" s="1" t="s">
         <v>4474</v>
       </c>
-      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -14512,7 +14499,6 @@
       <c r="A13" s="1" t="s">
         <v>4481</v>
       </c>
-      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -14529,84 +14515,82 @@
         <v>4484</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4485</v>
       </c>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4486</v>
       </c>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4487</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>4488</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4489</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4490</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>4491</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4492</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>4493</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>4494</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4495</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>4496</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>4497</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>4498</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>4499</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>4500</v>
       </c>
@@ -14630,6 +14614,7 @@
       <c r="A36" s="1" t="s">
         <v>4504</v>
       </c>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -14650,12 +14635,12 @@
       <c r="A40" s="1" t="s">
         <v>4508</v>
       </c>
-      <c r="B40" s="5"/>
     </row>
     <row r="41" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>4509</v>
       </c>
+      <c r="B41" s="5"/>
     </row>
     <row r="42" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -14676,7 +14661,6 @@
       <c r="A45" s="1" t="s">
         <v>4513</v>
       </c>
-      <c r="B45" s="5"/>
     </row>
     <row r="46" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -14687,11 +14671,13 @@
       <c r="A47" s="1" t="s">
         <v>4515</v>
       </c>
+      <c r="B47" s="5"/>
     </row>
     <row r="48" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>4516</v>
       </c>
+      <c r="B48" s="5"/>
     </row>
     <row r="49" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -14707,13 +14693,11 @@
       <c r="A51" s="1" t="s">
         <v>4519</v>
       </c>
-      <c r="B51" s="5"/>
     </row>
     <row r="52" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>4520</v>
       </c>
-      <c r="B52" s="5"/>
     </row>
     <row r="53" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -14735,28 +14719,29 @@
         <v>4524</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>4525</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
         <v>4526</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
         <v>4527</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
         <v>4528</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="7" t="s">
         <v>4529</v>
       </c>
     </row>
@@ -14769,7 +14754,6 @@
       <c r="A63" s="7" t="s">
         <v>4531</v>
       </c>
-      <c r="B63" s="5"/>
     </row>
     <row r="64" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
@@ -14797,12 +14781,12 @@
       </c>
     </row>
     <row r="69" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="6" t="s">
         <v>4537</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="6" t="s">
         <v>4538</v>
       </c>
     </row>
@@ -14817,37 +14801,37 @@
       </c>
     </row>
     <row r="73" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="7" t="s">
         <v>4541</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
-        <v>4542</v>
+      <c r="A74" s="1" t="s">
+        <v>4605</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>4543</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
+        <v>4543</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
         <v>4544</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="7" t="s">
+    <row r="78" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
         <v>4545</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>4609</v>
-      </c>
-    </row>
     <row r="79" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="6" t="s">
         <v>4546</v>
       </c>
     </row>
@@ -14857,7 +14841,7 @@
       </c>
     </row>
     <row r="81" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="7" t="s">
         <v>4548</v>
       </c>
     </row>
@@ -14867,7 +14851,7 @@
       </c>
     </row>
     <row r="83" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="7" t="s">
         <v>4550</v>
       </c>
     </row>
@@ -14902,7 +14886,7 @@
       </c>
     </row>
     <row r="90" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="6" t="s">
         <v>4557</v>
       </c>
     </row>
@@ -14917,17 +14901,17 @@
       </c>
     </row>
     <row r="93" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="6" t="s">
         <v>4560</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="7" t="s">
         <v>4561</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="6" t="s">
         <v>4562</v>
       </c>
     </row>
@@ -14937,7 +14921,7 @@
       </c>
     </row>
     <row r="97" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="7" t="s">
         <v>4564</v>
       </c>
     </row>
@@ -14947,17 +14931,17 @@
       </c>
     </row>
     <row r="99" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="7" t="s">
         <v>4566</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="6" t="s">
         <v>4567</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="6" t="s">
         <v>4568</v>
       </c>
     </row>
@@ -14967,17 +14951,17 @@
       </c>
     </row>
     <row r="103" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="6" t="s">
         <v>4570</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="7" t="s">
         <v>4571</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="7" t="s">
         <v>4572</v>
       </c>
     </row>
@@ -14987,17 +14971,17 @@
       </c>
     </row>
     <row r="107" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="7" t="s">
         <v>4574</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="6" t="s">
         <v>4575</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="6" t="s">
         <v>4576</v>
       </c>
     </row>
@@ -15007,12 +14991,12 @@
       </c>
     </row>
     <row r="111" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="6" t="s">
         <v>4578</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="7" t="s">
         <v>4579</v>
       </c>
     </row>
@@ -15037,24 +15021,25 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="6" t="s">
+      <c r="A117" s="7" t="s">
         <v>4584</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="6" t="s">
         <v>4585</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="7" t="s">
         <v>4586</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="6" t="s">
         <v>4587</v>
       </c>
+      <c r="B120" s="5"/>
     </row>
     <row r="121" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
@@ -15062,7 +15047,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="6" t="s">
+      <c r="A122" s="7" t="s">
         <v>4589</v>
       </c>
     </row>
@@ -15075,7 +15060,6 @@
       <c r="A124" s="6" t="s">
         <v>4591</v>
       </c>
-      <c r="B124" s="5"/>
     </row>
     <row r="125" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
@@ -15113,7 +15097,7 @@
       </c>
     </row>
     <row r="132" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="6" t="s">
+      <c r="A132" s="7" t="s">
         <v>4599</v>
       </c>
     </row>
@@ -15133,37 +15117,17 @@
       </c>
     </row>
     <row r="136" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="7" t="s">
+      <c r="A136" s="6" t="s">
         <v>4603</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="7" t="s">
+      <c r="A137" s="6" t="s">
         <v>4604</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="7" t="s">
-        <v>4605</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="7" t="s">
-        <v>4606</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="6" t="s">
-        <v>4607</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="6" t="s">
-        <v>4608</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K141" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K137" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="7"/>
@@ -15173,66 +15137,62 @@
     <hyperlink ref="A3" r:id="rId2" xr:uid="{7542FADF-80A4-4BC7-BE18-3FD4C0D7B3FA}"/>
     <hyperlink ref="A4" r:id="rId3" xr:uid="{2C33C0D8-6559-41E5-B122-7782DE4A5C69}"/>
     <hyperlink ref="A5" r:id="rId4" xr:uid="{E1D621CA-1355-418D-BC61-2B71EA94428F}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{055FB801-1857-4678-8015-27E8DB9B7512}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{42C7270B-48BE-41D7-B3C8-6B63EB299F08}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{950D7AE1-AF19-411F-9F30-D09EB5CEC8B3}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{A6CD75F4-8898-4868-865C-BC146CDC0BD5}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{F11E74B2-D7EA-40AF-A04A-06CB16792E5A}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{1AECD033-4507-4012-A18E-0A4E47723A2D}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{FF7B1522-2F4E-4555-9B46-C11F95ED0456}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{AB86C1CC-CA35-4524-B951-B65313B49087}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{C5810FA8-1198-4770-A490-1C41F83AA8BA}"/>
-    <hyperlink ref="A15" r:id="rId14" xr:uid="{6B449E8A-DDA1-4129-B919-D2A0AF7B3244}"/>
-    <hyperlink ref="A16" r:id="rId15" xr:uid="{BF6D50F9-968F-456E-BE2A-CA08335AEC37}"/>
-    <hyperlink ref="A17" r:id="rId16" xr:uid="{AEE119EB-92D9-43B2-85A1-7198A08D5F72}"/>
-    <hyperlink ref="A18" r:id="rId17" xr:uid="{7E2A83C5-C7A5-4DE2-B250-8BCC3F139B38}"/>
-    <hyperlink ref="A19" r:id="rId18" xr:uid="{FAEA0A2C-DE37-49E5-B5C4-2C3ACBBE81B5}"/>
-    <hyperlink ref="A20" r:id="rId19" xr:uid="{9B9C979C-9E17-48B8-B703-8BB47BCEFB26}"/>
-    <hyperlink ref="A21" r:id="rId20" xr:uid="{71CC6701-FB67-45DA-8D6A-DA12DD14D6D4}"/>
-    <hyperlink ref="A22" r:id="rId21" xr:uid="{71CCE6B2-6548-42CC-9438-4F832E017131}"/>
-    <hyperlink ref="A23" r:id="rId22" xr:uid="{E5BA09EF-BB57-483B-830E-FB5A08F6A889}"/>
-    <hyperlink ref="A24" r:id="rId23" xr:uid="{33DCBCD1-A024-4B0E-B8AF-C24A4934712F}"/>
-    <hyperlink ref="A25" r:id="rId24" xr:uid="{320E4810-9E5F-40A5-A331-7580653BD0F2}"/>
-    <hyperlink ref="A26" r:id="rId25" xr:uid="{41F2CBFF-BAF7-49A0-AADD-68235B1510AB}"/>
-    <hyperlink ref="A27" r:id="rId26" xr:uid="{CCF52BBD-E01D-4865-8983-1237E9A327AD}"/>
-    <hyperlink ref="A28" r:id="rId27" xr:uid="{76D0A392-6C4E-4E99-BC38-9FDFC298893B}"/>
-    <hyperlink ref="A29" r:id="rId28" xr:uid="{C02D7810-66DB-40EF-A907-40C35EEDFCDE}"/>
-    <hyperlink ref="A30" r:id="rId29" xr:uid="{967EE3B4-BC47-4BD8-8799-E4561C8505D6}"/>
-    <hyperlink ref="A31" r:id="rId30" xr:uid="{663B9F9C-4BCE-4D63-B4BC-5EEA57B180C9}"/>
-    <hyperlink ref="A32" r:id="rId31" xr:uid="{A739B17F-5962-4C5E-9C29-4E9C381CC1A6}"/>
-    <hyperlink ref="A33" r:id="rId32" xr:uid="{E9D1B784-7927-4415-9207-E987A3FD08ED}"/>
-    <hyperlink ref="A34" r:id="rId33" xr:uid="{3C03A402-EBF6-4AFD-A555-0FC82C137D24}"/>
-    <hyperlink ref="A35" r:id="rId34" xr:uid="{1FA73398-7CC2-4F4B-8C91-A20BA585B41F}"/>
-    <hyperlink ref="A36" r:id="rId35" xr:uid="{A6372D2F-D104-4277-B1C0-52FB5CF033D8}"/>
-    <hyperlink ref="A37" r:id="rId36" xr:uid="{09A05886-A0B4-4833-B4DA-DF514AA83D9F}"/>
-    <hyperlink ref="A38" r:id="rId37" xr:uid="{76CD1548-A39D-468D-9A7F-A25FDF163D40}"/>
-    <hyperlink ref="A39" r:id="rId38" xr:uid="{1C2D1100-6A66-46B0-A35D-77799A4DB9D0}"/>
-    <hyperlink ref="A40" r:id="rId39" xr:uid="{970F5BBB-D0DB-4BE6-94C7-C975C2673515}"/>
-    <hyperlink ref="A41" r:id="rId40" xr:uid="{1A52C130-C20A-40BA-8465-F0C67BD02695}"/>
-    <hyperlink ref="A42" r:id="rId41" xr:uid="{3FE8874C-4810-4356-B97E-49105B019410}"/>
-    <hyperlink ref="A43" r:id="rId42" xr:uid="{FF11169C-2749-428C-880A-0D7EFFE25655}"/>
-    <hyperlink ref="A44" r:id="rId43" xr:uid="{CF3442B3-FF18-4782-9E55-B6D566FBD935}"/>
-    <hyperlink ref="A45" r:id="rId44" xr:uid="{9D04335E-9766-45CB-95B1-890D7AA4282E}"/>
-    <hyperlink ref="A46" r:id="rId45" xr:uid="{6735263E-1111-459A-B432-3332C6719B22}"/>
-    <hyperlink ref="A47" r:id="rId46" xr:uid="{15253944-2B45-45AD-AAB5-765A4EF2AAF0}"/>
-    <hyperlink ref="A48" r:id="rId47" xr:uid="{97813263-1EE2-4E25-9148-0602D2CE41C4}"/>
-    <hyperlink ref="A49" r:id="rId48" xr:uid="{2E5EA4D0-8852-4315-A241-CC33A3FB9637}"/>
-    <hyperlink ref="A50" r:id="rId49" xr:uid="{66AD4FA8-E6D7-4740-BD62-714FFAD0151C}"/>
-    <hyperlink ref="A51" r:id="rId50" xr:uid="{F91CDD4E-2F2E-4572-9886-31F37D6E2823}"/>
-    <hyperlink ref="A52" r:id="rId51" xr:uid="{5118EAAE-4A8E-4E29-88F6-6BF6D6E31A66}"/>
-    <hyperlink ref="A53" r:id="rId52" xr:uid="{0C4EC335-A43D-4A69-AEFE-EE917FFA61F0}"/>
-    <hyperlink ref="A54" r:id="rId53" xr:uid="{87591B6A-9DF1-4BFC-8BA8-C2841446BD2A}"/>
-    <hyperlink ref="A55" r:id="rId54" xr:uid="{FD97D6C0-56BC-4A52-AEEA-39C5A3320C74}"/>
-    <hyperlink ref="A56" r:id="rId55" xr:uid="{C1153C3F-5E93-41CB-881B-411BACEDF52F}"/>
-    <hyperlink ref="A57" r:id="rId56" xr:uid="{306B7A8E-AE1B-493F-9F72-2E2208951659}"/>
-    <hyperlink ref="A58" r:id="rId57" xr:uid="{36D1DE98-DA71-4C67-A1F8-42A160A9E6A2}"/>
-    <hyperlink ref="A59" r:id="rId58" xr:uid="{BC65A4B1-D67D-4933-B368-0EA742EFBF71}"/>
-    <hyperlink ref="A60" r:id="rId59" xr:uid="{A28AC557-AA43-40A2-8EF7-2CC09F2A402C}"/>
-    <hyperlink ref="A61" r:id="rId60" xr:uid="{1E19CD61-D41E-495D-91BF-6C200BC9F60A}"/>
-    <hyperlink ref="A78" r:id="rId61" xr:uid="{85C1F277-B31C-4571-B1CC-985CC807963D}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{42C7270B-48BE-41D7-B3C8-6B63EB299F08}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{950D7AE1-AF19-411F-9F30-D09EB5CEC8B3}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{A6CD75F4-8898-4868-865C-BC146CDC0BD5}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{F11E74B2-D7EA-40AF-A04A-06CB16792E5A}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{1AECD033-4507-4012-A18E-0A4E47723A2D}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{FF7B1522-2F4E-4555-9B46-C11F95ED0456}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{C5810FA8-1198-4770-A490-1C41F83AA8BA}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{6B449E8A-DDA1-4129-B919-D2A0AF7B3244}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{BF6D50F9-968F-456E-BE2A-CA08335AEC37}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{FAEA0A2C-DE37-49E5-B5C4-2C3ACBBE81B5}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{9B9C979C-9E17-48B8-B703-8BB47BCEFB26}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{71CC6701-FB67-45DA-8D6A-DA12DD14D6D4}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{71CCE6B2-6548-42CC-9438-4F832E017131}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{E5BA09EF-BB57-483B-830E-FB5A08F6A889}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{33DCBCD1-A024-4B0E-B8AF-C24A4934712F}"/>
+    <hyperlink ref="A21" r:id="rId20" xr:uid="{320E4810-9E5F-40A5-A331-7580653BD0F2}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{41F2CBFF-BAF7-49A0-AADD-68235B1510AB}"/>
+    <hyperlink ref="A23" r:id="rId22" xr:uid="{CCF52BBD-E01D-4865-8983-1237E9A327AD}"/>
+    <hyperlink ref="A24" r:id="rId23" xr:uid="{76D0A392-6C4E-4E99-BC38-9FDFC298893B}"/>
+    <hyperlink ref="A25" r:id="rId24" xr:uid="{C02D7810-66DB-40EF-A907-40C35EEDFCDE}"/>
+    <hyperlink ref="A26" r:id="rId25" xr:uid="{967EE3B4-BC47-4BD8-8799-E4561C8505D6}"/>
+    <hyperlink ref="A27" r:id="rId26" xr:uid="{663B9F9C-4BCE-4D63-B4BC-5EEA57B180C9}"/>
+    <hyperlink ref="A28" r:id="rId27" xr:uid="{A739B17F-5962-4C5E-9C29-4E9C381CC1A6}"/>
+    <hyperlink ref="A29" r:id="rId28" xr:uid="{E9D1B784-7927-4415-9207-E987A3FD08ED}"/>
+    <hyperlink ref="A30" r:id="rId29" xr:uid="{3C03A402-EBF6-4AFD-A555-0FC82C137D24}"/>
+    <hyperlink ref="A31" r:id="rId30" xr:uid="{1FA73398-7CC2-4F4B-8C91-A20BA585B41F}"/>
+    <hyperlink ref="A32" r:id="rId31" xr:uid="{A6372D2F-D104-4277-B1C0-52FB5CF033D8}"/>
+    <hyperlink ref="A33" r:id="rId32" xr:uid="{09A05886-A0B4-4833-B4DA-DF514AA83D9F}"/>
+    <hyperlink ref="A34" r:id="rId33" xr:uid="{76CD1548-A39D-468D-9A7F-A25FDF163D40}"/>
+    <hyperlink ref="A35" r:id="rId34" xr:uid="{1C2D1100-6A66-46B0-A35D-77799A4DB9D0}"/>
+    <hyperlink ref="A36" r:id="rId35" xr:uid="{970F5BBB-D0DB-4BE6-94C7-C975C2673515}"/>
+    <hyperlink ref="A37" r:id="rId36" xr:uid="{1A52C130-C20A-40BA-8465-F0C67BD02695}"/>
+    <hyperlink ref="A38" r:id="rId37" xr:uid="{3FE8874C-4810-4356-B97E-49105B019410}"/>
+    <hyperlink ref="A39" r:id="rId38" xr:uid="{FF11169C-2749-428C-880A-0D7EFFE25655}"/>
+    <hyperlink ref="A40" r:id="rId39" xr:uid="{CF3442B3-FF18-4782-9E55-B6D566FBD935}"/>
+    <hyperlink ref="A41" r:id="rId40" xr:uid="{9D04335E-9766-45CB-95B1-890D7AA4282E}"/>
+    <hyperlink ref="A42" r:id="rId41" xr:uid="{6735263E-1111-459A-B432-3332C6719B22}"/>
+    <hyperlink ref="A43" r:id="rId42" xr:uid="{15253944-2B45-45AD-AAB5-765A4EF2AAF0}"/>
+    <hyperlink ref="A44" r:id="rId43" xr:uid="{97813263-1EE2-4E25-9148-0602D2CE41C4}"/>
+    <hyperlink ref="A45" r:id="rId44" xr:uid="{2E5EA4D0-8852-4315-A241-CC33A3FB9637}"/>
+    <hyperlink ref="A46" r:id="rId45" xr:uid="{66AD4FA8-E6D7-4740-BD62-714FFAD0151C}"/>
+    <hyperlink ref="A47" r:id="rId46" xr:uid="{F91CDD4E-2F2E-4572-9886-31F37D6E2823}"/>
+    <hyperlink ref="A48" r:id="rId47" xr:uid="{5118EAAE-4A8E-4E29-88F6-6BF6D6E31A66}"/>
+    <hyperlink ref="A49" r:id="rId48" xr:uid="{0C4EC335-A43D-4A69-AEFE-EE917FFA61F0}"/>
+    <hyperlink ref="A50" r:id="rId49" xr:uid="{87591B6A-9DF1-4BFC-8BA8-C2841446BD2A}"/>
+    <hyperlink ref="A51" r:id="rId50" xr:uid="{FD97D6C0-56BC-4A52-AEEA-39C5A3320C74}"/>
+    <hyperlink ref="A52" r:id="rId51" xr:uid="{C1153C3F-5E93-41CB-881B-411BACEDF52F}"/>
+    <hyperlink ref="A53" r:id="rId52" xr:uid="{306B7A8E-AE1B-493F-9F72-2E2208951659}"/>
+    <hyperlink ref="A54" r:id="rId53" xr:uid="{36D1DE98-DA71-4C67-A1F8-42A160A9E6A2}"/>
+    <hyperlink ref="A55" r:id="rId54" xr:uid="{BC65A4B1-D67D-4933-B368-0EA742EFBF71}"/>
+    <hyperlink ref="A56" r:id="rId55" xr:uid="{A28AC557-AA43-40A2-8EF7-2CC09F2A402C}"/>
+    <hyperlink ref="A57" r:id="rId56" xr:uid="{1E19CD61-D41E-495D-91BF-6C200BC9F60A}"/>
+    <hyperlink ref="A74" r:id="rId57" xr:uid="{85C1F277-B31C-4571-B1CC-985CC807963D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId62"/>
+  <pageSetup orientation="portrait" r:id="rId58"/>
 </worksheet>
 </file>
 
